--- a/project_1a (equal_weight_spdr)/recommended trades.xlsx
+++ b/project_1a (equal_weight_spdr)/recommended trades.xlsx
@@ -1938,13 +1938,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>118.16</v>
+        <v>120.64</v>
       </c>
       <c r="C2" s="2">
-        <v>36071903342</v>
+        <v>36493640354</v>
       </c>
       <c r="D2" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1952,13 +1952,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>15.85</v>
+        <v>16.14</v>
       </c>
       <c r="C3" s="2">
-        <v>9623571752</v>
+        <v>9532841048</v>
       </c>
       <c r="D3" s="3">
-        <v>124</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1966,13 +1966,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>166.71</v>
+        <v>161.18</v>
       </c>
       <c r="C4" s="2">
-        <v>11203527223</v>
+        <v>11142773611</v>
       </c>
       <c r="D4" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1980,13 +1980,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>132.72</v>
+        <v>133.66</v>
       </c>
       <c r="C5" s="2">
-        <v>2250382217954</v>
+        <v>2293284737822</v>
       </c>
       <c r="D5" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1994,13 +1994,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>105.34</v>
+        <v>104.93</v>
       </c>
       <c r="C6" s="2">
-        <v>185835430306</v>
+        <v>191280917773</v>
       </c>
       <c r="D6" s="3">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2008,13 +2008,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>98.41</v>
+        <v>98.34999999999999</v>
       </c>
       <c r="C7" s="2">
-        <v>20369372784</v>
+        <v>19873253846</v>
       </c>
       <c r="D7" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2022,13 +2022,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>312.82</v>
+        <v>311.99</v>
       </c>
       <c r="C8" s="2">
-        <v>14074238640</v>
+        <v>13879753583</v>
       </c>
       <c r="D8" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2036,13 +2036,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>113.63</v>
+        <v>109.95</v>
       </c>
       <c r="C9" s="2">
-        <v>199412377878</v>
+        <v>192891151386</v>
       </c>
       <c r="D9" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2050,13 +2050,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>261.1</v>
+        <v>261.7</v>
       </c>
       <c r="C10" s="2">
-        <v>174267755064</v>
+        <v>173324942452</v>
       </c>
       <c r="D10" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2064,13 +2064,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>506.45</v>
+        <v>511.83</v>
       </c>
       <c r="C11" s="2">
-        <v>246926419388</v>
+        <v>243187096162</v>
       </c>
       <c r="D11" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2078,13 +2078,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>147.02</v>
+        <v>151.69</v>
       </c>
       <c r="C12" s="2">
-        <v>55081630103</v>
+        <v>55310071452</v>
       </c>
       <c r="D12" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2092,13 +2092,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>50.37</v>
+        <v>50.05</v>
       </c>
       <c r="C13" s="2">
-        <v>27659701661</v>
+        <v>28192724245</v>
       </c>
       <c r="D13" s="3">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2106,13 +2106,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="2">
-        <v>180.25</v>
+        <v>179.69</v>
       </c>
       <c r="C14" s="2">
-        <v>79349411295</v>
+        <v>75955339787</v>
       </c>
       <c r="D14" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2120,13 +2120,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>311.1</v>
+        <v>301.82</v>
       </c>
       <c r="C15" s="2">
-        <v>67903546002</v>
+        <v>68792477101</v>
       </c>
       <c r="D15" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2134,13 +2134,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>79.95999999999999</v>
+        <v>77.95</v>
       </c>
       <c r="C16" s="2">
-        <v>19304909585</v>
+        <v>19515264556</v>
       </c>
       <c r="D16" s="3">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2148,13 +2148,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>85.38</v>
+        <v>83.88</v>
       </c>
       <c r="C17" s="2">
-        <v>40907574493</v>
+        <v>40912440528</v>
       </c>
       <c r="D17" s="3">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2162,13 +2162,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>24.23</v>
+        <v>24.21</v>
       </c>
       <c r="C18" s="2">
-        <v>15588178744</v>
+        <v>15614826481</v>
       </c>
       <c r="D18" s="3">
-        <v>81</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2176,13 +2176,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="2">
-        <v>45.45</v>
+        <v>43.84</v>
       </c>
       <c r="C19" s="2">
-        <v>31854595107</v>
+        <v>32196667111</v>
       </c>
       <c r="D19" s="3">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2190,13 +2190,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="2">
-        <v>38.98</v>
+        <v>37.89</v>
       </c>
       <c r="C20" s="2">
-        <v>32810521638</v>
+        <v>32231187123</v>
       </c>
       <c r="D20" s="3">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2204,13 +2204,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="2">
-        <v>5.03</v>
+        <v>5.18</v>
       </c>
       <c r="C21" s="2">
-        <v>812877658</v>
+        <v>810345253</v>
       </c>
       <c r="D21" s="3">
-        <v>393</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2218,13 +2218,13 @@
         <v>24</v>
       </c>
       <c r="B22" s="2">
-        <v>133.37</v>
+        <v>134.11</v>
       </c>
       <c r="C22" s="2">
-        <v>8108455849</v>
+        <v>7825906955</v>
       </c>
       <c r="D22" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2232,13 +2232,13 @@
         <v>25</v>
       </c>
       <c r="B23" s="2">
-        <v>124.55</v>
+        <v>127.27</v>
       </c>
       <c r="C23" s="2">
-        <v>24598944908</v>
+        <v>24536857742</v>
       </c>
       <c r="D23" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2246,13 +2246,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="2">
-        <v>109.73</v>
+        <v>112.19</v>
       </c>
       <c r="C24" s="2">
-        <v>17696228635</v>
+        <v>17720387737</v>
       </c>
       <c r="D24" s="3">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2260,13 +2260,13 @@
         <v>27</v>
       </c>
       <c r="B25" s="2">
-        <v>156.04</v>
+        <v>151.72</v>
       </c>
       <c r="C25" s="2">
-        <v>16168049203</v>
+        <v>16418164549</v>
       </c>
       <c r="D25" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2274,13 +2274,13 @@
         <v>28</v>
       </c>
       <c r="B26" s="2">
-        <v>554.16</v>
+        <v>548.24</v>
       </c>
       <c r="C26" s="2">
-        <v>41884104295</v>
+        <v>42743477353</v>
       </c>
       <c r="D26" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2288,13 +2288,13 @@
         <v>29</v>
       </c>
       <c r="B27" s="2">
-        <v>54.24</v>
+        <v>54.63</v>
       </c>
       <c r="C27" s="2">
-        <v>6740423329</v>
+        <v>6468051256</v>
       </c>
       <c r="D27" s="3">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2302,13 +2302,13 @@
         <v>30</v>
       </c>
       <c r="B28" s="2">
-        <v>112.14</v>
+        <v>112.48</v>
       </c>
       <c r="C28" s="2">
-        <v>33057441984</v>
+        <v>32673086451</v>
       </c>
       <c r="D28" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2316,13 +2316,13 @@
         <v>31</v>
       </c>
       <c r="B29" s="2">
-        <v>118.23</v>
+        <v>116.91</v>
       </c>
       <c r="C29" s="2">
-        <v>10682661923</v>
+        <v>10801497401</v>
       </c>
       <c r="D29" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2330,13 +2330,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="2">
-        <v>159.13</v>
+        <v>156.17</v>
       </c>
       <c r="C30" s="2">
-        <v>34045998134</v>
+        <v>34513963029</v>
       </c>
       <c r="D30" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2344,13 +2344,13 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>85.38</v>
+        <v>89.45</v>
       </c>
       <c r="C31" s="2">
-        <v>78792764290</v>
+        <v>81812295075</v>
       </c>
       <c r="D31" s="3">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2358,13 +2358,13 @@
         <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>11.66</v>
+        <v>11.88</v>
       </c>
       <c r="C32" s="2">
-        <v>18976365635</v>
+        <v>18836203885</v>
       </c>
       <c r="D32" s="3">
-        <v>169</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2372,13 +2372,13 @@
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>92.31</v>
+        <v>94.34</v>
       </c>
       <c r="C33" s="2">
-        <v>111473649402</v>
+        <v>111216219428</v>
       </c>
       <c r="D33" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2386,13 +2386,13 @@
         <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>121.18</v>
+        <v>121.67</v>
       </c>
       <c r="C34" s="2">
-        <v>27918505389</v>
+        <v>27965913474</v>
       </c>
       <c r="D34" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2400,13 +2400,13 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>233.94</v>
+        <v>224.42</v>
       </c>
       <c r="C35" s="2">
-        <v>133323208893</v>
+        <v>136096907873</v>
       </c>
       <c r="D35" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2414,13 +2414,13 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>198.3</v>
+        <v>197.7</v>
       </c>
       <c r="C36" s="2">
-        <v>22785990913</v>
+        <v>23181893481</v>
       </c>
       <c r="D36" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2428,13 +2428,13 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>224.66</v>
+        <v>224.05</v>
       </c>
       <c r="C37" s="2">
-        <v>100581117885</v>
+        <v>97954156195</v>
       </c>
       <c r="D37" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2442,10 +2442,10 @@
         <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>3192.25</v>
+        <v>3234.74</v>
       </c>
       <c r="C38" s="2">
-        <v>1652574923045</v>
+        <v>1668009758808</v>
       </c>
       <c r="D38" s="3">
         <v>0</v>
@@ -2456,13 +2456,13 @@
         <v>41</v>
       </c>
       <c r="B39" s="2">
-        <v>290.4</v>
+        <v>300.51</v>
       </c>
       <c r="C39" s="2">
-        <v>22746558441</v>
+        <v>21860813992</v>
       </c>
       <c r="D39" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2470,13 +2470,13 @@
         <v>42</v>
       </c>
       <c r="B40" s="2">
-        <v>382.17</v>
+        <v>373.79</v>
       </c>
       <c r="C40" s="2">
-        <v>32819670737</v>
+        <v>31810241773</v>
       </c>
       <c r="D40" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2484,13 +2484,13 @@
         <v>43</v>
       </c>
       <c r="B41" s="2">
-        <v>315.85</v>
+        <v>323.97</v>
       </c>
       <c r="C41" s="2">
-        <v>76844556904</v>
+        <v>77285928112</v>
       </c>
       <c r="D41" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2498,13 +2498,13 @@
         <v>44</v>
       </c>
       <c r="B42" s="2">
-        <v>217.79</v>
+        <v>211.64</v>
       </c>
       <c r="C42" s="2">
-        <v>49099300724</v>
+        <v>49105401344</v>
       </c>
       <c r="D42" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2512,13 +2512,13 @@
         <v>45</v>
       </c>
       <c r="B43" s="2">
-        <v>55.94</v>
+        <v>57.08</v>
       </c>
       <c r="C43" s="2">
-        <v>9208967045</v>
+        <v>9116433669</v>
       </c>
       <c r="D43" s="3">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2526,13 +2526,13 @@
         <v>46</v>
       </c>
       <c r="B44" s="2">
-        <v>14.81</v>
+        <v>15.1</v>
       </c>
       <c r="C44" s="2">
-        <v>5493453341</v>
+        <v>5676047187</v>
       </c>
       <c r="D44" s="3">
-        <v>133</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2540,13 +2540,13 @@
         <v>47</v>
       </c>
       <c r="B45" s="2">
-        <v>270.53</v>
+        <v>271.44</v>
       </c>
       <c r="C45" s="2">
-        <v>61015928938</v>
+        <v>60039330661</v>
       </c>
       <c r="D45" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2554,13 +2554,13 @@
         <v>48</v>
       </c>
       <c r="B46" s="2">
-        <v>133.7</v>
+        <v>134.04</v>
       </c>
       <c r="C46" s="2">
-        <v>38688303435</v>
+        <v>39224621778</v>
       </c>
       <c r="D46" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2568,13 +2568,13 @@
         <v>49</v>
       </c>
       <c r="B47" s="2">
-        <v>132.79</v>
+        <v>134.1</v>
       </c>
       <c r="C47" s="2">
-        <v>34748498625</v>
+        <v>36036538729</v>
       </c>
       <c r="D47" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2582,13 +2582,13 @@
         <v>50</v>
       </c>
       <c r="B48" s="2">
-        <v>177.5</v>
+        <v>176.5</v>
       </c>
       <c r="C48" s="2">
-        <v>24648916424</v>
+        <v>24005886972</v>
       </c>
       <c r="D48" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2596,13 +2596,13 @@
         <v>51</v>
       </c>
       <c r="B49" s="2">
-        <v>96.42</v>
+        <v>93.23999999999999</v>
       </c>
       <c r="C49" s="2">
-        <v>12182960413</v>
+        <v>11895648301</v>
       </c>
       <c r="D49" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2610,13 +2610,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="2">
-        <v>95.45999999999999</v>
+        <v>92.48999999999999</v>
       </c>
       <c r="C50" s="2">
-        <v>70569869986</v>
+        <v>71702053313</v>
       </c>
       <c r="D50" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2624,13 +2624,13 @@
         <v>53</v>
       </c>
       <c r="B51" s="2">
-        <v>157.89</v>
+        <v>163.37</v>
       </c>
       <c r="C51" s="2">
-        <v>22573264633</v>
+        <v>22321891096</v>
       </c>
       <c r="D51" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2638,13 +2638,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="2">
-        <v>441.12</v>
+        <v>450.76</v>
       </c>
       <c r="C52" s="2">
-        <v>183689974064</v>
+        <v>182902349563</v>
       </c>
       <c r="D52" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2652,13 +2652,13 @@
         <v>55</v>
       </c>
       <c r="B53" s="2">
-        <v>154.8</v>
+        <v>159.5</v>
       </c>
       <c r="C53" s="2">
-        <v>12853438662</v>
+        <v>13033651693</v>
       </c>
       <c r="D53" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2666,13 +2666,13 @@
         <v>56</v>
       </c>
       <c r="B54" s="2">
-        <v>152.2</v>
+        <v>152.98</v>
       </c>
       <c r="C54" s="2">
-        <v>27800640508</v>
+        <v>27942058735</v>
       </c>
       <c r="D54" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2680,13 +2680,13 @@
         <v>57</v>
       </c>
       <c r="B55" s="2">
-        <v>120.78</v>
+        <v>122.89</v>
       </c>
       <c r="C55" s="2">
-        <v>95413213568</v>
+        <v>94530169620</v>
       </c>
       <c r="D55" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2694,13 +2694,13 @@
         <v>58</v>
       </c>
       <c r="B56" s="2">
-        <v>1264.39</v>
+        <v>1232.87</v>
       </c>
       <c r="C56" s="2">
-        <v>28012824699</v>
+        <v>28224383079</v>
       </c>
       <c r="D56" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2708,13 +2708,13 @@
         <v>59</v>
       </c>
       <c r="B57" s="2">
-        <v>217.88</v>
+        <v>227.01</v>
       </c>
       <c r="C57" s="2">
-        <v>125714736409</v>
+        <v>125957638934</v>
       </c>
       <c r="D57" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2722,13 +2722,13 @@
         <v>60</v>
       </c>
       <c r="B58" s="2">
-        <v>30.58</v>
+        <v>31.3</v>
       </c>
       <c r="C58" s="2">
-        <v>262516868796</v>
+        <v>270518596990</v>
       </c>
       <c r="D58" s="3">
-        <v>64</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2736,13 +2736,13 @@
         <v>61</v>
       </c>
       <c r="B59" s="2">
-        <v>80.19</v>
+        <v>80.03</v>
       </c>
       <c r="C59" s="2">
-        <v>40831036276</v>
+        <v>41478265666</v>
       </c>
       <c r="D59" s="3">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2750,13 +2750,13 @@
         <v>62</v>
       </c>
       <c r="B60" s="2">
-        <v>105.7</v>
+        <v>107.47</v>
       </c>
       <c r="C60" s="2">
-        <v>27439195003</v>
+        <v>27754512022</v>
       </c>
       <c r="D60" s="3">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2764,13 +2764,13 @@
         <v>63</v>
       </c>
       <c r="B61" s="2">
-        <v>252.74</v>
+        <v>253.68</v>
       </c>
       <c r="C61" s="2">
-        <v>73965516009</v>
+        <v>73758411618</v>
       </c>
       <c r="D61" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2778,13 +2778,13 @@
         <v>64</v>
       </c>
       <c r="B62" s="2">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="C62" s="2">
-        <v>12541655088</v>
+        <v>12549508830</v>
       </c>
       <c r="D62" s="3">
-        <v>77</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2792,13 +2792,13 @@
         <v>65</v>
       </c>
       <c r="B63" s="2">
-        <v>79.56999999999999</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="C63" s="2">
-        <v>37359881452</v>
+        <v>37206604192</v>
       </c>
       <c r="D63" s="3">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2806,13 +2806,13 @@
         <v>66</v>
       </c>
       <c r="B64" s="2">
-        <v>260.89</v>
+        <v>258.32</v>
       </c>
       <c r="C64" s="2">
-        <v>38386832752</v>
+        <v>40186996473</v>
       </c>
       <c r="D64" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2820,13 +2820,13 @@
         <v>67</v>
       </c>
       <c r="B65" s="2">
-        <v>585.8</v>
+        <v>578.3099999999999</v>
       </c>
       <c r="C65" s="2">
-        <v>17897903497</v>
+        <v>17462957313</v>
       </c>
       <c r="D65" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2834,13 +2834,13 @@
         <v>68</v>
       </c>
       <c r="B66" s="2">
-        <v>42.33</v>
+        <v>41.89</v>
       </c>
       <c r="C66" s="2">
-        <v>37878967795</v>
+        <v>37732935133</v>
       </c>
       <c r="D66" s="3">
-        <v>46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2848,10 +2848,10 @@
         <v>69</v>
       </c>
       <c r="B67" s="2">
-        <v>2191.25</v>
+        <v>2104.54</v>
       </c>
       <c r="C67" s="2">
-        <v>86361132665</v>
+        <v>89370160862</v>
       </c>
       <c r="D67" s="3">
         <v>0</v>
@@ -2862,13 +2862,13 @@
         <v>70</v>
       </c>
       <c r="B68" s="2">
-        <v>21.99</v>
+        <v>21.52</v>
       </c>
       <c r="C68" s="2">
-        <v>22591792006</v>
+        <v>22367380776</v>
       </c>
       <c r="D68" s="3">
-        <v>90</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2876,13 +2876,13 @@
         <v>71</v>
       </c>
       <c r="B69" s="2">
-        <v>734.77</v>
+        <v>729.66</v>
       </c>
       <c r="C69" s="2">
-        <v>109905483552</v>
+        <v>110199735858</v>
       </c>
       <c r="D69" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2890,13 +2890,13 @@
         <v>72</v>
       </c>
       <c r="B70" s="2">
-        <v>93.64</v>
+        <v>92.48999999999999</v>
       </c>
       <c r="C70" s="2">
-        <v>31399079210</v>
+        <v>31675510207</v>
       </c>
       <c r="D70" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2904,13 +2904,13 @@
         <v>73</v>
       </c>
       <c r="B71" s="2">
-        <v>62.25</v>
+        <v>63.19</v>
       </c>
       <c r="C71" s="2">
-        <v>144083272785</v>
+        <v>139669650969</v>
       </c>
       <c r="D71" s="3">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2918,13 +2918,13 @@
         <v>74</v>
       </c>
       <c r="B72" s="2">
-        <v>154.34</v>
+        <v>152.88</v>
       </c>
       <c r="C72" s="2">
-        <v>17600412385</v>
+        <v>17834138996</v>
       </c>
       <c r="D72" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2932,13 +2932,13 @@
         <v>75</v>
       </c>
       <c r="B73" s="2">
-        <v>233.93</v>
+        <v>233</v>
       </c>
       <c r="C73" s="2">
-        <v>540133459857</v>
+        <v>543956329308</v>
       </c>
       <c r="D73" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2946,13 +2946,13 @@
         <v>76</v>
       </c>
       <c r="B74" s="2">
-        <v>34.86</v>
+        <v>34.7</v>
       </c>
       <c r="C74" s="2">
-        <v>49670041026</v>
+        <v>51027093153</v>
       </c>
       <c r="D74" s="3">
-        <v>56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2960,13 +2960,13 @@
         <v>77</v>
       </c>
       <c r="B75" s="2">
-        <v>40.61</v>
+        <v>39.16</v>
       </c>
       <c r="C75" s="2">
-        <v>9675654729</v>
+        <v>9775902733</v>
       </c>
       <c r="D75" s="3">
-        <v>48</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2974,13 +2974,13 @@
         <v>78</v>
       </c>
       <c r="B76" s="2">
-        <v>94.06</v>
+        <v>98.33</v>
       </c>
       <c r="C76" s="2">
-        <v>15237517911</v>
+        <v>15113289998</v>
       </c>
       <c r="D76" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2988,13 +2988,13 @@
         <v>79</v>
       </c>
       <c r="B77" s="2">
-        <v>61.27</v>
+        <v>62.09</v>
       </c>
       <c r="C77" s="2">
-        <v>132123749673</v>
+        <v>129373681888</v>
       </c>
       <c r="D77" s="3">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3002,13 +3002,13 @@
         <v>80</v>
       </c>
       <c r="B78" s="2">
-        <v>37.34</v>
+        <v>36.42</v>
       </c>
       <c r="C78" s="2">
-        <v>17892206173</v>
+        <v>18055879460</v>
       </c>
       <c r="D78" s="3">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3016,13 +3016,13 @@
         <v>81</v>
       </c>
       <c r="B79" s="2">
-        <v>53.9</v>
+        <v>55.7</v>
       </c>
       <c r="C79" s="2">
-        <v>15925634416</v>
+        <v>16256676027</v>
       </c>
       <c r="D79" s="3">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3030,13 +3030,13 @@
         <v>82</v>
       </c>
       <c r="B80" s="2">
-        <v>39.24</v>
+        <v>39.69</v>
       </c>
       <c r="C80" s="2">
-        <v>33736148637</v>
+        <v>34081755140</v>
       </c>
       <c r="D80" s="3">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3044,13 +3044,13 @@
         <v>83</v>
       </c>
       <c r="B81" s="2">
-        <v>185.4</v>
+        <v>179.99</v>
       </c>
       <c r="C81" s="2">
-        <v>99832241556</v>
+        <v>98722172219</v>
       </c>
       <c r="D81" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3058,13 +3058,13 @@
         <v>84</v>
       </c>
       <c r="B82" s="2">
-        <v>153.37</v>
+        <v>155.16</v>
       </c>
       <c r="C82" s="2">
-        <v>68610008583</v>
+        <v>69349405011</v>
       </c>
       <c r="D82" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3072,13 +3072,13 @@
         <v>85</v>
       </c>
       <c r="B83" s="2">
-        <v>92.51000000000001</v>
+        <v>96.51000000000001</v>
       </c>
       <c r="C83" s="2">
-        <v>10151484374</v>
+        <v>10159883018</v>
       </c>
       <c r="D83" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3086,13 +3086,13 @@
         <v>86</v>
       </c>
       <c r="B84" s="2">
-        <v>63.19</v>
+        <v>64.09</v>
       </c>
       <c r="C84" s="2">
-        <v>22011527137</v>
+        <v>21845666561</v>
       </c>
       <c r="D84" s="3">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3100,13 +3100,13 @@
         <v>87</v>
       </c>
       <c r="B85" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C85" s="2">
-        <v>69400640697</v>
+        <v>67455084919</v>
       </c>
       <c r="D85" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3114,13 +3114,13 @@
         <v>88</v>
       </c>
       <c r="B86" s="2">
-        <v>21.27</v>
+        <v>21.21</v>
       </c>
       <c r="C86" s="2">
-        <v>23009039166</v>
+        <v>23867367939</v>
       </c>
       <c r="D86" s="3">
-        <v>93</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3131,10 +3131,10 @@
         <v>137</v>
       </c>
       <c r="C87" s="2">
-        <v>39228808064</v>
+        <v>38630146452</v>
       </c>
       <c r="D87" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3142,13 +3142,13 @@
         <v>90</v>
       </c>
       <c r="B88" s="2">
-        <v>131.06</v>
+        <v>129.59</v>
       </c>
       <c r="C88" s="2">
-        <v>19027893519</v>
+        <v>18867310140</v>
       </c>
       <c r="D88" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3156,13 +3156,13 @@
         <v>91</v>
       </c>
       <c r="B89" s="2">
-        <v>136.23</v>
+        <v>136.17</v>
       </c>
       <c r="C89" s="2">
-        <v>15481452797</v>
+        <v>15469450330</v>
       </c>
       <c r="D89" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3170,13 +3170,13 @@
         <v>92</v>
       </c>
       <c r="B90" s="2">
-        <v>81.8</v>
+        <v>81.03</v>
       </c>
       <c r="C90" s="2">
-        <v>24743059535</v>
+        <v>24743071460</v>
       </c>
       <c r="D90" s="3">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3184,13 +3184,13 @@
         <v>93</v>
       </c>
       <c r="B91" s="2">
-        <v>37.11</v>
+        <v>38.36</v>
       </c>
       <c r="C91" s="2">
-        <v>7938651939</v>
+        <v>8173191684</v>
       </c>
       <c r="D91" s="3">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3198,13 +3198,13 @@
         <v>94</v>
       </c>
       <c r="B92" s="2">
-        <v>36.16</v>
+        <v>35.19</v>
       </c>
       <c r="C92" s="2">
-        <v>15306032885</v>
+        <v>15622081253</v>
       </c>
       <c r="D92" s="3">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3212,13 +3212,13 @@
         <v>95</v>
       </c>
       <c r="B93" s="2">
-        <v>87.2</v>
+        <v>89.56</v>
       </c>
       <c r="C93" s="2">
-        <v>21845826326</v>
+        <v>21720604271</v>
       </c>
       <c r="D93" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3226,13 +3226,13 @@
         <v>96</v>
       </c>
       <c r="B94" s="2">
-        <v>99.02</v>
+        <v>97.89</v>
       </c>
       <c r="C94" s="2">
-        <v>13008055285</v>
+        <v>13178469032</v>
       </c>
       <c r="D94" s="3">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3240,13 +3240,13 @@
         <v>97</v>
       </c>
       <c r="B95" s="2">
-        <v>663.73</v>
+        <v>677.62</v>
       </c>
       <c r="C95" s="2">
-        <v>131394044203</v>
+        <v>135003042902</v>
       </c>
       <c r="D95" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3254,13 +3254,13 @@
         <v>98</v>
       </c>
       <c r="B96" s="2">
-        <v>207.15</v>
+        <v>198.95</v>
       </c>
       <c r="C96" s="2">
-        <v>72064722010</v>
+        <v>74706111826</v>
       </c>
       <c r="D96" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3268,13 +3268,13 @@
         <v>99</v>
       </c>
       <c r="B97" s="2">
-        <v>87.26000000000001</v>
+        <v>86.94</v>
       </c>
       <c r="C97" s="2">
-        <v>13916270315</v>
+        <v>13822855774</v>
       </c>
       <c r="D97" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3282,13 +3282,13 @@
         <v>100</v>
       </c>
       <c r="B98" s="2">
-        <v>87.81999999999999</v>
+        <v>85.42</v>
       </c>
       <c r="C98" s="2">
-        <v>73873356554</v>
+        <v>73868380185</v>
       </c>
       <c r="D98" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3296,13 +3296,13 @@
         <v>101</v>
       </c>
       <c r="B99" s="2">
-        <v>206.4</v>
+        <v>212.1</v>
       </c>
       <c r="C99" s="2">
-        <v>26354542883</v>
+        <v>26076815583</v>
       </c>
       <c r="D99" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3310,13 +3310,13 @@
         <v>102</v>
       </c>
       <c r="B100" s="2">
-        <v>56.9</v>
+        <v>56.6</v>
       </c>
       <c r="C100" s="2">
-        <v>7936723339</v>
+        <v>8038466401</v>
       </c>
       <c r="D100" s="3">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3324,13 +3324,13 @@
         <v>103</v>
       </c>
       <c r="B101" s="2">
-        <v>52.52</v>
+        <v>50.9</v>
       </c>
       <c r="C101" s="2">
-        <v>235674389362</v>
+        <v>231200426690</v>
       </c>
       <c r="D101" s="3">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3338,13 +3338,13 @@
         <v>104</v>
       </c>
       <c r="B102" s="2">
-        <v>185.24</v>
+        <v>180.48</v>
       </c>
       <c r="C102" s="2">
-        <v>64235767766</v>
+        <v>65440757717</v>
       </c>
       <c r="D102" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3352,13 +3352,13 @@
         <v>105</v>
       </c>
       <c r="B103" s="2">
-        <v>1423.37</v>
+        <v>1478.65</v>
       </c>
       <c r="C103" s="2">
-        <v>40314617016</v>
+        <v>41268350828</v>
       </c>
       <c r="D103" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3366,13 +3366,13 @@
         <v>106</v>
       </c>
       <c r="B104" s="2">
-        <v>237.56</v>
+        <v>237.02</v>
       </c>
       <c r="C104" s="2">
-        <v>33954739247</v>
+        <v>33745951994</v>
       </c>
       <c r="D104" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3380,13 +3380,13 @@
         <v>107</v>
       </c>
       <c r="B105" s="2">
-        <v>59.39</v>
+        <v>58.86</v>
       </c>
       <c r="C105" s="2">
-        <v>17393876255</v>
+        <v>17087371207</v>
       </c>
       <c r="D105" s="3">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3394,13 +3394,13 @@
         <v>108</v>
       </c>
       <c r="B106" s="2">
-        <v>59.27</v>
+        <v>58.71</v>
       </c>
       <c r="C106" s="2">
-        <v>34370152758</v>
+        <v>34942049376</v>
       </c>
       <c r="D106" s="3">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3408,13 +3408,13 @@
         <v>109</v>
       </c>
       <c r="B107" s="2">
-        <v>21.85</v>
+        <v>21.72</v>
       </c>
       <c r="C107" s="2">
-        <v>12030681627</v>
+        <v>11977609558</v>
       </c>
       <c r="D107" s="3">
-        <v>90</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3422,13 +3422,13 @@
         <v>110</v>
       </c>
       <c r="B108" s="2">
-        <v>99.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="C108" s="2">
-        <v>45123317427</v>
+        <v>46681462273</v>
       </c>
       <c r="D108" s="3">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3436,13 +3436,13 @@
         <v>111</v>
       </c>
       <c r="B109" s="2">
-        <v>17.53</v>
+        <v>17.14</v>
       </c>
       <c r="C109" s="2">
-        <v>7038646655</v>
+        <v>6786970497</v>
       </c>
       <c r="D109" s="3">
-        <v>112</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3450,13 +3450,13 @@
         <v>112</v>
       </c>
       <c r="B110" s="2">
-        <v>366.37</v>
+        <v>363.43</v>
       </c>
       <c r="C110" s="2">
-        <v>19514078225</v>
+        <v>19175512441</v>
       </c>
       <c r="D110" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3464,13 +3464,13 @@
         <v>113</v>
       </c>
       <c r="B111" s="2">
-        <v>40.35</v>
+        <v>40.74</v>
       </c>
       <c r="C111" s="2">
-        <v>44341312531</v>
+        <v>43765241833</v>
       </c>
       <c r="D111" s="3">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3478,13 +3478,13 @@
         <v>114</v>
       </c>
       <c r="B112" s="2">
-        <v>367.33</v>
+        <v>366.7</v>
       </c>
       <c r="C112" s="2">
-        <v>166227863715</v>
+        <v>167231881845</v>
       </c>
       <c r="D112" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3492,13 +3492,13 @@
         <v>115</v>
       </c>
       <c r="B113" s="2">
-        <v>7.18</v>
+        <v>7.27</v>
       </c>
       <c r="C113" s="2">
-        <v>5574738679</v>
+        <v>5502907274</v>
       </c>
       <c r="D113" s="3">
-        <v>275</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3506,13 +3506,13 @@
         <v>116</v>
       </c>
       <c r="B114" s="2">
-        <v>50.23</v>
+        <v>48.81</v>
       </c>
       <c r="C114" s="2">
-        <v>15211501637</v>
+        <v>15034231331</v>
       </c>
       <c r="D114" s="3">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3520,13 +3520,13 @@
         <v>117</v>
       </c>
       <c r="B115" s="2">
-        <v>128.26</v>
+        <v>125.9</v>
       </c>
       <c r="C115" s="2">
-        <v>30573991347</v>
+        <v>30369326200</v>
       </c>
       <c r="D115" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3534,13 +3534,13 @@
         <v>118</v>
       </c>
       <c r="B116" s="2">
-        <v>226.86</v>
+        <v>232.19</v>
       </c>
       <c r="C116" s="2">
-        <v>206703005757</v>
+        <v>210883700737</v>
       </c>
       <c r="D116" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3548,13 +3548,13 @@
         <v>119</v>
       </c>
       <c r="B117" s="2">
-        <v>45.16</v>
+        <v>45.68</v>
       </c>
       <c r="C117" s="2">
-        <v>196588331580</v>
+        <v>188227280025</v>
       </c>
       <c r="D117" s="3">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3562,13 +3562,13 @@
         <v>120</v>
       </c>
       <c r="B118" s="2">
-        <v>93.31</v>
+        <v>91.78</v>
       </c>
       <c r="C118" s="2">
-        <v>69021336196</v>
+        <v>71497749399</v>
       </c>
       <c r="D118" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3576,13 +3576,13 @@
         <v>121</v>
       </c>
       <c r="B119" s="2">
-        <v>348.9</v>
+        <v>340.4</v>
       </c>
       <c r="C119" s="2">
-        <v>36179015682</v>
+        <v>36264519368</v>
       </c>
       <c r="D119" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3593,10 +3593,10 @@
         <v>11</v>
       </c>
       <c r="C120" s="2">
-        <v>12659846626</v>
+        <v>12520770992</v>
       </c>
       <c r="D120" s="3">
-        <v>180</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3604,13 +3604,13 @@
         <v>123</v>
       </c>
       <c r="B121" s="2">
-        <v>81.16</v>
+        <v>82.53</v>
       </c>
       <c r="C121" s="2">
-        <v>45217954202</v>
+        <v>43652106441</v>
       </c>
       <c r="D121" s="3">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3618,13 +3618,13 @@
         <v>124</v>
       </c>
       <c r="B122" s="2">
-        <v>40.6</v>
+        <v>40</v>
       </c>
       <c r="C122" s="2">
-        <v>29754523026</v>
+        <v>29617263340</v>
       </c>
       <c r="D122" s="3">
-        <v>48</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3632,13 +3632,13 @@
         <v>125</v>
       </c>
       <c r="B123" s="2">
-        <v>137.91</v>
+        <v>134.47</v>
       </c>
       <c r="C123" s="2">
-        <v>16492048568</v>
+        <v>16666528626</v>
       </c>
       <c r="D123" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3646,13 +3646,13 @@
         <v>126</v>
       </c>
       <c r="B124" s="2">
-        <v>69.18000000000001</v>
+        <v>68.43000000000001</v>
       </c>
       <c r="C124" s="2">
-        <v>91238260316</v>
+        <v>92901207974</v>
       </c>
       <c r="D124" s="3">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3660,13 +3660,13 @@
         <v>127</v>
       </c>
       <c r="B125" s="2">
-        <v>85.45</v>
+        <v>87.70999999999999</v>
       </c>
       <c r="C125" s="2">
-        <v>160823039943</v>
+        <v>167258646431</v>
       </c>
       <c r="D125" s="3">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3674,13 +3674,13 @@
         <v>128</v>
       </c>
       <c r="B126" s="2">
-        <v>59.16</v>
+        <v>58.16</v>
       </c>
       <c r="C126" s="2">
-        <v>11353828219</v>
+        <v>11435765580</v>
       </c>
       <c r="D126" s="3">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3688,13 +3688,13 @@
         <v>129</v>
       </c>
       <c r="B127" s="2">
-        <v>75.56</v>
+        <v>75.39</v>
       </c>
       <c r="C127" s="2">
-        <v>62816681987</v>
+        <v>61555193697</v>
       </c>
       <c r="D127" s="3">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3702,13 +3702,13 @@
         <v>130</v>
       </c>
       <c r="B128" s="2">
-        <v>41.66</v>
+        <v>41.33</v>
       </c>
       <c r="C128" s="2">
-        <v>25491796433</v>
+        <v>25876649877</v>
       </c>
       <c r="D128" s="3">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3716,13 +3716,13 @@
         <v>131</v>
       </c>
       <c r="B129" s="2">
-        <v>70.65000000000001</v>
+        <v>69.63</v>
       </c>
       <c r="C129" s="2">
-        <v>51232157987</v>
+        <v>51068850548</v>
       </c>
       <c r="D129" s="3">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3730,13 +3730,13 @@
         <v>132</v>
       </c>
       <c r="B130" s="2">
-        <v>278.23</v>
+        <v>275.99</v>
       </c>
       <c r="C130" s="2">
-        <v>85839561797</v>
+        <v>86513976335</v>
       </c>
       <c r="D130" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3744,13 +3744,13 @@
         <v>133</v>
       </c>
       <c r="B131" s="2">
-        <v>90.52</v>
+        <v>90.08</v>
       </c>
       <c r="C131" s="2">
-        <v>28200715623</v>
+        <v>28400102589</v>
       </c>
       <c r="D131" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3758,13 +3758,13 @@
         <v>134</v>
       </c>
       <c r="B132" s="2">
-        <v>216.8</v>
+        <v>216.51</v>
       </c>
       <c r="C132" s="2">
-        <v>54178978114</v>
+        <v>54187170912</v>
       </c>
       <c r="D132" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3772,13 +3772,13 @@
         <v>135</v>
       </c>
       <c r="B133" s="2">
-        <v>126.1</v>
+        <v>125.42</v>
       </c>
       <c r="C133" s="2">
-        <v>16491390316</v>
+        <v>16733425491</v>
       </c>
       <c r="D133" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3786,13 +3786,13 @@
         <v>136</v>
       </c>
       <c r="B134" s="2">
-        <v>74.72</v>
+        <v>73.13</v>
       </c>
       <c r="C134" s="2">
-        <v>27202244900</v>
+        <v>27005748799</v>
       </c>
       <c r="D134" s="3">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3800,13 +3800,13 @@
         <v>137</v>
       </c>
       <c r="B135" s="2">
-        <v>224.75</v>
+        <v>229.8</v>
       </c>
       <c r="C135" s="2">
-        <v>159698719627</v>
+        <v>164571048863</v>
       </c>
       <c r="D135" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3814,13 +3814,13 @@
         <v>138</v>
       </c>
       <c r="B136" s="2">
-        <v>181.79</v>
+        <v>179.14</v>
       </c>
       <c r="C136" s="2">
-        <v>325826954188</v>
+        <v>327658972797</v>
       </c>
       <c r="D136" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3828,13 +3828,13 @@
         <v>139</v>
       </c>
       <c r="B137" s="2">
-        <v>29.46</v>
+        <v>29.37</v>
       </c>
       <c r="C137" s="2">
-        <v>13425198301</v>
+        <v>13342758544</v>
       </c>
       <c r="D137" s="3">
-        <v>67</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3842,13 +3842,13 @@
         <v>140</v>
       </c>
       <c r="B138" s="2">
-        <v>25.49</v>
+        <v>26.37</v>
       </c>
       <c r="C138" s="2">
-        <v>13363248431</v>
+        <v>13344210953</v>
       </c>
       <c r="D138" s="3">
-        <v>77</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3856,13 +3856,13 @@
         <v>141</v>
       </c>
       <c r="B139" s="2">
-        <v>31.93</v>
+        <v>31.13</v>
       </c>
       <c r="C139" s="2">
-        <v>16728407199</v>
+        <v>16978655149</v>
       </c>
       <c r="D139" s="3">
-        <v>62</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3870,13 +3870,13 @@
         <v>142</v>
       </c>
       <c r="B140" s="2">
-        <v>143.45</v>
+        <v>141.02</v>
       </c>
       <c r="C140" s="2">
-        <v>38605601932</v>
+        <v>38929248593</v>
       </c>
       <c r="D140" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3884,13 +3884,13 @@
         <v>143</v>
       </c>
       <c r="B141" s="2">
-        <v>113.32</v>
+        <v>110.67</v>
       </c>
       <c r="C141" s="2">
-        <v>25961134302</v>
+        <v>26224401978</v>
       </c>
       <c r="D141" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3898,13 +3898,13 @@
         <v>144</v>
       </c>
       <c r="B142" s="2">
-        <v>126.86</v>
+        <v>124.23</v>
       </c>
       <c r="C142" s="2">
-        <v>18174062323</v>
+        <v>18129109374</v>
       </c>
       <c r="D142" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3912,13 +3912,13 @@
         <v>145</v>
       </c>
       <c r="B143" s="2">
-        <v>56.64</v>
+        <v>54.92</v>
       </c>
       <c r="C143" s="2">
-        <v>41138319006</v>
+        <v>40809873013</v>
       </c>
       <c r="D143" s="3">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3926,13 +3926,13 @@
         <v>146</v>
       </c>
       <c r="B144" s="2">
-        <v>408.68</v>
+        <v>412.55</v>
       </c>
       <c r="C144" s="2">
-        <v>16181952875</v>
+        <v>15877788344</v>
       </c>
       <c r="D144" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3940,13 +3940,13 @@
         <v>147</v>
       </c>
       <c r="B145" s="2">
-        <v>40.3</v>
+        <v>40</v>
       </c>
       <c r="C145" s="2">
-        <v>15219716559</v>
+        <v>15037120607</v>
       </c>
       <c r="D145" s="3">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3954,13 +3954,13 @@
         <v>148</v>
       </c>
       <c r="B146" s="2">
-        <v>118.84</v>
+        <v>119.76</v>
       </c>
       <c r="C146" s="2">
-        <v>15694565508</v>
+        <v>16030427627</v>
       </c>
       <c r="D146" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3968,13 +3968,13 @@
         <v>149</v>
       </c>
       <c r="B147" s="2">
-        <v>122.84</v>
+        <v>120.04</v>
       </c>
       <c r="C147" s="2">
-        <v>23784610991</v>
+        <v>23583846674</v>
       </c>
       <c r="D147" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3982,13 +3982,13 @@
         <v>150</v>
       </c>
       <c r="B148" s="2">
-        <v>92.29000000000001</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="C148" s="2">
-        <v>68047713192</v>
+        <v>67142730986</v>
       </c>
       <c r="D148" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3996,13 +3996,13 @@
         <v>151</v>
       </c>
       <c r="B149" s="2">
-        <v>118.28</v>
+        <v>118.1</v>
       </c>
       <c r="C149" s="2">
-        <v>13057735835</v>
+        <v>13523799278</v>
       </c>
       <c r="D149" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4010,13 +4010,13 @@
         <v>152</v>
       </c>
       <c r="B150" s="2">
-        <v>15.94</v>
+        <v>15.4</v>
       </c>
       <c r="C150" s="2">
-        <v>5928265804</v>
+        <v>6125277114</v>
       </c>
       <c r="D150" s="3">
-        <v>124</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4024,13 +4024,13 @@
         <v>153</v>
       </c>
       <c r="B151" s="2">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="C151" s="2">
-        <v>6043448138</v>
+        <v>6089585511</v>
       </c>
       <c r="D151" s="3">
-        <v>84</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4038,13 +4038,13 @@
         <v>154</v>
       </c>
       <c r="B152" s="2">
-        <v>360.5</v>
+        <v>355.42</v>
       </c>
       <c r="C152" s="2">
-        <v>35576012011</v>
+        <v>34562148640</v>
       </c>
       <c r="D152" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4052,13 +4052,13 @@
         <v>155</v>
       </c>
       <c r="B153" s="2">
-        <v>143.82</v>
+        <v>142.01</v>
       </c>
       <c r="C153" s="2">
-        <v>42216508480</v>
+        <v>42563217408</v>
       </c>
       <c r="D153" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4066,13 +4066,13 @@
         <v>156</v>
       </c>
       <c r="B154" s="2">
-        <v>50.2</v>
+        <v>50.17</v>
       </c>
       <c r="C154" s="2">
-        <v>36036276797</v>
+        <v>34695137121</v>
       </c>
       <c r="D154" s="3">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4080,13 +4080,13 @@
         <v>157</v>
       </c>
       <c r="B155" s="2">
-        <v>219.58</v>
+        <v>222.46</v>
       </c>
       <c r="C155" s="2">
-        <v>64078040050</v>
+        <v>63388397661</v>
       </c>
       <c r="D155" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4094,13 +4094,13 @@
         <v>158</v>
       </c>
       <c r="B156" s="2">
-        <v>71.11</v>
+        <v>72.68000000000001</v>
       </c>
       <c r="C156" s="2">
-        <v>24746361500</v>
+        <v>24727851670</v>
       </c>
       <c r="D156" s="3">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4108,13 +4108,13 @@
         <v>159</v>
       </c>
       <c r="B157" s="2">
-        <v>196.53</v>
+        <v>200.11</v>
       </c>
       <c r="C157" s="2">
-        <v>24321786138</v>
+        <v>23779322110</v>
       </c>
       <c r="D157" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4122,13 +4122,13 @@
         <v>160</v>
       </c>
       <c r="B158" s="2">
-        <v>63.63</v>
+        <v>62.31</v>
       </c>
       <c r="C158" s="2">
-        <v>23654416745</v>
+        <v>23722457139</v>
       </c>
       <c r="D158" s="3">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4136,13 +4136,13 @@
         <v>161</v>
       </c>
       <c r="B159" s="2">
-        <v>273.52</v>
+        <v>272.4</v>
       </c>
       <c r="C159" s="2">
-        <v>94668895332</v>
+        <v>95636648382</v>
       </c>
       <c r="D159" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4150,13 +4150,13 @@
         <v>162</v>
       </c>
       <c r="B160" s="2">
-        <v>104.11</v>
+        <v>101.87</v>
       </c>
       <c r="C160" s="2">
-        <v>14063568851</v>
+        <v>14291940482</v>
       </c>
       <c r="D160" s="3">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4164,13 +4164,13 @@
         <v>163</v>
       </c>
       <c r="B161" s="2">
-        <v>80.76000000000001</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="C161" s="2">
-        <v>50167334858</v>
+        <v>49480028212</v>
       </c>
       <c r="D161" s="3">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4178,13 +4178,13 @@
         <v>164</v>
       </c>
       <c r="B162" s="2">
-        <v>50.1</v>
+        <v>51.9</v>
       </c>
       <c r="C162" s="2">
-        <v>29162315824</v>
+        <v>29101692458</v>
       </c>
       <c r="D162" s="3">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4192,13 +4192,13 @@
         <v>165</v>
       </c>
       <c r="B163" s="2">
-        <v>724.4</v>
+        <v>714.38</v>
       </c>
       <c r="C163" s="2">
-        <v>65592946851</v>
+        <v>65317169337</v>
       </c>
       <c r="D163" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4206,13 +4206,13 @@
         <v>166</v>
       </c>
       <c r="B164" s="2">
-        <v>59.5</v>
+        <v>60.5</v>
       </c>
       <c r="C164" s="2">
-        <v>22420411880</v>
+        <v>21841306702</v>
       </c>
       <c r="D164" s="3">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4220,13 +4220,13 @@
         <v>167</v>
       </c>
       <c r="B165" s="2">
-        <v>87.20999999999999</v>
+        <v>86.67</v>
       </c>
       <c r="C165" s="2">
-        <v>29582021024</v>
+        <v>29165324243</v>
       </c>
       <c r="D165" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4234,13 +4234,13 @@
         <v>168</v>
       </c>
       <c r="B166" s="2">
-        <v>239.49</v>
+        <v>242.85</v>
       </c>
       <c r="C166" s="2">
-        <v>15876734559</v>
+        <v>15687968501</v>
       </c>
       <c r="D166" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4248,13 +4248,13 @@
         <v>169</v>
       </c>
       <c r="B167" s="2">
-        <v>50.5</v>
+        <v>50.4</v>
       </c>
       <c r="C167" s="2">
-        <v>11326422852</v>
+        <v>11222087746</v>
       </c>
       <c r="D167" s="3">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4262,13 +4262,13 @@
         <v>170</v>
       </c>
       <c r="B168" s="2">
-        <v>119.3</v>
+        <v>119.65</v>
       </c>
       <c r="C168" s="2">
-        <v>49176230129</v>
+        <v>48365712257</v>
       </c>
       <c r="D168" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4276,13 +4276,13 @@
         <v>171</v>
       </c>
       <c r="B169" s="2">
-        <v>96.08</v>
+        <v>96.89</v>
       </c>
       <c r="C169" s="2">
-        <v>19865715406</v>
+        <v>19728973376</v>
       </c>
       <c r="D169" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4290,13 +4290,13 @@
         <v>172</v>
       </c>
       <c r="B170" s="2">
-        <v>54.07</v>
+        <v>54.22</v>
       </c>
       <c r="C170" s="2">
-        <v>12297278620</v>
+        <v>12559545808</v>
       </c>
       <c r="D170" s="3">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4304,13 +4304,13 @@
         <v>173</v>
       </c>
       <c r="B171" s="2">
-        <v>90.53</v>
+        <v>91.61</v>
       </c>
       <c r="C171" s="2">
-        <v>56355442267</v>
+        <v>55384481561</v>
       </c>
       <c r="D171" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4318,13 +4318,13 @@
         <v>174</v>
       </c>
       <c r="B172" s="2">
-        <v>42.55</v>
+        <v>43.73</v>
       </c>
       <c r="C172" s="2">
-        <v>42069607554</v>
+        <v>40993735933</v>
       </c>
       <c r="D172" s="3">
-        <v>46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4332,13 +4332,13 @@
         <v>175</v>
       </c>
       <c r="B173" s="2">
-        <v>97.98999999999999</v>
+        <v>95.54000000000001</v>
       </c>
       <c r="C173" s="2">
-        <v>16605281879</v>
+        <v>16201755094</v>
       </c>
       <c r="D173" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4349,10 +4349,10 @@
         <v>130.31</v>
       </c>
       <c r="C174" s="2">
-        <v>17833975227</v>
+        <v>17595429565</v>
       </c>
       <c r="D174" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4360,13 +4360,13 @@
         <v>177</v>
       </c>
       <c r="B175" s="2">
-        <v>114.64</v>
+        <v>115.39</v>
       </c>
       <c r="C175" s="2">
-        <v>15310994717</v>
+        <v>15150854522</v>
       </c>
       <c r="D175" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4374,13 +4374,13 @@
         <v>178</v>
       </c>
       <c r="B176" s="2">
-        <v>9.210000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C176" s="2">
-        <v>36069926542</v>
+        <v>35969070093</v>
       </c>
       <c r="D176" s="3">
-        <v>215</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4388,13 +4388,13 @@
         <v>179</v>
       </c>
       <c r="B177" s="2">
-        <v>50.62</v>
+        <v>48.69</v>
       </c>
       <c r="C177" s="2">
-        <v>7772849837</v>
+        <v>7661946570</v>
       </c>
       <c r="D177" s="3">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4402,13 +4402,13 @@
         <v>180</v>
       </c>
       <c r="B178" s="2">
-        <v>51.22</v>
+        <v>49.74</v>
       </c>
       <c r="C178" s="2">
-        <v>29483403706</v>
+        <v>29687601921</v>
       </c>
       <c r="D178" s="3">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4416,13 +4416,13 @@
         <v>181</v>
       </c>
       <c r="B179" s="2">
-        <v>270.6</v>
+        <v>275.6</v>
       </c>
       <c r="C179" s="2">
-        <v>780821332980</v>
+        <v>772781315154</v>
       </c>
       <c r="D179" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4430,13 +4430,13 @@
         <v>182</v>
       </c>
       <c r="B180" s="2">
-        <v>92.08</v>
+        <v>93.37</v>
       </c>
       <c r="C180" s="2">
-        <v>12931051026</v>
+        <v>12697310226</v>
       </c>
       <c r="D180" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4447,10 +4447,10 @@
         <v>25.87</v>
       </c>
       <c r="C181" s="2">
-        <v>37146232456</v>
+        <v>37083763150</v>
       </c>
       <c r="D181" s="3">
-        <v>76</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4458,13 +4458,13 @@
         <v>184</v>
       </c>
       <c r="B182" s="2">
-        <v>282.02</v>
+        <v>274.55</v>
       </c>
       <c r="C182" s="2">
-        <v>73603903835</v>
+        <v>73917853462</v>
       </c>
       <c r="D182" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4472,13 +4472,13 @@
         <v>185</v>
       </c>
       <c r="B183" s="2">
-        <v>30.11</v>
+        <v>29.94</v>
       </c>
       <c r="C183" s="2">
-        <v>16309447444</v>
+        <v>16758358031</v>
       </c>
       <c r="D183" s="3">
-        <v>65</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4486,13 +4486,13 @@
         <v>186</v>
       </c>
       <c r="B184" s="2">
-        <v>179.72</v>
+        <v>183.81</v>
       </c>
       <c r="C184" s="2">
-        <v>11344867174</v>
+        <v>11314084404</v>
       </c>
       <c r="D184" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4500,13 +4500,13 @@
         <v>187</v>
       </c>
       <c r="B185" s="2">
-        <v>147.18</v>
+        <v>143.11</v>
       </c>
       <c r="C185" s="2">
-        <v>88053923545</v>
+        <v>90117866541</v>
       </c>
       <c r="D185" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4514,13 +4514,13 @@
         <v>188</v>
       </c>
       <c r="B186" s="2">
-        <v>117.55</v>
+        <v>117.32</v>
       </c>
       <c r="C186" s="2">
-        <v>76752748418</v>
+        <v>78023063259</v>
       </c>
       <c r="D186" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4528,13 +4528,13 @@
         <v>189</v>
       </c>
       <c r="B187" s="2">
-        <v>27.67</v>
+        <v>28.89</v>
       </c>
       <c r="C187" s="2">
-        <v>20125092413</v>
+        <v>20098127896</v>
       </c>
       <c r="D187" s="3">
-        <v>71</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4542,13 +4542,13 @@
         <v>190</v>
       </c>
       <c r="B188" s="2">
-        <v>46.2</v>
+        <v>46.07</v>
       </c>
       <c r="C188" s="2">
-        <v>5867787387</v>
+        <v>6117825137</v>
       </c>
       <c r="D188" s="3">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4556,13 +4556,13 @@
         <v>191</v>
       </c>
       <c r="B189" s="2">
-        <v>37.1</v>
+        <v>37.02</v>
       </c>
       <c r="C189" s="2">
-        <v>4904656954</v>
+        <v>5006083285</v>
       </c>
       <c r="D189" s="3">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4570,13 +4570,13 @@
         <v>192</v>
       </c>
       <c r="B190" s="2">
-        <v>274.44</v>
+        <v>272.91</v>
       </c>
       <c r="C190" s="2">
-        <v>22697020839</v>
+        <v>22783611806</v>
       </c>
       <c r="D190" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4584,13 +4584,13 @@
         <v>193</v>
       </c>
       <c r="B191" s="2">
-        <v>119.63</v>
+        <v>116.69</v>
       </c>
       <c r="C191" s="2">
-        <v>15211766569</v>
+        <v>14993256599</v>
       </c>
       <c r="D191" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4598,13 +4598,13 @@
         <v>194</v>
       </c>
       <c r="B192" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C192" s="2">
-        <v>17330058093</v>
+        <v>16952950877</v>
       </c>
       <c r="D192" s="3">
-        <v>70</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4612,13 +4612,13 @@
         <v>195</v>
       </c>
       <c r="B193" s="2">
-        <v>29.6</v>
+        <v>28.53</v>
       </c>
       <c r="C193" s="2">
-        <v>17323470885</v>
+        <v>16960378948</v>
       </c>
       <c r="D193" s="3">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4626,13 +4626,13 @@
         <v>196</v>
       </c>
       <c r="B194" s="2">
-        <v>141.13</v>
+        <v>145.21</v>
       </c>
       <c r="C194" s="2">
-        <v>24457967943</v>
+        <v>24490622000</v>
       </c>
       <c r="D194" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4640,13 +4640,13 @@
         <v>197</v>
       </c>
       <c r="B195" s="2">
-        <v>88.45999999999999</v>
+        <v>87.08</v>
       </c>
       <c r="C195" s="2">
-        <v>6705396900</v>
+        <v>6861704643</v>
       </c>
       <c r="D195" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4657,10 +4657,10 @@
         <v>9.6</v>
       </c>
       <c r="C196" s="2">
-        <v>4300199897</v>
+        <v>4325799276</v>
       </c>
       <c r="D196" s="3">
-        <v>206</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4668,13 +4668,13 @@
         <v>199</v>
       </c>
       <c r="B197" s="2">
-        <v>152.46</v>
+        <v>153.09</v>
       </c>
       <c r="C197" s="2">
-        <v>24903348286</v>
+        <v>25463688640</v>
       </c>
       <c r="D197" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4682,13 +4682,13 @@
         <v>200</v>
       </c>
       <c r="B198" s="2">
-        <v>71.66</v>
+        <v>70.34999999999999</v>
       </c>
       <c r="C198" s="2">
-        <v>24513967682</v>
+        <v>24225818046</v>
       </c>
       <c r="D198" s="3">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4696,13 +4696,13 @@
         <v>201</v>
       </c>
       <c r="B199" s="2">
-        <v>155.98</v>
+        <v>155.57</v>
       </c>
       <c r="C199" s="2">
-        <v>44204111761</v>
+        <v>43008827592</v>
       </c>
       <c r="D199" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4710,13 +4710,13 @@
         <v>202</v>
       </c>
       <c r="B200" s="2">
-        <v>10.82</v>
+        <v>10.68</v>
       </c>
       <c r="C200" s="2">
-        <v>93684675901</v>
+        <v>97657180599</v>
       </c>
       <c r="D200" s="3">
-        <v>183</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4724,13 +4724,13 @@
         <v>203</v>
       </c>
       <c r="B201" s="2">
-        <v>58.48</v>
+        <v>59.37</v>
       </c>
       <c r="C201" s="2">
-        <v>73685021646</v>
+        <v>74407013412</v>
       </c>
       <c r="D201" s="3">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4738,13 +4738,13 @@
         <v>204</v>
       </c>
       <c r="B202" s="2">
-        <v>60.53</v>
+        <v>59.39</v>
       </c>
       <c r="C202" s="2">
-        <v>36739447116</v>
+        <v>37752225387</v>
       </c>
       <c r="D202" s="3">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4752,13 +4752,13 @@
         <v>205</v>
       </c>
       <c r="B203" s="2">
-        <v>94.62</v>
+        <v>93.15000000000001</v>
       </c>
       <c r="C203" s="2">
-        <v>10083604704</v>
+        <v>9745862949</v>
       </c>
       <c r="D203" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4766,13 +4766,13 @@
         <v>206</v>
       </c>
       <c r="B204" s="2">
-        <v>37.04</v>
+        <v>36.69</v>
       </c>
       <c r="C204" s="2">
-        <v>28440986201</v>
+        <v>28283370437</v>
       </c>
       <c r="D204" s="3">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4780,13 +4780,13 @@
         <v>207</v>
       </c>
       <c r="B205" s="2">
-        <v>41.61</v>
+        <v>43.57</v>
       </c>
       <c r="C205" s="2">
-        <v>60579321762</v>
+        <v>62456816340</v>
       </c>
       <c r="D205" s="3">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4794,13 +4794,13 @@
         <v>208</v>
       </c>
       <c r="B206" s="2">
-        <v>1786.17</v>
+        <v>1758.53</v>
       </c>
       <c r="C206" s="2">
-        <v>1213316407505</v>
+        <v>1231131560613</v>
       </c>
       <c r="D206" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4808,13 +4808,13 @@
         <v>209</v>
       </c>
       <c r="B207" s="2">
-        <v>1797.25</v>
+        <v>1745.25</v>
       </c>
       <c r="C207" s="2">
-        <v>1183477449669</v>
+        <v>1199743864786</v>
       </c>
       <c r="D207" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4822,13 +4822,13 @@
         <v>210</v>
       </c>
       <c r="B208" s="2">
-        <v>103.71</v>
+        <v>102.43</v>
       </c>
       <c r="C208" s="2">
-        <v>14702397012</v>
+        <v>14826445439</v>
       </c>
       <c r="D208" s="3">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4836,13 +4836,13 @@
         <v>211</v>
       </c>
       <c r="B209" s="2">
-        <v>207.09</v>
+        <v>215.43</v>
       </c>
       <c r="C209" s="2">
-        <v>63146752495</v>
+        <v>64349111169</v>
       </c>
       <c r="D209" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4850,13 +4850,13 @@
         <v>212</v>
       </c>
       <c r="B210" s="2">
-        <v>20.96</v>
+        <v>20.83</v>
       </c>
       <c r="C210" s="2">
-        <v>7976270707</v>
+        <v>7854802435</v>
       </c>
       <c r="D210" s="3">
-        <v>94</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4864,13 +4864,13 @@
         <v>213</v>
       </c>
       <c r="B211" s="2">
-        <v>123.55</v>
+        <v>124.27</v>
       </c>
       <c r="C211" s="2">
-        <v>23558339511</v>
+        <v>23523211705</v>
       </c>
       <c r="D211" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4878,13 +4878,13 @@
         <v>214</v>
       </c>
       <c r="B212" s="2">
-        <v>267.1</v>
+        <v>257.25</v>
       </c>
       <c r="C212" s="2">
-        <v>89124912914</v>
+        <v>88540024959</v>
       </c>
       <c r="D212" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4892,13 +4892,13 @@
         <v>215</v>
       </c>
       <c r="B213" s="2">
-        <v>418.72</v>
+        <v>426.01</v>
       </c>
       <c r="C213" s="2">
-        <v>22857118224</v>
+        <v>22752815575</v>
       </c>
       <c r="D213" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4906,13 +4906,13 @@
         <v>216</v>
       </c>
       <c r="B214" s="2">
-        <v>19.9</v>
+        <v>19.83</v>
       </c>
       <c r="C214" s="2">
-        <v>17401112004</v>
+        <v>17090575185</v>
       </c>
       <c r="D214" s="3">
-        <v>99</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4920,13 +4920,13 @@
         <v>217</v>
       </c>
       <c r="B215" s="2">
-        <v>97.05</v>
+        <v>97.19</v>
       </c>
       <c r="C215" s="2">
-        <v>13364599439</v>
+        <v>13150662637</v>
       </c>
       <c r="D215" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4934,13 +4934,13 @@
         <v>218</v>
       </c>
       <c r="B216" s="2">
-        <v>12.42</v>
+        <v>12.63</v>
       </c>
       <c r="C216" s="2">
-        <v>12576614791</v>
+        <v>12768200731</v>
       </c>
       <c r="D216" s="3">
-        <v>159</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4948,13 +4948,13 @@
         <v>219</v>
       </c>
       <c r="B217" s="2">
-        <v>14.84</v>
+        <v>15.04</v>
       </c>
       <c r="C217" s="2">
-        <v>5106240438</v>
+        <v>5243250872</v>
       </c>
       <c r="D217" s="3">
-        <v>133</v>
+        <v>6</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4962,13 +4962,13 @@
         <v>220</v>
       </c>
       <c r="B218" s="2">
-        <v>171.21</v>
+        <v>171.22</v>
       </c>
       <c r="C218" s="2">
-        <v>57421221647</v>
+        <v>56995018159</v>
       </c>
       <c r="D218" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4976,13 +4976,13 @@
         <v>221</v>
       </c>
       <c r="B219" s="2">
-        <v>277</v>
+        <v>280.92</v>
       </c>
       <c r="C219" s="2">
-        <v>294288919684</v>
+        <v>305967235921</v>
       </c>
       <c r="D219" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4990,13 +4990,13 @@
         <v>222</v>
       </c>
       <c r="B220" s="2">
-        <v>55.16</v>
+        <v>55.29</v>
       </c>
       <c r="C220" s="2">
-        <v>16763978487</v>
+        <v>16518422404</v>
       </c>
       <c r="D220" s="3">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5004,13 +5004,13 @@
         <v>223</v>
       </c>
       <c r="B221" s="2">
-        <v>25.69</v>
+        <v>26.47</v>
       </c>
       <c r="C221" s="2">
-        <v>4239212139</v>
+        <v>4173696769</v>
       </c>
       <c r="D221" s="3">
-        <v>77</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5018,13 +5018,13 @@
         <v>224</v>
       </c>
       <c r="B222" s="2">
-        <v>48.68</v>
+        <v>48.67</v>
       </c>
       <c r="C222" s="2">
-        <v>17375171905</v>
+        <v>17773636744</v>
       </c>
       <c r="D222" s="3">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5032,13 +5032,13 @@
         <v>225</v>
       </c>
       <c r="B223" s="2">
-        <v>173.2</v>
+        <v>172.1</v>
       </c>
       <c r="C223" s="2">
-        <v>6893789785</v>
+        <v>6712047214</v>
       </c>
       <c r="D223" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5046,13 +5046,13 @@
         <v>226</v>
       </c>
       <c r="B224" s="2">
-        <v>107.5</v>
+        <v>110.74</v>
       </c>
       <c r="C224" s="2">
-        <v>30815647307</v>
+        <v>30838738962</v>
       </c>
       <c r="D224" s="3">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5060,13 +5060,13 @@
         <v>227</v>
       </c>
       <c r="B225" s="2">
-        <v>76.43000000000001</v>
+        <v>74.94</v>
       </c>
       <c r="C225" s="2">
-        <v>19391500464</v>
+        <v>20160804339</v>
       </c>
       <c r="D225" s="3">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5074,13 +5074,13 @@
         <v>228</v>
       </c>
       <c r="B226" s="2">
-        <v>216.64</v>
+        <v>218.33</v>
       </c>
       <c r="C226" s="2">
-        <v>150891496123</v>
+        <v>153266864702</v>
       </c>
       <c r="D226" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5088,13 +5088,13 @@
         <v>229</v>
       </c>
       <c r="B227" s="2">
-        <v>12.22</v>
+        <v>12.25</v>
       </c>
       <c r="C227" s="2">
-        <v>15476570301</v>
+        <v>15646166667</v>
       </c>
       <c r="D227" s="3">
-        <v>162</v>
+        <v>8</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5102,13 +5102,13 @@
         <v>230</v>
       </c>
       <c r="B228" s="2">
-        <v>24.71</v>
+        <v>24.44</v>
       </c>
       <c r="C228" s="2">
-        <v>31593014134</v>
+        <v>32439676100</v>
       </c>
       <c r="D228" s="3">
-        <v>80</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5116,13 +5116,13 @@
         <v>231</v>
       </c>
       <c r="B229" s="2">
-        <v>15.65</v>
+        <v>16.21</v>
       </c>
       <c r="C229" s="2">
-        <v>2958074827</v>
+        <v>2943116828</v>
       </c>
       <c r="D229" s="3">
-        <v>126</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5130,13 +5130,13 @@
         <v>232</v>
       </c>
       <c r="B230" s="2">
-        <v>48.72</v>
+        <v>48.85</v>
       </c>
       <c r="C230" s="2">
-        <v>25745468592</v>
+        <v>26618068369</v>
       </c>
       <c r="D230" s="3">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5144,13 +5144,13 @@
         <v>233</v>
       </c>
       <c r="B231" s="2">
-        <v>66.04000000000001</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="C231" s="2">
-        <v>9793162193</v>
+        <v>9497253058</v>
       </c>
       <c r="D231" s="3">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5161,10 +5161,10 @@
         <v>14.5</v>
       </c>
       <c r="C232" s="2">
-        <v>10251799135</v>
+        <v>10435940178</v>
       </c>
       <c r="D232" s="3">
-        <v>136</v>
+        <v>6</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5172,13 +5172,13 @@
         <v>235</v>
       </c>
       <c r="B233" s="2">
-        <v>153.96</v>
+        <v>153.4</v>
       </c>
       <c r="C233" s="2">
-        <v>32553127553</v>
+        <v>32022208568</v>
       </c>
       <c r="D233" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5186,13 +5186,13 @@
         <v>236</v>
       </c>
       <c r="B234" s="2">
-        <v>418.98</v>
+        <v>420.4</v>
       </c>
       <c r="C234" s="2">
-        <v>54385540463</v>
+        <v>54740849537</v>
       </c>
       <c r="D234" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5200,13 +5200,13 @@
         <v>237</v>
       </c>
       <c r="B235" s="2">
-        <v>27.42</v>
+        <v>28.67</v>
       </c>
       <c r="C235" s="2">
-        <v>12242493899</v>
+        <v>12136303995</v>
       </c>
       <c r="D235" s="3">
-        <v>72</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5214,13 +5214,13 @@
         <v>238</v>
       </c>
       <c r="B236" s="2">
-        <v>126.15</v>
+        <v>127.26</v>
       </c>
       <c r="C236" s="2">
-        <v>112117837120</v>
+        <v>115857386046</v>
       </c>
       <c r="D236" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5228,13 +5228,13 @@
         <v>239</v>
       </c>
       <c r="B237" s="2">
-        <v>118.27</v>
+        <v>117.42</v>
       </c>
       <c r="C237" s="2">
-        <v>64549646060</v>
+        <v>63469882033</v>
       </c>
       <c r="D237" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5242,13 +5242,13 @@
         <v>240</v>
       </c>
       <c r="B238" s="2">
-        <v>519.1799999999999</v>
+        <v>515.6799999999999</v>
       </c>
       <c r="C238" s="2">
-        <v>43515472613</v>
+        <v>44489965414</v>
       </c>
       <c r="D238" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5256,13 +5256,13 @@
         <v>241</v>
       </c>
       <c r="B239" s="2">
-        <v>199.21</v>
+        <v>200.16</v>
       </c>
       <c r="C239" s="2">
-        <v>15146597092</v>
+        <v>14929412179</v>
       </c>
       <c r="D239" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5270,13 +5270,13 @@
         <v>242</v>
       </c>
       <c r="B240" s="2">
-        <v>111.28</v>
+        <v>111.5</v>
       </c>
       <c r="C240" s="2">
-        <v>12079773100</v>
+        <v>11869636552</v>
       </c>
       <c r="D240" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5284,13 +5284,13 @@
         <v>243</v>
       </c>
       <c r="B241" s="2">
-        <v>376.05</v>
+        <v>368.08</v>
       </c>
       <c r="C241" s="2">
-        <v>53728746724</v>
+        <v>53957056394</v>
       </c>
       <c r="D241" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5298,13 +5298,13 @@
         <v>244</v>
       </c>
       <c r="B242" s="2">
-        <v>87.81</v>
+        <v>91.45999999999999</v>
       </c>
       <c r="C242" s="2">
-        <v>19782287305</v>
+        <v>19690874737</v>
       </c>
       <c r="D242" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5312,13 +5312,13 @@
         <v>245</v>
       </c>
       <c r="B243" s="2">
-        <v>90.63</v>
+        <v>88.20999999999999</v>
       </c>
       <c r="C243" s="2">
-        <v>37173811124</v>
+        <v>37222980638</v>
       </c>
       <c r="D243" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5326,13 +5326,13 @@
         <v>246</v>
       </c>
       <c r="B244" s="2">
-        <v>48.98</v>
+        <v>47.68</v>
       </c>
       <c r="C244" s="2">
-        <v>199788592982</v>
+        <v>192994259949</v>
       </c>
       <c r="D244" s="3">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5340,13 +5340,13 @@
         <v>247</v>
       </c>
       <c r="B245" s="2">
-        <v>387.98</v>
+        <v>399.74</v>
       </c>
       <c r="C245" s="2">
-        <v>104715135326</v>
+        <v>108096569454</v>
       </c>
       <c r="D245" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5354,13 +5354,13 @@
         <v>248</v>
       </c>
       <c r="B246" s="2">
-        <v>50.82</v>
+        <v>50.97</v>
       </c>
       <c r="C246" s="2">
-        <v>19700447655</v>
+        <v>19839525185</v>
       </c>
       <c r="D246" s="3">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5368,13 +5368,13 @@
         <v>249</v>
       </c>
       <c r="B247" s="2">
-        <v>24.5</v>
+        <v>23.93</v>
       </c>
       <c r="C247" s="2">
-        <v>9298856291</v>
+        <v>9456586500</v>
       </c>
       <c r="D247" s="3">
-        <v>80</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5382,13 +5382,13 @@
         <v>250</v>
       </c>
       <c r="B248" s="2">
-        <v>225.31</v>
+        <v>224.47</v>
       </c>
       <c r="C248" s="2">
-        <v>12225979189</v>
+        <v>11977914555</v>
       </c>
       <c r="D248" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5396,13 +5396,13 @@
         <v>251</v>
       </c>
       <c r="B249" s="2">
-        <v>176.39</v>
+        <v>180.87</v>
       </c>
       <c r="C249" s="2">
-        <v>34275073224</v>
+        <v>34604996346</v>
       </c>
       <c r="D249" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5410,13 +5410,13 @@
         <v>252</v>
       </c>
       <c r="B250" s="2">
-        <v>47.41</v>
+        <v>46.69</v>
       </c>
       <c r="C250" s="2">
-        <v>19611710734</v>
+        <v>19261767082</v>
       </c>
       <c r="D250" s="3">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5424,13 +5424,13 @@
         <v>253</v>
       </c>
       <c r="B251" s="2">
-        <v>29.73</v>
+        <v>29.98</v>
       </c>
       <c r="C251" s="2">
-        <v>8864041723</v>
+        <v>8810078341</v>
       </c>
       <c r="D251" s="3">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5438,13 +5438,13 @@
         <v>254</v>
       </c>
       <c r="B252" s="2">
-        <v>821</v>
+        <v>838</v>
       </c>
       <c r="C252" s="2">
-        <v>96128014182</v>
+        <v>95570597389</v>
       </c>
       <c r="D252" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5452,13 +5452,13 @@
         <v>255</v>
       </c>
       <c r="B253" s="2">
-        <v>161.21</v>
+        <v>166.27</v>
       </c>
       <c r="C253" s="2">
-        <v>14191403690</v>
+        <v>14566330922</v>
       </c>
       <c r="D253" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5466,13 +5466,13 @@
         <v>256</v>
       </c>
       <c r="B254" s="2">
-        <v>206.35</v>
+        <v>208.87</v>
       </c>
       <c r="C254" s="2">
-        <v>67154733376</v>
+        <v>64974295588</v>
       </c>
       <c r="D254" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5480,13 +5480,13 @@
         <v>257</v>
       </c>
       <c r="B255" s="2">
-        <v>18.49</v>
+        <v>18.19</v>
       </c>
       <c r="C255" s="2">
-        <v>8197089472</v>
+        <v>8317840666</v>
       </c>
       <c r="D255" s="3">
-        <v>107</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5494,13 +5494,13 @@
         <v>258</v>
       </c>
       <c r="B256" s="2">
-        <v>109.19</v>
+        <v>107.89</v>
       </c>
       <c r="C256" s="2">
-        <v>14463993056</v>
+        <v>14126258876</v>
       </c>
       <c r="D256" s="3">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5508,13 +5508,13 @@
         <v>259</v>
       </c>
       <c r="B257" s="2">
-        <v>137.78</v>
+        <v>140.14</v>
       </c>
       <c r="C257" s="2">
-        <v>14663775138</v>
+        <v>14616136029</v>
       </c>
       <c r="D257" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5522,13 +5522,13 @@
         <v>260</v>
       </c>
       <c r="B258" s="2">
-        <v>48.02</v>
+        <v>46.91</v>
       </c>
       <c r="C258" s="2">
-        <v>34834313205</v>
+        <v>34789510323</v>
       </c>
       <c r="D258" s="3">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5536,13 +5536,13 @@
         <v>261</v>
       </c>
       <c r="B259" s="2">
-        <v>164.53</v>
+        <v>162.72</v>
       </c>
       <c r="C259" s="2">
-        <v>12082500646</v>
+        <v>12611624220</v>
       </c>
       <c r="D259" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5550,13 +5550,13 @@
         <v>262</v>
       </c>
       <c r="B260" s="2">
-        <v>154.26</v>
+        <v>157.62</v>
       </c>
       <c r="C260" s="2">
-        <v>418498568084</v>
+        <v>411823669226</v>
       </c>
       <c r="D260" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5564,13 +5564,13 @@
         <v>263</v>
       </c>
       <c r="B261" s="2">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="C261" s="2">
-        <v>7416716549</v>
+        <v>7529249353</v>
       </c>
       <c r="D261" s="3">
-        <v>85</v>
+        <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5578,13 +5578,13 @@
         <v>264</v>
       </c>
       <c r="B262" s="2">
-        <v>124.59</v>
+        <v>126.3</v>
       </c>
       <c r="C262" s="2">
-        <v>386892137487</v>
+        <v>387370324768</v>
       </c>
       <c r="D262" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5592,13 +5592,13 @@
         <v>265</v>
       </c>
       <c r="B263" s="2">
-        <v>61.83</v>
+        <v>62.77</v>
       </c>
       <c r="C263" s="2">
-        <v>21521171699</v>
+        <v>22073095590</v>
       </c>
       <c r="D263" s="3">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5606,13 +5606,13 @@
         <v>266</v>
       </c>
       <c r="B264" s="2">
-        <v>16.54</v>
+        <v>16.47</v>
       </c>
       <c r="C264" s="2">
-        <v>16086299478</v>
+        <v>15867943004</v>
       </c>
       <c r="D264" s="3">
-        <v>119</v>
+        <v>6</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5620,13 +5620,13 @@
         <v>267</v>
       </c>
       <c r="B265" s="2">
-        <v>137.07</v>
+        <v>133.56</v>
       </c>
       <c r="C265" s="2">
-        <v>24984161035</v>
+        <v>25174602639</v>
       </c>
       <c r="D265" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5634,13 +5634,13 @@
         <v>268</v>
       </c>
       <c r="B266" s="2">
-        <v>36.55</v>
+        <v>35.44</v>
       </c>
       <c r="C266" s="2">
-        <v>44167462556</v>
+        <v>43716143365</v>
       </c>
       <c r="D266" s="3">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5648,13 +5648,13 @@
         <v>269</v>
       </c>
       <c r="B267" s="2">
-        <v>14.59</v>
+        <v>14.89</v>
       </c>
       <c r="C267" s="2">
-        <v>6492722960</v>
+        <v>6486496554</v>
       </c>
       <c r="D267" s="3">
-        <v>135</v>
+        <v>6</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5662,13 +5662,13 @@
         <v>270</v>
       </c>
       <c r="B268" s="2">
-        <v>270.97</v>
+        <v>266.26</v>
       </c>
       <c r="C268" s="2">
-        <v>40915230140</v>
+        <v>40480317804</v>
       </c>
       <c r="D268" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5676,13 +5676,13 @@
         <v>271</v>
       </c>
       <c r="B269" s="2">
-        <v>135.47</v>
+        <v>138.38</v>
       </c>
       <c r="C269" s="2">
-        <v>46001120675</v>
+        <v>45924653403</v>
       </c>
       <c r="D269" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5690,13 +5690,13 @@
         <v>272</v>
       </c>
       <c r="B270" s="2">
-        <v>14.5</v>
+        <v>14.23</v>
       </c>
       <c r="C270" s="2">
-        <v>32205450956</v>
+        <v>31646732629</v>
       </c>
       <c r="D270" s="3">
-        <v>136</v>
+        <v>6</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5704,13 +5704,13 @@
         <v>273</v>
       </c>
       <c r="B271" s="2">
-        <v>95.40000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="C271" s="2">
-        <v>15414399438</v>
+        <v>15206502904</v>
       </c>
       <c r="D271" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5718,13 +5718,13 @@
         <v>274</v>
       </c>
       <c r="B272" s="2">
-        <v>55.78</v>
+        <v>54.78</v>
       </c>
       <c r="C272" s="2">
-        <v>234813087766</v>
+        <v>229960513153</v>
       </c>
       <c r="D272" s="3">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5732,13 +5732,13 @@
         <v>275</v>
       </c>
       <c r="B273" s="2">
-        <v>32.51</v>
+        <v>32.34</v>
       </c>
       <c r="C273" s="2">
-        <v>25068050606</v>
+        <v>24950481248</v>
       </c>
       <c r="D273" s="3">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5746,13 +5746,13 @@
         <v>276</v>
       </c>
       <c r="B274" s="2">
-        <v>40.02</v>
+        <v>40.55</v>
       </c>
       <c r="C274" s="2">
-        <v>6267275605</v>
+        <v>6410451937</v>
       </c>
       <c r="D274" s="3">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5760,13 +5760,13 @@
         <v>277</v>
       </c>
       <c r="B275" s="2">
-        <v>200.87</v>
+        <v>202.85</v>
       </c>
       <c r="C275" s="2">
-        <v>19276414280</v>
+        <v>19385662221</v>
       </c>
       <c r="D275" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5774,13 +5774,13 @@
         <v>278</v>
       </c>
       <c r="B276" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C276" s="2">
-        <v>12455926715</v>
+        <v>12460469926</v>
       </c>
       <c r="D276" s="3">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5788,13 +5788,13 @@
         <v>279</v>
       </c>
       <c r="B277" s="2">
-        <v>40.3</v>
+        <v>40.01</v>
       </c>
       <c r="C277" s="2">
-        <v>11259419849</v>
+        <v>10917129393</v>
       </c>
       <c r="D277" s="3">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5802,13 +5802,13 @@
         <v>280</v>
       </c>
       <c r="B278" s="2">
-        <v>106.23</v>
+        <v>105.34</v>
       </c>
       <c r="C278" s="2">
-        <v>15242105720</v>
+        <v>15224878449</v>
       </c>
       <c r="D278" s="3">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5816,13 +5816,13 @@
         <v>281</v>
       </c>
       <c r="B279" s="2">
-        <v>43.14</v>
+        <v>42.63</v>
       </c>
       <c r="C279" s="2">
-        <v>5659152096</v>
+        <v>5779561465</v>
       </c>
       <c r="D279" s="3">
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5830,13 +5830,13 @@
         <v>282</v>
       </c>
       <c r="B280" s="2">
-        <v>82.27</v>
+        <v>83.08</v>
       </c>
       <c r="C280" s="2">
-        <v>25270178851</v>
+        <v>25169628306</v>
       </c>
       <c r="D280" s="3">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5844,13 +5844,13 @@
         <v>283</v>
       </c>
       <c r="B281" s="2">
-        <v>204.35</v>
+        <v>208.21</v>
       </c>
       <c r="C281" s="2">
-        <v>20401933423</v>
+        <v>19875320794</v>
       </c>
       <c r="D281" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5858,13 +5858,13 @@
         <v>284</v>
       </c>
       <c r="B282" s="2">
-        <v>194.17</v>
+        <v>189.8</v>
       </c>
       <c r="C282" s="2">
-        <v>39214893998</v>
+        <v>40775044972</v>
       </c>
       <c r="D282" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5872,13 +5872,13 @@
         <v>285</v>
       </c>
       <c r="B283" s="2">
-        <v>257.7</v>
+        <v>269.41</v>
       </c>
       <c r="C283" s="2">
-        <v>137971595686</v>
+        <v>135295779266</v>
       </c>
       <c r="D283" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5886,13 +5886,13 @@
         <v>286</v>
       </c>
       <c r="B284" s="2">
-        <v>38.02</v>
+        <v>36.97</v>
       </c>
       <c r="C284" s="2">
-        <v>11255161351</v>
+        <v>11570757180</v>
       </c>
       <c r="D284" s="3">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5900,13 +5900,13 @@
         <v>287</v>
       </c>
       <c r="B285" s="2">
-        <v>173.34</v>
+        <v>172.7</v>
       </c>
       <c r="C285" s="2">
-        <v>160794432157</v>
+        <v>162232546802</v>
       </c>
       <c r="D285" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5914,13 +5914,13 @@
         <v>288</v>
       </c>
       <c r="B286" s="2">
-        <v>353.35</v>
+        <v>358.84</v>
       </c>
       <c r="C286" s="2">
-        <v>102032838562</v>
+        <v>101532809561</v>
       </c>
       <c r="D286" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5928,13 +5928,13 @@
         <v>289</v>
       </c>
       <c r="B287" s="2">
-        <v>50.86</v>
+        <v>51</v>
       </c>
       <c r="C287" s="2">
-        <v>9776395564</v>
+        <v>9845938586</v>
       </c>
       <c r="D287" s="3">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5942,13 +5942,13 @@
         <v>290</v>
       </c>
       <c r="B288" s="2">
-        <v>50.74</v>
+        <v>51.31</v>
       </c>
       <c r="C288" s="2">
-        <v>12672573790</v>
+        <v>12684454848</v>
       </c>
       <c r="D288" s="3">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5956,13 +5956,13 @@
         <v>291</v>
       </c>
       <c r="B289" s="2">
-        <v>164.31</v>
+        <v>163.46</v>
       </c>
       <c r="C289" s="2">
-        <v>119496289756</v>
+        <v>122200071111</v>
       </c>
       <c r="D289" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5970,13 +5970,13 @@
         <v>292</v>
       </c>
       <c r="B290" s="2">
-        <v>499.3</v>
+        <v>501.7</v>
       </c>
       <c r="C290" s="2">
-        <v>70605154410</v>
+        <v>71737430481</v>
       </c>
       <c r="D290" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5984,13 +5984,13 @@
         <v>293</v>
       </c>
       <c r="B291" s="2">
-        <v>46.66</v>
+        <v>46.31</v>
       </c>
       <c r="C291" s="2">
-        <v>28208715668</v>
+        <v>28501789898</v>
       </c>
       <c r="D291" s="3">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5998,13 +5998,13 @@
         <v>294</v>
       </c>
       <c r="B292" s="2">
-        <v>57.72</v>
+        <v>58.99</v>
       </c>
       <c r="C292" s="2">
-        <v>43744379316</v>
+        <v>44945063264</v>
       </c>
       <c r="D292" s="3">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6012,13 +6012,13 @@
         <v>295</v>
       </c>
       <c r="B293" s="2">
-        <v>77.68000000000001</v>
+        <v>79.98</v>
       </c>
       <c r="C293" s="2">
-        <v>11498840877</v>
+        <v>11501249146</v>
       </c>
       <c r="D293" s="3">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6026,13 +6026,13 @@
         <v>296</v>
       </c>
       <c r="B294" s="2">
-        <v>93.34</v>
+        <v>91.33</v>
       </c>
       <c r="C294" s="2">
-        <v>31396361095</v>
+        <v>31678715134</v>
       </c>
       <c r="D294" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6040,13 +6040,13 @@
         <v>297</v>
       </c>
       <c r="B295" s="2">
-        <v>74.55</v>
+        <v>72.05</v>
       </c>
       <c r="C295" s="2">
-        <v>15565796942</v>
+        <v>15984924793</v>
       </c>
       <c r="D295" s="3">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6054,13 +6054,13 @@
         <v>298</v>
       </c>
       <c r="B296" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C296" s="2">
-        <v>348034468236</v>
+        <v>337566306384</v>
       </c>
       <c r="D296" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6068,13 +6068,13 @@
         <v>299</v>
       </c>
       <c r="B297" s="2">
-        <v>128.7</v>
+        <v>124.8</v>
       </c>
       <c r="C297" s="2">
-        <v>14712953955</v>
+        <v>14510161224</v>
       </c>
       <c r="D297" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6082,13 +6082,13 @@
         <v>300</v>
       </c>
       <c r="B298" s="2">
-        <v>131.49</v>
+        <v>135.17</v>
       </c>
       <c r="C298" s="2">
-        <v>43674674015</v>
+        <v>43029256514</v>
       </c>
       <c r="D298" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6096,13 +6096,13 @@
         <v>301</v>
       </c>
       <c r="B299" s="2">
-        <v>57.52</v>
+        <v>57.05</v>
       </c>
       <c r="C299" s="2">
-        <v>15334314925</v>
+        <v>15286012432</v>
       </c>
       <c r="D299" s="3">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6110,13 +6110,13 @@
         <v>302</v>
       </c>
       <c r="B300" s="2">
-        <v>217.28</v>
+        <v>214.31</v>
       </c>
       <c r="C300" s="2">
-        <v>164744775360</v>
+        <v>158235204537</v>
       </c>
       <c r="D300" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6124,13 +6124,13 @@
         <v>303</v>
       </c>
       <c r="B301" s="2">
-        <v>140.4</v>
+        <v>138.8</v>
       </c>
       <c r="C301" s="2">
-        <v>37373931679</v>
+        <v>36911017492</v>
       </c>
       <c r="D301" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6138,13 +6138,13 @@
         <v>304</v>
       </c>
       <c r="B302" s="2">
-        <v>178.59</v>
+        <v>174.32</v>
       </c>
       <c r="C302" s="2">
-        <v>27710092977</v>
+        <v>28728881653</v>
       </c>
       <c r="D302" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6152,13 +6152,13 @@
         <v>305</v>
       </c>
       <c r="B303" s="2">
-        <v>292.17</v>
+        <v>284.94</v>
       </c>
       <c r="C303" s="2">
-        <v>53818582092</v>
+        <v>53364939839</v>
       </c>
       <c r="D303" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6166,13 +6166,13 @@
         <v>306</v>
       </c>
       <c r="B304" s="2">
-        <v>60.24</v>
+        <v>60.42</v>
       </c>
       <c r="C304" s="2">
-        <v>85982945207</v>
+        <v>83018894975</v>
       </c>
       <c r="D304" s="3">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6180,13 +6180,13 @@
         <v>307</v>
       </c>
       <c r="B305" s="2">
-        <v>117.51</v>
+        <v>114.91</v>
       </c>
       <c r="C305" s="2">
-        <v>158031008326</v>
+        <v>159435467949</v>
       </c>
       <c r="D305" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6194,13 +6194,13 @@
         <v>308</v>
       </c>
       <c r="B306" s="2">
-        <v>47.68</v>
+        <v>46.95</v>
       </c>
       <c r="C306" s="2">
-        <v>42407487965</v>
+        <v>43270811583</v>
       </c>
       <c r="D306" s="3">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6208,13 +6208,13 @@
         <v>309</v>
       </c>
       <c r="B307" s="2">
-        <v>31.43</v>
+        <v>30.83</v>
       </c>
       <c r="C307" s="2">
-        <v>15730101742</v>
+        <v>15353167617</v>
       </c>
       <c r="D307" s="3">
-        <v>63</v>
+        <v>3</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6222,13 +6222,13 @@
         <v>310</v>
       </c>
       <c r="B308" s="2">
-        <v>141.42</v>
+        <v>143.68</v>
       </c>
       <c r="C308" s="2">
-        <v>10210213618</v>
+        <v>10183309326</v>
       </c>
       <c r="D308" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6236,13 +6236,13 @@
         <v>311</v>
       </c>
       <c r="B309" s="2">
-        <v>95.42</v>
+        <v>94.97</v>
       </c>
       <c r="C309" s="2">
-        <v>25447943249</v>
+        <v>24981223029</v>
       </c>
       <c r="D309" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6250,13 +6250,13 @@
         <v>312</v>
       </c>
       <c r="B310" s="2">
-        <v>582.8</v>
+        <v>591.2</v>
       </c>
       <c r="C310" s="2">
-        <v>22157666875</v>
+        <v>22475017617</v>
       </c>
       <c r="D310" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6264,13 +6264,13 @@
         <v>313</v>
       </c>
       <c r="B311" s="2">
-        <v>275.98</v>
+        <v>286</v>
       </c>
       <c r="C311" s="2">
-        <v>17569642654</v>
+        <v>17263216183</v>
       </c>
       <c r="D311" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6278,13 +6278,13 @@
         <v>314</v>
       </c>
       <c r="B312" s="2">
-        <v>116.34</v>
+        <v>115.83</v>
       </c>
       <c r="C312" s="2">
-        <v>61171879029</v>
+        <v>60577923645</v>
       </c>
       <c r="D312" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6292,13 +6292,13 @@
         <v>315</v>
       </c>
       <c r="B313" s="2">
-        <v>178.22</v>
+        <v>180.54</v>
       </c>
       <c r="C313" s="2">
-        <v>103828543497</v>
+        <v>102439069384</v>
       </c>
       <c r="D313" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6306,13 +6306,13 @@
         <v>316</v>
       </c>
       <c r="B314" s="2">
-        <v>93.7</v>
+        <v>92.93000000000001</v>
       </c>
       <c r="C314" s="2">
-        <v>48359180829</v>
+        <v>49742948384</v>
       </c>
       <c r="D314" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6320,13 +6320,13 @@
         <v>317</v>
       </c>
       <c r="B315" s="2">
-        <v>42.71</v>
+        <v>41.81</v>
       </c>
       <c r="C315" s="2">
-        <v>78208648561</v>
+        <v>79276329282</v>
       </c>
       <c r="D315" s="3">
-        <v>46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6334,13 +6334,13 @@
         <v>318</v>
       </c>
       <c r="B316" s="2">
-        <v>22.86</v>
+        <v>22.55</v>
       </c>
       <c r="C316" s="2">
-        <v>8571447184</v>
+        <v>8626734632</v>
       </c>
       <c r="D316" s="3">
-        <v>86</v>
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6348,13 +6348,13 @@
         <v>319</v>
       </c>
       <c r="B317" s="2">
-        <v>42.85</v>
+        <v>41.39</v>
       </c>
       <c r="C317" s="2">
-        <v>28023482472</v>
+        <v>27413510366</v>
       </c>
       <c r="D317" s="3">
-        <v>46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6362,13 +6362,13 @@
         <v>320</v>
       </c>
       <c r="B318" s="2">
-        <v>80.34</v>
+        <v>83.83</v>
       </c>
       <c r="C318" s="2">
-        <v>203525350389</v>
+        <v>209402091204</v>
       </c>
       <c r="D318" s="3">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6376,13 +6376,13 @@
         <v>321</v>
       </c>
       <c r="B319" s="2">
-        <v>6.85</v>
+        <v>6.89</v>
       </c>
       <c r="C319" s="2">
-        <v>5267973455</v>
+        <v>5467133230</v>
       </c>
       <c r="D319" s="3">
-        <v>289</v>
+        <v>14</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6390,13 +6390,13 @@
         <v>322</v>
       </c>
       <c r="B320" s="2">
-        <v>70.22</v>
+        <v>70.58</v>
       </c>
       <c r="C320" s="2">
-        <v>127796434098</v>
+        <v>127812432813</v>
       </c>
       <c r="D320" s="3">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6404,13 +6404,13 @@
         <v>323</v>
       </c>
       <c r="B321" s="2">
-        <v>444.86</v>
+        <v>446.56</v>
       </c>
       <c r="C321" s="2">
-        <v>36653306139</v>
+        <v>36908344613</v>
       </c>
       <c r="D321" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6418,13 +6418,13 @@
         <v>324</v>
       </c>
       <c r="B322" s="2">
-        <v>224.03</v>
+        <v>232.17</v>
       </c>
       <c r="C322" s="2">
-        <v>1740881341474</v>
+        <v>1715021030164</v>
       </c>
       <c r="D322" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6432,13 +6432,13 @@
         <v>325</v>
       </c>
       <c r="B323" s="2">
-        <v>173.95</v>
+        <v>176.35</v>
       </c>
       <c r="C323" s="2">
-        <v>29174576152</v>
+        <v>28873598231</v>
       </c>
       <c r="D323" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6446,13 +6446,13 @@
         <v>326</v>
       </c>
       <c r="B324" s="2">
-        <v>129.7</v>
+        <v>129.15</v>
       </c>
       <c r="C324" s="2">
-        <v>16354042945</v>
+        <v>16622118400</v>
       </c>
       <c r="D324" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6460,13 +6460,13 @@
         <v>327</v>
       </c>
       <c r="B325" s="2">
-        <v>1162.16</v>
+        <v>1168.36</v>
       </c>
       <c r="C325" s="2">
-        <v>27444379691</v>
+        <v>28036588444</v>
       </c>
       <c r="D325" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6474,13 +6474,13 @@
         <v>328</v>
       </c>
       <c r="B326" s="2">
-        <v>72.84</v>
+        <v>70.95</v>
       </c>
       <c r="C326" s="2">
-        <v>81183659235</v>
+        <v>82006219141</v>
       </c>
       <c r="D326" s="3">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6488,13 +6488,13 @@
         <v>329</v>
       </c>
       <c r="B327" s="2">
-        <v>86.59</v>
+        <v>88.23</v>
       </c>
       <c r="C327" s="2">
-        <v>23770671188</v>
+        <v>23210183032</v>
       </c>
       <c r="D327" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6502,13 +6502,13 @@
         <v>330</v>
       </c>
       <c r="B328" s="2">
-        <v>16.46</v>
+        <v>16.414</v>
       </c>
       <c r="C328" s="2">
-        <v>8738407574</v>
+        <v>8636096621</v>
       </c>
       <c r="D328" s="3">
-        <v>120</v>
+        <v>6</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6516,13 +6516,13 @@
         <v>331</v>
       </c>
       <c r="B329" s="2">
-        <v>8.85</v>
+        <v>8.51</v>
       </c>
       <c r="C329" s="2">
-        <v>4152958194</v>
+        <v>4164102007</v>
       </c>
       <c r="D329" s="3">
-        <v>223</v>
+        <v>11</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6530,13 +6530,13 @@
         <v>332</v>
       </c>
       <c r="B330" s="2">
-        <v>24.67</v>
+        <v>25.53</v>
       </c>
       <c r="C330" s="2">
-        <v>5439405344</v>
+        <v>5512417429</v>
       </c>
       <c r="D330" s="3">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6544,13 +6544,13 @@
         <v>333</v>
       </c>
       <c r="B331" s="2">
-        <v>131.46</v>
+        <v>131.28</v>
       </c>
       <c r="C331" s="2">
-        <v>21860909368</v>
+        <v>21764690501</v>
       </c>
       <c r="D331" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6558,13 +6558,13 @@
         <v>334</v>
       </c>
       <c r="B332" s="2">
-        <v>76.98999999999999</v>
+        <v>75.36</v>
       </c>
       <c r="C332" s="2">
-        <v>149911682960</v>
+        <v>150403024822</v>
       </c>
       <c r="D332" s="3">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6572,13 +6572,13 @@
         <v>335</v>
       </c>
       <c r="B333" s="2">
-        <v>62.58</v>
+        <v>60.72</v>
       </c>
       <c r="C333" s="2">
-        <v>50798870105</v>
+        <v>48682552415</v>
       </c>
       <c r="D333" s="3">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6586,13 +6586,13 @@
         <v>336</v>
       </c>
       <c r="B334" s="2">
-        <v>525.67</v>
+        <v>524.41</v>
       </c>
       <c r="C334" s="2">
-        <v>231605224510</v>
+        <v>236390947133</v>
       </c>
       <c r="D334" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6600,13 +6600,13 @@
         <v>337</v>
       </c>
       <c r="B335" s="2">
-        <v>23.11</v>
+        <v>22.77</v>
       </c>
       <c r="C335" s="2">
-        <v>8615051237</v>
+        <v>8856492704</v>
       </c>
       <c r="D335" s="3">
-        <v>85</v>
+        <v>4</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6614,13 +6614,13 @@
         <v>338</v>
       </c>
       <c r="B336" s="2">
-        <v>147.6</v>
+        <v>145.6</v>
       </c>
       <c r="C336" s="2">
-        <v>228469520038</v>
+        <v>228948855884</v>
       </c>
       <c r="D336" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6628,13 +6628,13 @@
         <v>339</v>
       </c>
       <c r="B337" s="2">
-        <v>21.08</v>
+        <v>21.06</v>
       </c>
       <c r="C337" s="2">
-        <v>12536219328</v>
+        <v>12908383568</v>
       </c>
       <c r="D337" s="3">
-        <v>93</v>
+        <v>4</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6642,13 +6642,13 @@
         <v>340</v>
       </c>
       <c r="B338" s="2">
-        <v>21.33</v>
+        <v>21.02</v>
       </c>
       <c r="C338" s="2">
-        <v>7602291025</v>
+        <v>7282754414</v>
       </c>
       <c r="D338" s="3">
-        <v>92</v>
+        <v>4</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6656,13 +6656,13 @@
         <v>341</v>
       </c>
       <c r="B339" s="2">
-        <v>309.4</v>
+        <v>306.6</v>
       </c>
       <c r="C339" s="2">
-        <v>50721774511</v>
+        <v>51783364871</v>
       </c>
       <c r="D339" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6670,13 +6670,13 @@
         <v>342</v>
       </c>
       <c r="B340" s="2">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C340" s="2">
-        <v>5479294842</v>
+        <v>5276367525</v>
       </c>
       <c r="D340" s="3">
-        <v>145</v>
+        <v>7</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6684,13 +6684,13 @@
         <v>343</v>
       </c>
       <c r="B341" s="2">
-        <v>566.74</v>
+        <v>554.47</v>
       </c>
       <c r="C341" s="2">
-        <v>109811981923</v>
+        <v>113352107487</v>
       </c>
       <c r="D341" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6698,13 +6698,13 @@
         <v>344</v>
       </c>
       <c r="B342" s="2">
-        <v>36.47</v>
+        <v>35.5</v>
       </c>
       <c r="C342" s="2">
-        <v>8805857593</v>
+        <v>8814453595</v>
       </c>
       <c r="D342" s="3">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6712,13 +6712,13 @@
         <v>345</v>
       </c>
       <c r="B343" s="2">
-        <v>242.34</v>
+        <v>244.58</v>
       </c>
       <c r="C343" s="2">
-        <v>59958806884</v>
+        <v>61624561871</v>
       </c>
       <c r="D343" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6726,13 +6726,13 @@
         <v>346</v>
       </c>
       <c r="B344" s="2">
-        <v>67.2</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C344" s="2">
-        <v>15079518773</v>
+        <v>14798622170</v>
       </c>
       <c r="D344" s="3">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6740,13 +6740,13 @@
         <v>347</v>
       </c>
       <c r="B345" s="2">
-        <v>94.42</v>
+        <v>93.91</v>
       </c>
       <c r="C345" s="2">
-        <v>19238251482</v>
+        <v>19332486481</v>
       </c>
       <c r="D345" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6754,13 +6754,13 @@
         <v>348</v>
       </c>
       <c r="B346" s="2">
-        <v>54.49</v>
+        <v>53.1</v>
       </c>
       <c r="C346" s="2">
-        <v>16014544875</v>
+        <v>16370785231</v>
       </c>
       <c r="D346" s="3">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6768,13 +6768,13 @@
         <v>349</v>
       </c>
       <c r="B347" s="2">
-        <v>522.87</v>
+        <v>543.47</v>
       </c>
       <c r="C347" s="2">
-        <v>331435116326</v>
+        <v>330800289833</v>
       </c>
       <c r="D347" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6782,10 +6782,10 @@
         <v>350</v>
       </c>
       <c r="B348" s="2">
-        <v>4381.9</v>
+        <v>4277.13</v>
       </c>
       <c r="C348" s="2">
-        <v>16367157483</v>
+        <v>15864405615</v>
       </c>
       <c r="D348" s="3">
         <v>0</v>
@@ -6796,13 +6796,13 @@
         <v>351</v>
       </c>
       <c r="B349" s="2">
-        <v>21.82</v>
+        <v>21.27</v>
       </c>
       <c r="C349" s="2">
-        <v>9442449218</v>
+        <v>9157283064</v>
       </c>
       <c r="D349" s="3">
-        <v>90</v>
+        <v>4</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6810,13 +6810,13 @@
         <v>352</v>
       </c>
       <c r="B350" s="2">
-        <v>18.05</v>
+        <v>17.86</v>
       </c>
       <c r="C350" s="2">
-        <v>10538125512</v>
+        <v>10772868776</v>
       </c>
       <c r="D350" s="3">
-        <v>109</v>
+        <v>5</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6824,13 +6824,13 @@
         <v>353</v>
       </c>
       <c r="B351" s="2">
-        <v>17.84</v>
+        <v>18.69</v>
       </c>
       <c r="C351" s="2">
-        <v>11019990449</v>
+        <v>10700244794</v>
       </c>
       <c r="D351" s="3">
-        <v>110</v>
+        <v>5</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6838,13 +6838,13 @@
         <v>354</v>
       </c>
       <c r="B352" s="2">
-        <v>63.66</v>
+        <v>62.68</v>
       </c>
       <c r="C352" s="2">
-        <v>21657866180</v>
+        <v>22365288638</v>
       </c>
       <c r="D352" s="3">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6852,13 +6852,13 @@
         <v>355</v>
       </c>
       <c r="B353" s="2">
-        <v>201.05</v>
+        <v>207.51</v>
       </c>
       <c r="C353" s="2">
-        <v>23784686088</v>
+        <v>23322281819</v>
       </c>
       <c r="D353" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6866,13 +6866,13 @@
         <v>356</v>
       </c>
       <c r="B354" s="2">
-        <v>39.2</v>
+        <v>40</v>
       </c>
       <c r="C354" s="2">
-        <v>17520949537</v>
+        <v>17249545301</v>
       </c>
       <c r="D354" s="3">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6880,13 +6880,13 @@
         <v>357</v>
       </c>
       <c r="B355" s="2">
-        <v>62.1</v>
+        <v>62.4</v>
       </c>
       <c r="C355" s="2">
-        <v>13543461026</v>
+        <v>13524765703</v>
       </c>
       <c r="D355" s="3">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6894,13 +6894,13 @@
         <v>358</v>
       </c>
       <c r="B356" s="2">
-        <v>66.45999999999999</v>
+        <v>66.19</v>
       </c>
       <c r="C356" s="2">
-        <v>191952364752</v>
+        <v>197561546016</v>
       </c>
       <c r="D356" s="3">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6908,13 +6908,13 @@
         <v>359</v>
       </c>
       <c r="B357" s="2">
-        <v>468.56</v>
+        <v>469.74</v>
       </c>
       <c r="C357" s="2">
-        <v>34938515197</v>
+        <v>33454831478</v>
       </c>
       <c r="D357" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6922,13 +6922,13 @@
         <v>360</v>
       </c>
       <c r="B358" s="2">
-        <v>66.59999999999999</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="C358" s="2">
-        <v>29105735751</v>
+        <v>29645973620</v>
       </c>
       <c r="D358" s="3">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6936,13 +6936,13 @@
         <v>361</v>
       </c>
       <c r="B359" s="2">
-        <v>18.38</v>
+        <v>18.2</v>
       </c>
       <c r="C359" s="2">
-        <v>16822912713</v>
+        <v>16600421201</v>
       </c>
       <c r="D359" s="3">
-        <v>107</v>
+        <v>5</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6950,13 +6950,13 @@
         <v>362</v>
       </c>
       <c r="B360" s="2">
-        <v>462.4</v>
+        <v>468.02</v>
       </c>
       <c r="C360" s="2">
-        <v>27219572409</v>
+        <v>27862892392</v>
       </c>
       <c r="D360" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6964,13 +6964,13 @@
         <v>363</v>
       </c>
       <c r="B361" s="2">
-        <v>98.81</v>
+        <v>96.63</v>
       </c>
       <c r="C361" s="2">
-        <v>34539852566</v>
+        <v>34588986287</v>
       </c>
       <c r="D361" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6978,13 +6978,13 @@
         <v>364</v>
       </c>
       <c r="B362" s="2">
-        <v>13.1</v>
+        <v>12.92</v>
       </c>
       <c r="C362" s="2">
-        <v>5684168412</v>
+        <v>5522270536</v>
       </c>
       <c r="D362" s="3">
-        <v>151</v>
+        <v>7</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6992,13 +6992,13 @@
         <v>365</v>
       </c>
       <c r="B363" s="2">
-        <v>87.02</v>
+        <v>86.77</v>
       </c>
       <c r="C363" s="2">
-        <v>29980964509</v>
+        <v>31107121959</v>
       </c>
       <c r="D363" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -7006,13 +7006,13 @@
         <v>366</v>
       </c>
       <c r="B364" s="2">
-        <v>30.12</v>
+        <v>30.82</v>
       </c>
       <c r="C364" s="2">
-        <v>16092722399</v>
+        <v>16530954699</v>
       </c>
       <c r="D364" s="3">
-        <v>65</v>
+        <v>3</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -7020,13 +7020,13 @@
         <v>367</v>
       </c>
       <c r="B365" s="2">
-        <v>58.63</v>
+        <v>57.19</v>
       </c>
       <c r="C365" s="2">
-        <v>29624234814</v>
+        <v>30246605837</v>
       </c>
       <c r="D365" s="3">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -7034,13 +7034,13 @@
         <v>368</v>
       </c>
       <c r="B366" s="2">
-        <v>151.38</v>
+        <v>145.53</v>
       </c>
       <c r="C366" s="2">
-        <v>203124201523</v>
+        <v>204563987741</v>
       </c>
       <c r="D366" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7048,13 +7048,13 @@
         <v>369</v>
       </c>
       <c r="B367" s="2">
-        <v>37.82</v>
+        <v>37.68</v>
       </c>
       <c r="C367" s="2">
-        <v>213074417039</v>
+        <v>210391758658</v>
       </c>
       <c r="D367" s="3">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7062,13 +7062,13 @@
         <v>370</v>
       </c>
       <c r="B368" s="2">
-        <v>50.25</v>
+        <v>50.31</v>
       </c>
       <c r="C368" s="2">
-        <v>13971537231</v>
+        <v>13631277056</v>
       </c>
       <c r="D368" s="3">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7076,13 +7076,13 @@
         <v>371</v>
       </c>
       <c r="B369" s="2">
-        <v>139.1</v>
+        <v>142.46</v>
       </c>
       <c r="C369" s="2">
-        <v>348828872246</v>
+        <v>352926988079</v>
       </c>
       <c r="D369" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7090,13 +7090,13 @@
         <v>372</v>
       </c>
       <c r="B370" s="2">
-        <v>102.2</v>
+        <v>100.85</v>
       </c>
       <c r="C370" s="2">
-        <v>59671373694</v>
+        <v>59749799411</v>
       </c>
       <c r="D370" s="3">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7104,13 +7104,13 @@
         <v>373</v>
       </c>
       <c r="B371" s="2">
-        <v>271.61</v>
+        <v>271.35</v>
       </c>
       <c r="C371" s="2">
-        <v>35061596509</v>
+        <v>35270813517</v>
       </c>
       <c r="D371" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7118,13 +7118,13 @@
         <v>374</v>
       </c>
       <c r="B372" s="2">
-        <v>45.4</v>
+        <v>47.2</v>
       </c>
       <c r="C372" s="2">
-        <v>12223827355</v>
+        <v>12678704631</v>
       </c>
       <c r="D372" s="3">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7132,13 +7132,13 @@
         <v>375</v>
       </c>
       <c r="B373" s="2">
-        <v>139.6</v>
+        <v>137.5</v>
       </c>
       <c r="C373" s="2">
-        <v>13504375328</v>
+        <v>13224654154</v>
       </c>
       <c r="D373" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7146,13 +7146,13 @@
         <v>376</v>
       </c>
       <c r="B374" s="2">
-        <v>141.78</v>
+        <v>140</v>
       </c>
       <c r="C374" s="2">
-        <v>16272679890</v>
+        <v>15788302547</v>
       </c>
       <c r="D374" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7160,13 +7160,13 @@
         <v>377</v>
       </c>
       <c r="B375" s="2">
-        <v>100.25</v>
+        <v>97.47</v>
       </c>
       <c r="C375" s="2">
-        <v>75270728180</v>
+        <v>73708154777</v>
       </c>
       <c r="D375" s="3">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7174,13 +7174,13 @@
         <v>378</v>
       </c>
       <c r="B376" s="2">
-        <v>84.42</v>
+        <v>84.83</v>
       </c>
       <c r="C376" s="2">
-        <v>130690925869</v>
+        <v>131494906451</v>
       </c>
       <c r="D376" s="3">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7188,13 +7188,13 @@
         <v>379</v>
       </c>
       <c r="B377" s="2">
-        <v>147.14</v>
+        <v>150.83</v>
       </c>
       <c r="C377" s="2">
-        <v>62980801680</v>
+        <v>62833852398</v>
       </c>
       <c r="D377" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7202,13 +7202,13 @@
         <v>380</v>
       </c>
       <c r="B378" s="2">
-        <v>54.02</v>
+        <v>52.97</v>
       </c>
       <c r="C378" s="2">
-        <v>8915400898</v>
+        <v>9037936721</v>
       </c>
       <c r="D378" s="3">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7216,13 +7216,13 @@
         <v>381</v>
       </c>
       <c r="B379" s="2">
-        <v>78.88</v>
+        <v>80.98</v>
       </c>
       <c r="C379" s="2">
-        <v>8975708929</v>
+        <v>8841635960</v>
       </c>
       <c r="D379" s="3">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7230,13 +7230,13 @@
         <v>382</v>
       </c>
       <c r="B380" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C380" s="2">
-        <v>35867824983</v>
+        <v>35643785563</v>
       </c>
       <c r="D380" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7244,13 +7244,13 @@
         <v>383</v>
       </c>
       <c r="B381" s="2">
-        <v>27.85</v>
+        <v>27.5</v>
       </c>
       <c r="C381" s="2">
-        <v>21420414290</v>
+        <v>20794153167</v>
       </c>
       <c r="D381" s="3">
-        <v>71</v>
+        <v>3</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7258,13 +7258,13 @@
         <v>384</v>
       </c>
       <c r="B382" s="2">
-        <v>44.93</v>
+        <v>45.65</v>
       </c>
       <c r="C382" s="2">
-        <v>6227066771</v>
+        <v>6112727383</v>
       </c>
       <c r="D382" s="3">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7272,13 +7272,13 @@
         <v>385</v>
       </c>
       <c r="B383" s="2">
-        <v>80.47</v>
+        <v>78.08</v>
       </c>
       <c r="C383" s="2">
-        <v>30569716514</v>
+        <v>31788234853</v>
       </c>
       <c r="D383" s="3">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7286,13 +7286,13 @@
         <v>386</v>
       </c>
       <c r="B384" s="2">
-        <v>230.9</v>
+        <v>231.01</v>
       </c>
       <c r="C384" s="2">
-        <v>40874461536</v>
+        <v>40321805800</v>
       </c>
       <c r="D384" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7300,13 +7300,13 @@
         <v>387</v>
       </c>
       <c r="B385" s="2">
-        <v>68.90000000000001</v>
+        <v>70.45999999999999</v>
       </c>
       <c r="C385" s="2">
-        <v>31019509163</v>
+        <v>31453186542</v>
       </c>
       <c r="D385" s="3">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7314,13 +7314,13 @@
         <v>388</v>
       </c>
       <c r="B386" s="2">
-        <v>93.87</v>
+        <v>94.16</v>
       </c>
       <c r="C386" s="2">
-        <v>6733817111</v>
+        <v>7001025386</v>
       </c>
       <c r="D386" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7328,13 +7328,13 @@
         <v>389</v>
       </c>
       <c r="B387" s="2">
-        <v>73.95</v>
+        <v>71.7</v>
       </c>
       <c r="C387" s="2">
-        <v>10075026226</v>
+        <v>10028371082</v>
       </c>
       <c r="D387" s="3">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7342,13 +7342,13 @@
         <v>390</v>
       </c>
       <c r="B388" s="2">
-        <v>116.12</v>
+        <v>117.26</v>
       </c>
       <c r="C388" s="2">
-        <v>18773754205</v>
+        <v>18847820827</v>
       </c>
       <c r="D388" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7356,13 +7356,13 @@
         <v>391</v>
       </c>
       <c r="B389" s="2">
-        <v>242.14</v>
+        <v>244.89</v>
       </c>
       <c r="C389" s="2">
-        <v>285116734431</v>
+        <v>280201816343</v>
       </c>
       <c r="D389" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7370,13 +7370,13 @@
         <v>392</v>
       </c>
       <c r="B390" s="2">
-        <v>149.24</v>
+        <v>149.66</v>
       </c>
       <c r="C390" s="2">
-        <v>172376904323</v>
+        <v>171657613762</v>
       </c>
       <c r="D390" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7384,13 +7384,13 @@
         <v>393</v>
       </c>
       <c r="B391" s="2">
-        <v>168.45</v>
+        <v>172.45</v>
       </c>
       <c r="C391" s="2">
-        <v>19120721339</v>
+        <v>19261542080</v>
       </c>
       <c r="D391" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7398,13 +7398,13 @@
         <v>394</v>
       </c>
       <c r="B392" s="2">
-        <v>72.27</v>
+        <v>73.38</v>
       </c>
       <c r="C392" s="2">
-        <v>15879825870</v>
+        <v>16055994392</v>
       </c>
       <c r="D392" s="3">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7412,13 +7412,13 @@
         <v>395</v>
       </c>
       <c r="B393" s="2">
-        <v>238.45</v>
+        <v>237.17</v>
       </c>
       <c r="C393" s="2">
-        <v>9317951080</v>
+        <v>9356407861</v>
       </c>
       <c r="D393" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7426,13 +7426,13 @@
         <v>396</v>
       </c>
       <c r="B394" s="2">
-        <v>45.87</v>
+        <v>46.39</v>
       </c>
       <c r="C394" s="2">
-        <v>7707918556</v>
+        <v>8084165412</v>
       </c>
       <c r="D394" s="3">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7440,13 +7440,13 @@
         <v>397</v>
       </c>
       <c r="B395" s="2">
-        <v>503.14</v>
+        <v>502.44</v>
       </c>
       <c r="C395" s="2">
-        <v>52337007281</v>
+        <v>51492501719</v>
       </c>
       <c r="D395" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7454,13 +7454,13 @@
         <v>398</v>
       </c>
       <c r="B396" s="2">
-        <v>16.57</v>
+        <v>16.2</v>
       </c>
       <c r="C396" s="2">
-        <v>15389828464</v>
+        <v>15864090650</v>
       </c>
       <c r="D396" s="3">
-        <v>119</v>
+        <v>6</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7468,13 +7468,13 @@
         <v>399</v>
       </c>
       <c r="B397" s="2">
-        <v>65.3</v>
+        <v>63.16</v>
       </c>
       <c r="C397" s="2">
-        <v>7313065535</v>
+        <v>7171873949</v>
       </c>
       <c r="D397" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7482,13 +7482,13 @@
         <v>400</v>
       </c>
       <c r="B398" s="2">
-        <v>95.26000000000001</v>
+        <v>95.75</v>
       </c>
       <c r="C398" s="2">
-        <v>13168336134</v>
+        <v>13252780981</v>
       </c>
       <c r="D398" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7496,13 +7496,13 @@
         <v>401</v>
       </c>
       <c r="B399" s="2">
-        <v>104.76</v>
+        <v>104.58</v>
       </c>
       <c r="C399" s="2">
-        <v>7585487111</v>
+        <v>7465636888</v>
       </c>
       <c r="D399" s="3">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7510,13 +7510,13 @@
         <v>402</v>
       </c>
       <c r="B400" s="2">
-        <v>213.33</v>
+        <v>212.94</v>
       </c>
       <c r="C400" s="2">
-        <v>31070341605</v>
+        <v>31681242640</v>
       </c>
       <c r="D400" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7524,13 +7524,13 @@
         <v>403</v>
       </c>
       <c r="B401" s="2">
-        <v>248.65</v>
+        <v>252.54</v>
       </c>
       <c r="C401" s="2">
-        <v>29181695594</v>
+        <v>29365135568</v>
       </c>
       <c r="D401" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7538,13 +7538,13 @@
         <v>404</v>
       </c>
       <c r="B402" s="2">
-        <v>41.61</v>
+        <v>40.98</v>
       </c>
       <c r="C402" s="2">
-        <v>20465845946</v>
+        <v>20022577178</v>
       </c>
       <c r="D402" s="3">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7552,13 +7552,13 @@
         <v>405</v>
       </c>
       <c r="B403" s="2">
-        <v>430.48</v>
+        <v>435.36</v>
       </c>
       <c r="C403" s="2">
-        <v>44250990790</v>
+        <v>45765576386</v>
       </c>
       <c r="D403" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7566,13 +7566,13 @@
         <v>406</v>
       </c>
       <c r="B404" s="2">
-        <v>123.64</v>
+        <v>119.73</v>
       </c>
       <c r="C404" s="2">
-        <v>42325262275</v>
+        <v>42213511671</v>
       </c>
       <c r="D404" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7580,13 +7580,13 @@
         <v>407</v>
       </c>
       <c r="B405" s="2">
-        <v>98.29000000000001</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="C405" s="2">
-        <v>31373335712</v>
+        <v>31960201454</v>
       </c>
       <c r="D405" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7594,13 +7594,13 @@
         <v>408</v>
       </c>
       <c r="B406" s="2">
-        <v>71.97</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="C406" s="2">
-        <v>110412117677</v>
+        <v>111731310702</v>
       </c>
       <c r="D406" s="3">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7608,13 +7608,13 @@
         <v>409</v>
       </c>
       <c r="B407" s="2">
-        <v>275.7</v>
+        <v>285.24</v>
       </c>
       <c r="C407" s="2">
-        <v>31193163219</v>
+        <v>31683273198</v>
       </c>
       <c r="D407" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7622,13 +7622,13 @@
         <v>410</v>
       </c>
       <c r="B408" s="2">
-        <v>104.26</v>
+        <v>104.81</v>
       </c>
       <c r="C408" s="2">
-        <v>123526884476</v>
+        <v>123403937054</v>
       </c>
       <c r="D408" s="3">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7636,13 +7636,13 @@
         <v>411</v>
       </c>
       <c r="B409" s="2">
-        <v>53.71</v>
+        <v>53.73</v>
       </c>
       <c r="C409" s="2">
-        <v>100322429092</v>
+        <v>102713797195</v>
       </c>
       <c r="D409" s="3">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7650,13 +7650,13 @@
         <v>412</v>
       </c>
       <c r="B410" s="2">
-        <v>47.3</v>
+        <v>47.5</v>
       </c>
       <c r="C410" s="2">
-        <v>7380835638</v>
+        <v>7397800651</v>
       </c>
       <c r="D410" s="3">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7664,13 +7664,13 @@
         <v>413</v>
       </c>
       <c r="B411" s="2">
-        <v>767.3</v>
+        <v>755</v>
       </c>
       <c r="C411" s="2">
-        <v>68676134695</v>
+        <v>69157700601</v>
       </c>
       <c r="D411" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7678,13 +7678,13 @@
         <v>414</v>
       </c>
       <c r="B412" s="2">
-        <v>382.01</v>
+        <v>381.97</v>
       </c>
       <c r="C412" s="2">
-        <v>20053453795</v>
+        <v>20181768759</v>
       </c>
       <c r="D412" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7692,13 +7692,13 @@
         <v>415</v>
       </c>
       <c r="B413" s="2">
-        <v>118.98</v>
+        <v>117.22</v>
       </c>
       <c r="C413" s="2">
-        <v>13299168162</v>
+        <v>13742827353</v>
       </c>
       <c r="D413" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7706,13 +7706,13 @@
         <v>416</v>
       </c>
       <c r="B414" s="2">
-        <v>22.04</v>
+        <v>22.52</v>
       </c>
       <c r="C414" s="2">
-        <v>31603043679</v>
+        <v>30170911811</v>
       </c>
       <c r="D414" s="3">
-        <v>89</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7720,13 +7720,13 @@
         <v>417</v>
       </c>
       <c r="B415" s="2">
-        <v>57.66</v>
+        <v>56.89</v>
       </c>
       <c r="C415" s="2">
-        <v>4229974382</v>
+        <v>4146677915</v>
       </c>
       <c r="D415" s="3">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7734,13 +7734,13 @@
         <v>418</v>
       </c>
       <c r="B416" s="2">
-        <v>172.2</v>
+        <v>173.48</v>
       </c>
       <c r="C416" s="2">
-        <v>9649782587</v>
+        <v>9548202111</v>
       </c>
       <c r="D416" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7748,13 +7748,13 @@
         <v>419</v>
       </c>
       <c r="B417" s="2">
-        <v>259.83</v>
+        <v>264.36</v>
       </c>
       <c r="C417" s="2">
-        <v>39613630395</v>
+        <v>39298532676</v>
       </c>
       <c r="D417" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7762,13 +7762,13 @@
         <v>420</v>
       </c>
       <c r="B418" s="2">
-        <v>62.2</v>
+        <v>60.8</v>
       </c>
       <c r="C418" s="2">
-        <v>65509953380</v>
+        <v>65527209861</v>
       </c>
       <c r="D418" s="3">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7776,13 +7776,13 @@
         <v>421</v>
       </c>
       <c r="B419" s="2">
-        <v>87.25</v>
+        <v>84.8</v>
       </c>
       <c r="C419" s="2">
-        <v>28969524896</v>
+        <v>28228990661</v>
       </c>
       <c r="D419" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7790,13 +7790,13 @@
         <v>422</v>
       </c>
       <c r="B420" s="2">
-        <v>319.77</v>
+        <v>329.24</v>
       </c>
       <c r="C420" s="2">
-        <v>76467832188</v>
+        <v>78256222858</v>
       </c>
       <c r="D420" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7804,13 +7804,13 @@
         <v>423</v>
       </c>
       <c r="B421" s="2">
-        <v>127.9</v>
+        <v>129</v>
       </c>
       <c r="C421" s="2">
-        <v>37203094856</v>
+        <v>37569258382</v>
       </c>
       <c r="D421" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7818,13 +7818,13 @@
         <v>424</v>
       </c>
       <c r="B422" s="2">
-        <v>188.39</v>
+        <v>193.09</v>
       </c>
       <c r="C422" s="2">
-        <v>15965601565</v>
+        <v>15927161449</v>
       </c>
       <c r="D422" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7832,13 +7832,13 @@
         <v>425</v>
       </c>
       <c r="B423" s="2">
-        <v>73.20999999999999</v>
+        <v>72.16</v>
       </c>
       <c r="C423" s="2">
-        <v>26555391991</v>
+        <v>25338303636</v>
       </c>
       <c r="D423" s="3">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7846,13 +7846,13 @@
         <v>426</v>
       </c>
       <c r="B424" s="2">
-        <v>64.97</v>
+        <v>64.92</v>
       </c>
       <c r="C424" s="2">
-        <v>16892242061</v>
+        <v>16824477629</v>
       </c>
       <c r="D424" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7860,13 +7860,13 @@
         <v>427</v>
       </c>
       <c r="B425" s="2">
-        <v>220.28</v>
+        <v>220.51</v>
       </c>
       <c r="C425" s="2">
-        <v>41876544986</v>
+        <v>42520453973</v>
       </c>
       <c r="D425" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7874,13 +7874,13 @@
         <v>428</v>
       </c>
       <c r="B426" s="2">
-        <v>188.3</v>
+        <v>188.09</v>
       </c>
       <c r="C426" s="2">
-        <v>29590082985</v>
+        <v>29179141685</v>
       </c>
       <c r="D426" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7888,13 +7888,13 @@
         <v>429</v>
       </c>
       <c r="B427" s="2">
-        <v>153.23</v>
+        <v>155.09</v>
       </c>
       <c r="C427" s="2">
-        <v>26298180818</v>
+        <v>25370369454</v>
       </c>
       <c r="D427" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7902,13 +7902,13 @@
         <v>430</v>
       </c>
       <c r="B428" s="2">
-        <v>35.47</v>
+        <v>35.13</v>
       </c>
       <c r="C428" s="2">
-        <v>20652214383</v>
+        <v>20305285354</v>
       </c>
       <c r="D428" s="3">
-        <v>55</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7916,13 +7916,13 @@
         <v>431</v>
       </c>
       <c r="B429" s="2">
-        <v>237.11</v>
+        <v>238.26</v>
       </c>
       <c r="C429" s="2">
-        <v>91384155997</v>
+        <v>93534614229</v>
       </c>
       <c r="D429" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7930,13 +7930,13 @@
         <v>432</v>
       </c>
       <c r="B430" s="2">
-        <v>73.42</v>
+        <v>73.22</v>
       </c>
       <c r="C430" s="2">
-        <v>38303097114</v>
+        <v>38026543606</v>
       </c>
       <c r="D430" s="3">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7944,13 +7944,13 @@
         <v>433</v>
       </c>
       <c r="B431" s="2">
-        <v>28.72</v>
+        <v>29.8</v>
       </c>
       <c r="C431" s="2">
-        <v>209664493836</v>
+        <v>213600039023</v>
       </c>
       <c r="D431" s="3">
-        <v>68</v>
+        <v>3</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7958,13 +7958,13 @@
         <v>434</v>
       </c>
       <c r="B432" s="2">
-        <v>46.08</v>
+        <v>47.59</v>
       </c>
       <c r="C432" s="2">
-        <v>9328218640</v>
+        <v>9415886270</v>
       </c>
       <c r="D432" s="3">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7972,13 +7972,13 @@
         <v>435</v>
       </c>
       <c r="B433" s="2">
-        <v>628.27</v>
+        <v>623.9299999999999</v>
       </c>
       <c r="C433" s="2">
-        <v>33837364907</v>
+        <v>34345074833</v>
       </c>
       <c r="D433" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7986,13 +7986,13 @@
         <v>436</v>
       </c>
       <c r="B434" s="2">
-        <v>395.67</v>
+        <v>384.44</v>
       </c>
       <c r="C434" s="2">
-        <v>14623704806</v>
+        <v>14673486428</v>
       </c>
       <c r="D434" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -8000,13 +8000,13 @@
         <v>437</v>
       </c>
       <c r="B435" s="2">
-        <v>121.95</v>
+        <v>119.85</v>
       </c>
       <c r="C435" s="2">
-        <v>41522852966</v>
+        <v>41567766811</v>
       </c>
       <c r="D435" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -8014,13 +8014,13 @@
         <v>438</v>
       </c>
       <c r="B436" s="2">
-        <v>47.99</v>
+        <v>48.19</v>
       </c>
       <c r="C436" s="2">
-        <v>64969712215</v>
+        <v>65386578727</v>
       </c>
       <c r="D436" s="3">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8028,13 +8028,13 @@
         <v>439</v>
       </c>
       <c r="B437" s="2">
-        <v>421.34</v>
+        <v>411.19</v>
       </c>
       <c r="C437" s="2">
-        <v>19067255617</v>
+        <v>19622098774</v>
       </c>
       <c r="D437" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -8042,13 +8042,13 @@
         <v>440</v>
       </c>
       <c r="B438" s="2">
-        <v>179.45</v>
+        <v>177.58</v>
       </c>
       <c r="C438" s="2">
-        <v>91093320531</v>
+        <v>88253169026</v>
       </c>
       <c r="D438" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8056,13 +8056,13 @@
         <v>441</v>
       </c>
       <c r="B439" s="2">
-        <v>131.37</v>
+        <v>132.89</v>
       </c>
       <c r="C439" s="2">
-        <v>16476668820</v>
+        <v>16502700751</v>
       </c>
       <c r="D439" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8070,13 +8070,13 @@
         <v>442</v>
       </c>
       <c r="B440" s="2">
-        <v>69.11</v>
+        <v>70.26000000000001</v>
       </c>
       <c r="C440" s="2">
-        <v>82248453964</v>
+        <v>82444945194</v>
       </c>
       <c r="D440" s="3">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8084,13 +8084,13 @@
         <v>443</v>
       </c>
       <c r="B441" s="2">
-        <v>465.09</v>
+        <v>479.34</v>
       </c>
       <c r="C441" s="2">
-        <v>183775303133</v>
+        <v>187049613304</v>
       </c>
       <c r="D441" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8098,13 +8098,13 @@
         <v>444</v>
       </c>
       <c r="B442" s="2">
-        <v>133.47</v>
+        <v>134.89</v>
       </c>
       <c r="C442" s="2">
-        <v>171962612009</v>
+        <v>165303593328</v>
       </c>
       <c r="D442" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8112,13 +8112,13 @@
         <v>445</v>
       </c>
       <c r="B443" s="2">
-        <v>32.38</v>
+        <v>32.24</v>
       </c>
       <c r="C443" s="2">
-        <v>8649733907</v>
+        <v>8985811656</v>
       </c>
       <c r="D443" s="3">
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8126,13 +8126,13 @@
         <v>446</v>
       </c>
       <c r="B444" s="2">
-        <v>151.32</v>
+        <v>155.6</v>
       </c>
       <c r="C444" s="2">
-        <v>33787692277</v>
+        <v>34661406533</v>
       </c>
       <c r="D444" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8140,13 +8140,13 @@
         <v>447</v>
       </c>
       <c r="B445" s="2">
-        <v>143.83</v>
+        <v>141.82</v>
       </c>
       <c r="C445" s="2">
-        <v>35307046231</v>
+        <v>36060694180</v>
       </c>
       <c r="D445" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8154,13 +8154,13 @@
         <v>448</v>
       </c>
       <c r="B446" s="2">
-        <v>152.36</v>
+        <v>154.12</v>
       </c>
       <c r="C446" s="2">
-        <v>17158276743</v>
+        <v>17634098282</v>
       </c>
       <c r="D446" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8168,13 +8168,13 @@
         <v>449</v>
       </c>
       <c r="B447" s="2">
-        <v>66.23999999999999</v>
+        <v>67.93000000000001</v>
       </c>
       <c r="C447" s="2">
-        <v>24220668517</v>
+        <v>24590196440</v>
       </c>
       <c r="D447" s="3">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8182,13 +8182,13 @@
         <v>450</v>
       </c>
       <c r="B448" s="2">
-        <v>147.06</v>
+        <v>148.65</v>
       </c>
       <c r="C448" s="2">
-        <v>35473878084</v>
+        <v>35211089549</v>
       </c>
       <c r="D448" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8196,13 +8196,13 @@
         <v>451</v>
       </c>
       <c r="B449" s="2">
-        <v>208.2</v>
+        <v>204</v>
       </c>
       <c r="C449" s="2">
-        <v>23857020934</v>
+        <v>23396772120</v>
       </c>
       <c r="D449" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8210,13 +8210,13 @@
         <v>452</v>
       </c>
       <c r="B450" s="2">
-        <v>55.15</v>
+        <v>54.5</v>
       </c>
       <c r="C450" s="2">
-        <v>44416465585</v>
+        <v>43244213676</v>
       </c>
       <c r="D450" s="3">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8224,13 +8224,13 @@
         <v>453</v>
       </c>
       <c r="B451" s="2">
-        <v>163.22</v>
+        <v>168.52</v>
       </c>
       <c r="C451" s="2">
-        <v>151979561813</v>
+        <v>151637912772</v>
       </c>
       <c r="D451" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8238,13 +8238,13 @@
         <v>454</v>
       </c>
       <c r="B452" s="2">
-        <v>48.8</v>
+        <v>49.11</v>
       </c>
       <c r="C452" s="2">
-        <v>11129313324</v>
+        <v>11278197340</v>
       </c>
       <c r="D452" s="3">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8252,13 +8252,13 @@
         <v>455</v>
       </c>
       <c r="B453" s="2">
-        <v>449</v>
+        <v>438.74</v>
       </c>
       <c r="C453" s="2">
-        <v>18232512299</v>
+        <v>18285273053</v>
       </c>
       <c r="D453" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8266,13 +8266,13 @@
         <v>456</v>
       </c>
       <c r="B454" s="2">
-        <v>15.08</v>
+        <v>15.25</v>
       </c>
       <c r="C454" s="2">
-        <v>7659394988</v>
+        <v>7343660271</v>
       </c>
       <c r="D454" s="3">
-        <v>131</v>
+        <v>6</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8280,13 +8280,13 @@
         <v>457</v>
       </c>
       <c r="B455" s="2">
-        <v>17.5</v>
+        <v>18.18</v>
       </c>
       <c r="C455" s="2">
-        <v>7322748145</v>
+        <v>7643373423</v>
       </c>
       <c r="D455" s="3">
-        <v>113</v>
+        <v>5</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8294,13 +8294,13 @@
         <v>458</v>
       </c>
       <c r="B456" s="2">
-        <v>43.91</v>
+        <v>43.87</v>
       </c>
       <c r="C456" s="2">
-        <v>13021761835</v>
+        <v>13059806295</v>
       </c>
       <c r="D456" s="3">
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8308,13 +8308,13 @@
         <v>459</v>
       </c>
       <c r="B457" s="2">
-        <v>37.48</v>
+        <v>38.97</v>
       </c>
       <c r="C457" s="2">
-        <v>11483724068</v>
+        <v>11076003759</v>
       </c>
       <c r="D457" s="3">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8322,13 +8322,13 @@
         <v>460</v>
       </c>
       <c r="B458" s="2">
-        <v>136.94</v>
+        <v>138.22</v>
       </c>
       <c r="C458" s="2">
-        <v>11949429963</v>
+        <v>11833606337</v>
       </c>
       <c r="D458" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8336,13 +8336,13 @@
         <v>461</v>
       </c>
       <c r="B459" s="2">
-        <v>266.12</v>
+        <v>275.46</v>
       </c>
       <c r="C459" s="2">
-        <v>15081449047</v>
+        <v>15323308945</v>
       </c>
       <c r="D459" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8350,13 +8350,13 @@
         <v>462</v>
       </c>
       <c r="B460" s="2">
-        <v>344.76</v>
+        <v>345.2</v>
       </c>
       <c r="C460" s="2">
-        <v>339332600656</v>
+        <v>324355933095</v>
       </c>
       <c r="D460" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8364,13 +8364,13 @@
         <v>463</v>
       </c>
       <c r="B461" s="2">
-        <v>22.96</v>
+        <v>22.23</v>
       </c>
       <c r="C461" s="2">
-        <v>4667146181</v>
+        <v>4589895505</v>
       </c>
       <c r="D461" s="3">
-        <v>86</v>
+        <v>4</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8378,13 +8378,13 @@
         <v>464</v>
       </c>
       <c r="B462" s="2">
-        <v>204.24</v>
+        <v>207.08</v>
       </c>
       <c r="C462" s="2">
-        <v>142883720977</v>
+        <v>141500290652</v>
       </c>
       <c r="D462" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8392,13 +8392,13 @@
         <v>465</v>
       </c>
       <c r="B463" s="2">
-        <v>172.92</v>
+        <v>175.54</v>
       </c>
       <c r="C463" s="2">
-        <v>151646334088</v>
+        <v>153759833391</v>
       </c>
       <c r="D463" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8406,13 +8406,13 @@
         <v>466</v>
       </c>
       <c r="B464" s="2">
-        <v>236.37</v>
+        <v>240.75</v>
       </c>
       <c r="C464" s="2">
-        <v>17214098352</v>
+        <v>17360124915</v>
       </c>
       <c r="D464" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8420,13 +8420,13 @@
         <v>467</v>
       </c>
       <c r="B465" s="2">
-        <v>46.81</v>
+        <v>48.47</v>
       </c>
       <c r="C465" s="2">
-        <v>72024816954</v>
+        <v>72899257465</v>
       </c>
       <c r="D465" s="3">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8434,13 +8434,13 @@
         <v>468</v>
       </c>
       <c r="B466" s="2">
-        <v>212</v>
+        <v>213.7</v>
       </c>
       <c r="C466" s="2">
-        <v>470784663213</v>
+        <v>467144100856</v>
       </c>
       <c r="D466" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8448,13 +8448,13 @@
         <v>469</v>
       </c>
       <c r="B467" s="2">
-        <v>178.36</v>
+        <v>181.62</v>
       </c>
       <c r="C467" s="2">
-        <v>16487631967</v>
+        <v>16372196068</v>
       </c>
       <c r="D467" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8462,13 +8462,13 @@
         <v>470</v>
       </c>
       <c r="B468" s="2">
-        <v>85.7</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="C468" s="2">
-        <v>33704227108</v>
+        <v>34304597063</v>
       </c>
       <c r="D468" s="3">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8476,13 +8476,13 @@
         <v>471</v>
       </c>
       <c r="B469" s="2">
-        <v>37.66</v>
+        <v>36.91</v>
       </c>
       <c r="C469" s="2">
-        <v>23210053567</v>
+        <v>22467877827</v>
       </c>
       <c r="D469" s="3">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8490,13 +8490,13 @@
         <v>472</v>
       </c>
       <c r="B470" s="2">
-        <v>57.6</v>
+        <v>56.92</v>
       </c>
       <c r="C470" s="2">
-        <v>23095687659</v>
+        <v>23419693837</v>
       </c>
       <c r="D470" s="3">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8504,13 +8504,13 @@
         <v>473</v>
       </c>
       <c r="B471" s="2">
-        <v>144.39</v>
+        <v>144.4</v>
       </c>
       <c r="C471" s="2">
-        <v>19502795038</v>
+        <v>19282621349</v>
       </c>
       <c r="D471" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8518,13 +8518,13 @@
         <v>474</v>
       </c>
       <c r="B472" s="2">
-        <v>37.6</v>
+        <v>36.24</v>
       </c>
       <c r="C472" s="2">
-        <v>7048509084</v>
+        <v>6988160692</v>
       </c>
       <c r="D472" s="3">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8532,13 +8532,13 @@
         <v>475</v>
       </c>
       <c r="B473" s="2">
-        <v>209.38</v>
+        <v>205.51</v>
       </c>
       <c r="C473" s="2">
-        <v>33987099946</v>
+        <v>33294824833</v>
       </c>
       <c r="D473" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8546,13 +8546,13 @@
         <v>476</v>
       </c>
       <c r="B474" s="2">
-        <v>215.37</v>
+        <v>218.69</v>
       </c>
       <c r="C474" s="2">
-        <v>25652647628</v>
+        <v>25491322984</v>
       </c>
       <c r="D474" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8560,13 +8560,13 @@
         <v>477</v>
       </c>
       <c r="B475" s="2">
-        <v>235.74</v>
+        <v>241.84</v>
       </c>
       <c r="C475" s="2">
-        <v>62166006311</v>
+        <v>61792089115</v>
       </c>
       <c r="D475" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8574,13 +8574,13 @@
         <v>478</v>
       </c>
       <c r="B476" s="2">
-        <v>50.73</v>
+        <v>50.09</v>
       </c>
       <c r="C476" s="2">
-        <v>18702713660</v>
+        <v>18445743246</v>
       </c>
       <c r="D476" s="3">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8588,13 +8588,13 @@
         <v>479</v>
       </c>
       <c r="B477" s="2">
-        <v>59.09</v>
+        <v>60.6</v>
       </c>
       <c r="C477" s="2">
-        <v>251094664980</v>
+        <v>255569673264</v>
       </c>
       <c r="D477" s="3">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8602,13 +8602,13 @@
         <v>480</v>
       </c>
       <c r="B478" s="2">
-        <v>75.91</v>
+        <v>75.8</v>
       </c>
       <c r="C478" s="2">
-        <v>14435452463</v>
+        <v>14449494367</v>
       </c>
       <c r="D478" s="3">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8616,13 +8616,13 @@
         <v>481</v>
       </c>
       <c r="B479" s="2">
-        <v>250.47</v>
+        <v>247.52</v>
       </c>
       <c r="C479" s="2">
-        <v>15407569481</v>
+        <v>15509798627</v>
       </c>
       <c r="D479" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8630,13 +8630,13 @@
         <v>482</v>
       </c>
       <c r="B480" s="2">
-        <v>41.57</v>
+        <v>39.75</v>
       </c>
       <c r="C480" s="2">
-        <v>34937668150</v>
+        <v>35516997637</v>
       </c>
       <c r="D480" s="3">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8644,13 +8644,13 @@
         <v>483</v>
       </c>
       <c r="B481" s="2">
-        <v>50.81</v>
+        <v>51.02</v>
       </c>
       <c r="C481" s="2">
-        <v>15281186666</v>
+        <v>15209633633</v>
       </c>
       <c r="D481" s="3">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8658,13 +8658,13 @@
         <v>484</v>
       </c>
       <c r="B482" s="2">
-        <v>92.87</v>
+        <v>92.8</v>
       </c>
       <c r="C482" s="2">
-        <v>29360833288</v>
+        <v>29338254577</v>
       </c>
       <c r="D482" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8672,13 +8672,13 @@
         <v>485</v>
       </c>
       <c r="B483" s="2">
-        <v>64.68000000000001</v>
+        <v>64.13</v>
       </c>
       <c r="C483" s="2">
-        <v>27375416563</v>
+        <v>27754951142</v>
       </c>
       <c r="D483" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8686,13 +8686,13 @@
         <v>486</v>
       </c>
       <c r="B484" s="2">
-        <v>30.23</v>
+        <v>31.27</v>
       </c>
       <c r="C484" s="2">
-        <v>126777019369</v>
+        <v>123959230259</v>
       </c>
       <c r="D484" s="3">
-        <v>65</v>
+        <v>3</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8700,13 +8700,13 @@
         <v>487</v>
       </c>
       <c r="B485" s="2">
-        <v>202.2</v>
+        <v>196.8</v>
       </c>
       <c r="C485" s="2">
-        <v>12238158504</v>
+        <v>12567966388</v>
       </c>
       <c r="D485" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8714,13 +8714,13 @@
         <v>488</v>
       </c>
       <c r="B486" s="2">
-        <v>215.08</v>
+        <v>215.52</v>
       </c>
       <c r="C486" s="2">
-        <v>28529094574</v>
+        <v>27326591008</v>
       </c>
       <c r="D486" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -8728,13 +8728,13 @@
         <v>489</v>
       </c>
       <c r="B487" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C487" s="2">
-        <v>51170222390</v>
+        <v>49702512756</v>
       </c>
       <c r="D487" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8742,13 +8742,13 @@
         <v>490</v>
       </c>
       <c r="B488" s="2">
-        <v>20.8</v>
+        <v>21.36</v>
       </c>
       <c r="C488" s="2">
-        <v>26390994851</v>
+        <v>26025978751</v>
       </c>
       <c r="D488" s="3">
-        <v>95</v>
+        <v>4</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8756,13 +8756,13 @@
         <v>491</v>
       </c>
       <c r="B489" s="2">
-        <v>149.4</v>
+        <v>145</v>
       </c>
       <c r="C489" s="2">
-        <v>421815740975</v>
+        <v>421705161491</v>
       </c>
       <c r="D489" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8773,10 +8773,10 @@
         <v>67.90000000000001</v>
       </c>
       <c r="C490" s="2">
-        <v>12147427517</v>
+        <v>12283533775</v>
       </c>
       <c r="D490" s="3">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -8784,13 +8784,13 @@
         <v>493</v>
       </c>
       <c r="B491" s="2">
-        <v>44.63</v>
+        <v>44.51</v>
       </c>
       <c r="C491" s="2">
-        <v>11703645703</v>
+        <v>11844195915</v>
       </c>
       <c r="D491" s="3">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -8798,13 +8798,13 @@
         <v>494</v>
       </c>
       <c r="B492" s="2">
-        <v>287.93</v>
+        <v>294.45</v>
       </c>
       <c r="C492" s="2">
-        <v>21092497263</v>
+        <v>20998740410</v>
       </c>
       <c r="D492" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -8812,13 +8812,13 @@
         <v>495</v>
       </c>
       <c r="B493" s="2">
-        <v>22.27</v>
+        <v>22.63</v>
       </c>
       <c r="C493" s="2">
-        <v>9229544560</v>
+        <v>9313372687</v>
       </c>
       <c r="D493" s="3">
-        <v>88</v>
+        <v>4</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -8826,13 +8826,13 @@
         <v>496</v>
       </c>
       <c r="B494" s="2">
-        <v>34.02</v>
+        <v>34.15</v>
       </c>
       <c r="C494" s="2">
-        <v>25375025595</v>
+        <v>25544669455</v>
       </c>
       <c r="D494" s="3">
-        <v>58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -8840,13 +8840,13 @@
         <v>497</v>
       </c>
       <c r="B495" s="2">
-        <v>118.95</v>
+        <v>114.49</v>
       </c>
       <c r="C495" s="2">
-        <v>12758139270</v>
+        <v>12479453490</v>
       </c>
       <c r="D495" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8854,13 +8854,13 @@
         <v>498</v>
       </c>
       <c r="B496" s="2">
-        <v>66.38</v>
+        <v>64.81</v>
       </c>
       <c r="C496" s="2">
-        <v>34054822362</v>
+        <v>35202284115</v>
       </c>
       <c r="D496" s="3">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -8868,13 +8868,13 @@
         <v>499</v>
       </c>
       <c r="B497" s="2">
-        <v>147.02</v>
+        <v>144.95</v>
       </c>
       <c r="C497" s="2">
-        <v>36485793030</v>
+        <v>36074146238</v>
       </c>
       <c r="D497" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -8882,13 +8882,13 @@
         <v>500</v>
       </c>
       <c r="B498" s="2">
-        <v>42.3</v>
+        <v>42.8</v>
       </c>
       <c r="C498" s="2">
-        <v>178573897917</v>
+        <v>180998739850</v>
       </c>
       <c r="D498" s="3">
-        <v>46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -8896,13 +8896,13 @@
         <v>501</v>
       </c>
       <c r="B499" s="2">
-        <v>53.62</v>
+        <v>52.95</v>
       </c>
       <c r="C499" s="2">
-        <v>11375862430</v>
+        <v>11386461557</v>
       </c>
       <c r="D499" s="3">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -8910,13 +8910,13 @@
         <v>502</v>
       </c>
       <c r="B500" s="2">
-        <v>23.35</v>
+        <v>22.91</v>
       </c>
       <c r="C500" s="2">
-        <v>4538374243</v>
+        <v>4489967059</v>
       </c>
       <c r="D500" s="3">
-        <v>84</v>
+        <v>4</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8924,13 +8924,13 @@
         <v>503</v>
       </c>
       <c r="B501" s="2">
-        <v>102.31</v>
+        <v>103.47</v>
       </c>
       <c r="C501" s="2">
-        <v>18614457985</v>
+        <v>18445483842</v>
       </c>
       <c r="D501" s="3">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -8938,13 +8938,13 @@
         <v>504</v>
       </c>
       <c r="B502" s="2">
-        <v>112.85</v>
+        <v>109.97</v>
       </c>
       <c r="C502" s="2">
-        <v>33262440401</v>
+        <v>33328718036</v>
       </c>
       <c r="D502" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -8952,13 +8952,13 @@
         <v>505</v>
       </c>
       <c r="B503" s="2">
-        <v>150.1</v>
+        <v>151.1</v>
       </c>
       <c r="C503" s="2">
-        <v>31133443260</v>
+        <v>31165600069</v>
       </c>
       <c r="D503" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -8966,13 +8966,13 @@
         <v>506</v>
       </c>
       <c r="B504" s="2">
-        <v>377.16</v>
+        <v>385.72</v>
       </c>
       <c r="C504" s="2">
-        <v>20368959173</v>
+        <v>20825139290</v>
       </c>
       <c r="D504" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -8980,13 +8980,13 @@
         <v>507</v>
       </c>
       <c r="B505" s="2">
-        <v>44.71</v>
+        <v>43.6</v>
       </c>
       <c r="C505" s="2">
-        <v>7288201466</v>
+        <v>7156892640</v>
       </c>
       <c r="D505" s="3">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -8994,13 +8994,13 @@
         <v>508</v>
       </c>
       <c r="B506" s="2">
-        <v>165.31</v>
+        <v>162.78</v>
       </c>
       <c r="C506" s="2">
-        <v>76919229988</v>
+        <v>77030531203</v>
       </c>
       <c r="D506" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/project_1a (equal_weight_spdr)/recommended trades.xlsx
+++ b/project_1a (equal_weight_spdr)/recommended trades.xlsx
@@ -1938,13 +1938,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>120.64</v>
+        <v>122.81</v>
       </c>
       <c r="C2" s="2">
-        <v>36493640354</v>
+        <v>36581653069</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <v>0.8062039002532286</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1952,13 +1952,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>16.14</v>
+        <v>15.71</v>
       </c>
       <c r="C3" s="2">
-        <v>9532841048</v>
+        <v>9705651796</v>
       </c>
       <c r="D3" s="3">
-        <v>6</v>
+        <v>6.302348885429599</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1966,13 +1966,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>161.18</v>
+        <v>168.03</v>
       </c>
       <c r="C4" s="2">
-        <v>11142773611</v>
+        <v>10916561995</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>0.5892394274242636</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1980,13 +1980,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>133.66</v>
+        <v>132.36</v>
       </c>
       <c r="C5" s="2">
-        <v>2293284737822</v>
+        <v>2328954728151</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>0.7480349122854262</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1994,13 +1994,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>104.93</v>
+        <v>108.19</v>
       </c>
       <c r="C6" s="2">
-        <v>191280917773</v>
+        <v>188682867794</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <v>0.9151483592762641</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2008,13 +2008,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>98.34999999999999</v>
+        <v>100.35</v>
       </c>
       <c r="C7" s="2">
-        <v>19873253846</v>
+        <v>20465129146</v>
       </c>
       <c r="D7" s="3">
-        <v>1</v>
+        <v>0.9866457497767714</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2022,13 +2022,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>311.99</v>
+        <v>303.74</v>
       </c>
       <c r="C8" s="2">
-        <v>13879753583</v>
+        <v>13821420066</v>
       </c>
       <c r="D8" s="3">
-        <v>0</v>
+        <v>0.325969253276154</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2036,13 +2036,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>109.95</v>
+        <v>110.81</v>
       </c>
       <c r="C9" s="2">
-        <v>192891151386</v>
+        <v>200724629676</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>0.8935105224266674</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2050,13 +2050,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>261.7</v>
+        <v>269.6</v>
       </c>
       <c r="C10" s="2">
-        <v>173324942452</v>
+        <v>172236363279</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>0.3672474072333049</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2064,13 +2064,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>511.83</v>
+        <v>504.44</v>
       </c>
       <c r="C11" s="2">
-        <v>243187096162</v>
+        <v>242836684927</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
+        <v>0.1962768634329138</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2078,13 +2078,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>151.69</v>
+        <v>146.54</v>
       </c>
       <c r="C12" s="2">
-        <v>55310071452</v>
+        <v>55537945355</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>0.6756510235437356</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2092,13 +2092,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>50.05</v>
+        <v>51.87</v>
       </c>
       <c r="C13" s="2">
-        <v>28192724245</v>
+        <v>27855546721</v>
       </c>
       <c r="D13" s="3">
-        <v>1</v>
+        <v>1.908808578949277</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2106,13 +2106,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="2">
-        <v>179.69</v>
+        <v>183.28</v>
       </c>
       <c r="C14" s="2">
-        <v>75955339787</v>
+        <v>77669314263</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>0.5402111577373364</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2120,13 +2120,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>301.82</v>
+        <v>302.92</v>
       </c>
       <c r="C15" s="2">
-        <v>68792477101</v>
+        <v>68438115515</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>0.3268516472669319</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2134,13 +2134,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>77.95</v>
+        <v>76.95999999999999</v>
       </c>
       <c r="C16" s="2">
-        <v>19515264556</v>
+        <v>19124861670</v>
       </c>
       <c r="D16" s="3">
-        <v>1</v>
+        <v>1.286511187501287</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2148,13 +2148,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>83.88</v>
+        <v>84.06999999999999</v>
       </c>
       <c r="C17" s="2">
-        <v>40912440528</v>
+        <v>40738363251</v>
       </c>
       <c r="D17" s="3">
-        <v>1</v>
+        <v>1.177707874272618</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2162,13 +2162,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>24.21</v>
+        <v>23.69</v>
       </c>
       <c r="C18" s="2">
-        <v>15614826481</v>
+        <v>16044246089</v>
       </c>
       <c r="D18" s="3">
-        <v>4</v>
+        <v>4.179396411570241</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2176,13 +2176,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="2">
-        <v>43.84</v>
+        <v>44.51</v>
       </c>
       <c r="C19" s="2">
-        <v>32196667111</v>
+        <v>31356856662</v>
       </c>
       <c r="D19" s="3">
-        <v>2</v>
+        <v>2.224441720739138</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2190,13 +2190,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="2">
-        <v>37.89</v>
+        <v>37.95</v>
       </c>
       <c r="C20" s="2">
-        <v>32231187123</v>
+        <v>32308977325</v>
       </c>
       <c r="D20" s="3">
-        <v>2</v>
+        <v>2.608956547828696</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2204,13 +2204,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="2">
-        <v>5.18</v>
+        <v>5.08</v>
       </c>
       <c r="C21" s="2">
-        <v>810345253</v>
+        <v>789093753</v>
       </c>
       <c r="D21" s="3">
-        <v>19</v>
+        <v>19.49013799017697</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2218,13 +2218,13 @@
         <v>24</v>
       </c>
       <c r="B22" s="2">
-        <v>134.11</v>
+        <v>135.21</v>
       </c>
       <c r="C22" s="2">
-        <v>7825906955</v>
+        <v>8051808450</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>0.7322675910812736</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2232,13 +2232,13 @@
         <v>25</v>
       </c>
       <c r="B23" s="2">
-        <v>127.27</v>
+        <v>125.79</v>
       </c>
       <c r="C23" s="2">
-        <v>24536857742</v>
+        <v>24661618779</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>0.7871047061777486</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2246,13 +2246,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="2">
-        <v>112.19</v>
+        <v>110.42</v>
       </c>
       <c r="C24" s="2">
-        <v>17720387737</v>
+        <v>18082506216</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>0.8966663737556513</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2260,13 +2260,13 @@
         <v>27</v>
       </c>
       <c r="B25" s="2">
-        <v>151.72</v>
+        <v>153.82</v>
       </c>
       <c r="C25" s="2">
-        <v>16418164549</v>
+        <v>15933043805</v>
       </c>
       <c r="D25" s="3">
-        <v>0</v>
+        <v>0.64367378097841</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2274,13 +2274,13 @@
         <v>28</v>
       </c>
       <c r="B26" s="2">
-        <v>548.24</v>
+        <v>538.54</v>
       </c>
       <c r="C26" s="2">
-        <v>42743477353</v>
+        <v>43177119612</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>0.1838487410222064</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2288,13 +2288,13 @@
         <v>29</v>
       </c>
       <c r="B27" s="2">
-        <v>54.63</v>
+        <v>54.69</v>
       </c>
       <c r="C27" s="2">
-        <v>6468051256</v>
+        <v>6586087980</v>
       </c>
       <c r="D27" s="3">
-        <v>1</v>
+        <v>1.810384000550357</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2302,13 +2302,13 @@
         <v>30</v>
       </c>
       <c r="B28" s="2">
-        <v>112.48</v>
+        <v>110.71</v>
       </c>
       <c r="C28" s="2">
-        <v>32673086451</v>
+        <v>32863677557</v>
       </c>
       <c r="D28" s="3">
-        <v>0</v>
+        <v>0.8943175954303949</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2316,13 +2316,13 @@
         <v>31</v>
       </c>
       <c r="B29" s="2">
-        <v>116.91</v>
+        <v>115.33</v>
       </c>
       <c r="C29" s="2">
-        <v>10801497401</v>
+        <v>10672598791</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>0.8584921615373191</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2330,13 +2330,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="2">
-        <v>156.17</v>
+        <v>155.48</v>
       </c>
       <c r="C30" s="2">
-        <v>34513963029</v>
+        <v>34023254503</v>
       </c>
       <c r="D30" s="3">
-        <v>0</v>
+        <v>0.6368015242481285</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2344,13 +2344,13 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>89.45</v>
+        <v>88.92</v>
       </c>
       <c r="C31" s="2">
-        <v>81812295075</v>
+        <v>78519721008</v>
       </c>
       <c r="D31" s="3">
-        <v>1</v>
+        <v>1.113471671053745</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2361,10 +2361,10 @@
         <v>11.88</v>
       </c>
       <c r="C32" s="2">
-        <v>18836203885</v>
+        <v>19088228479</v>
       </c>
       <c r="D32" s="3">
-        <v>8</v>
+        <v>8.334166750008334</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2372,13 +2372,13 @@
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>94.34</v>
+        <v>92.64</v>
       </c>
       <c r="C33" s="2">
-        <v>111216219428</v>
+        <v>114097900864</v>
       </c>
       <c r="D33" s="3">
-        <v>1</v>
+        <v>1.068759725713504</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2386,13 +2386,13 @@
         <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>121.67</v>
+        <v>124.49</v>
       </c>
       <c r="C34" s="2">
-        <v>27965913474</v>
+        <v>28280652454</v>
       </c>
       <c r="D34" s="3">
-        <v>0</v>
+        <v>0.7953241303727128</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2400,13 +2400,13 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>224.42</v>
+        <v>230.66</v>
       </c>
       <c r="C35" s="2">
-        <v>136096907873</v>
+        <v>131193681957</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>0.4292460807686596</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2414,13 +2414,13 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>197.7</v>
+        <v>193.5</v>
       </c>
       <c r="C36" s="2">
-        <v>23181893481</v>
+        <v>23008931691</v>
       </c>
       <c r="D36" s="3">
-        <v>0</v>
+        <v>0.5116790748842326</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2428,13 +2428,13 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>224.05</v>
+        <v>223.3</v>
       </c>
       <c r="C37" s="2">
-        <v>97954156195</v>
+        <v>99008625592</v>
       </c>
       <c r="D37" s="3">
-        <v>0</v>
+        <v>0.4433940931038917</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2442,13 +2442,13 @@
         <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>3234.74</v>
+        <v>3196.06</v>
       </c>
       <c r="C38" s="2">
-        <v>1668009758808</v>
+        <v>1650283807001</v>
       </c>
       <c r="D38" s="3">
-        <v>0</v>
+        <v>0.03097873662888025</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2456,13 +2456,13 @@
         <v>41</v>
       </c>
       <c r="B39" s="2">
-        <v>300.51</v>
+        <v>301.09</v>
       </c>
       <c r="C39" s="2">
-        <v>21860813992</v>
+        <v>22496132819</v>
       </c>
       <c r="D39" s="3">
-        <v>0</v>
+        <v>0.328838224418277</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2470,13 +2470,13 @@
         <v>42</v>
       </c>
       <c r="B40" s="2">
-        <v>373.79</v>
+        <v>372.86</v>
       </c>
       <c r="C40" s="2">
-        <v>31810241773</v>
+        <v>31334067844</v>
       </c>
       <c r="D40" s="3">
-        <v>0</v>
+        <v>0.2655417609561203</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2484,13 +2484,13 @@
         <v>43</v>
       </c>
       <c r="B41" s="2">
-        <v>323.97</v>
+        <v>321.33</v>
       </c>
       <c r="C41" s="2">
-        <v>77285928112</v>
+        <v>77476364156</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>0.3081252948373915</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2498,13 +2498,13 @@
         <v>44</v>
       </c>
       <c r="B42" s="2">
-        <v>211.64</v>
+        <v>217.84</v>
       </c>
       <c r="C42" s="2">
-        <v>49105401344</v>
+        <v>49433911930</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>0.4545074411958273</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2512,13 +2512,13 @@
         <v>45</v>
       </c>
       <c r="B43" s="2">
-        <v>57.08</v>
+        <v>55.79</v>
       </c>
       <c r="C43" s="2">
-        <v>9116433669</v>
+        <v>8959062846</v>
       </c>
       <c r="D43" s="3">
-        <v>1</v>
+        <v>1.774689030114698</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2526,13 +2526,13 @@
         <v>46</v>
       </c>
       <c r="B44" s="2">
-        <v>15.1</v>
+        <v>15.03</v>
       </c>
       <c r="C44" s="2">
-        <v>5676047187</v>
+        <v>5525883843</v>
       </c>
       <c r="D44" s="3">
-        <v>6</v>
+        <v>6.587485095814971</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2540,13 +2540,13 @@
         <v>47</v>
       </c>
       <c r="B45" s="2">
-        <v>271.44</v>
+        <v>270.91</v>
       </c>
       <c r="C45" s="2">
-        <v>60039330661</v>
+        <v>61230446646</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>0.365471562474988</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2554,13 +2554,13 @@
         <v>48</v>
       </c>
       <c r="B46" s="2">
-        <v>134.04</v>
+        <v>135.37</v>
       </c>
       <c r="C46" s="2">
-        <v>39224621778</v>
+        <v>39993467043</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>0.7314020904934551</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2568,13 +2568,13 @@
         <v>49</v>
       </c>
       <c r="B47" s="2">
-        <v>134.1</v>
+        <v>133.38</v>
       </c>
       <c r="C47" s="2">
-        <v>36036538729</v>
+        <v>35403228281</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>0.7423144473691634</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2582,13 +2582,13 @@
         <v>50</v>
       </c>
       <c r="B48" s="2">
-        <v>176.5</v>
+        <v>181.6</v>
       </c>
       <c r="C48" s="2">
-        <v>24005886972</v>
+        <v>24331839673</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>0.5452087058926157</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2596,13 +2596,13 @@
         <v>51</v>
       </c>
       <c r="B49" s="2">
-        <v>93.23999999999999</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="C49" s="2">
-        <v>11895648301</v>
+        <v>12043907134</v>
       </c>
       <c r="D49" s="3">
-        <v>1</v>
+        <v>1.035127035965489</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2610,13 +2610,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="2">
-        <v>92.48999999999999</v>
+        <v>91.34</v>
       </c>
       <c r="C50" s="2">
-        <v>71702053313</v>
+        <v>73716497383</v>
       </c>
       <c r="D50" s="3">
-        <v>1</v>
+        <v>1.083970888877808</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2624,13 +2624,13 @@
         <v>53</v>
       </c>
       <c r="B51" s="2">
-        <v>163.37</v>
+        <v>161.08</v>
       </c>
       <c r="C51" s="2">
-        <v>22321891096</v>
+        <v>22285868376</v>
       </c>
       <c r="D51" s="3">
-        <v>0</v>
+        <v>0.6146629065687795</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2638,13 +2638,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="2">
-        <v>450.76</v>
+        <v>452.01</v>
       </c>
       <c r="C52" s="2">
-        <v>182902349563</v>
+        <v>182167028224</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>0.2190436074204089</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2652,13 +2652,13 @@
         <v>55</v>
       </c>
       <c r="B53" s="2">
-        <v>159.5</v>
+        <v>156.6</v>
       </c>
       <c r="C53" s="2">
-        <v>13033651693</v>
+        <v>13207692334</v>
       </c>
       <c r="D53" s="3">
-        <v>0</v>
+        <v>0.6322471327592529</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2666,13 +2666,13 @@
         <v>56</v>
       </c>
       <c r="B54" s="2">
-        <v>152.98</v>
+        <v>153.3</v>
       </c>
       <c r="C54" s="2">
-        <v>27942058735</v>
+        <v>27979621306</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>0.6458571493157144</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2680,13 +2680,13 @@
         <v>57</v>
       </c>
       <c r="B55" s="2">
-        <v>122.89</v>
+        <v>119.35</v>
       </c>
       <c r="C55" s="2">
-        <v>94530169620</v>
+        <v>98295287876</v>
       </c>
       <c r="D55" s="3">
-        <v>0</v>
+        <v>0.8295760451621199</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2694,13 +2694,13 @@
         <v>58</v>
       </c>
       <c r="B56" s="2">
-        <v>1232.87</v>
+        <v>1236.96</v>
       </c>
       <c r="C56" s="2">
-        <v>28224383079</v>
+        <v>27778056926</v>
       </c>
       <c r="D56" s="3">
-        <v>0</v>
+        <v>0.08004292862347935</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2708,13 +2708,13 @@
         <v>59</v>
       </c>
       <c r="B57" s="2">
-        <v>227.01</v>
+        <v>217.8</v>
       </c>
       <c r="C57" s="2">
-        <v>125957638934</v>
+        <v>123122822671</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>0.4545909136368182</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2722,13 +2722,13 @@
         <v>60</v>
       </c>
       <c r="B58" s="2">
-        <v>31.3</v>
+        <v>30.43</v>
       </c>
       <c r="C58" s="2">
-        <v>270518596990</v>
+        <v>266611180332</v>
       </c>
       <c r="D58" s="3">
-        <v>3</v>
+        <v>3.253693755836313</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2736,13 +2736,13 @@
         <v>61</v>
       </c>
       <c r="B59" s="2">
-        <v>80.03</v>
+        <v>82.86</v>
       </c>
       <c r="C59" s="2">
-        <v>41478265666</v>
+        <v>40795082343</v>
       </c>
       <c r="D59" s="3">
-        <v>1</v>
+        <v>1.194905877264048</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2750,13 +2750,13 @@
         <v>62</v>
       </c>
       <c r="B60" s="2">
-        <v>107.47</v>
+        <v>103.71</v>
       </c>
       <c r="C60" s="2">
-        <v>27754512022</v>
+        <v>26819499208</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>0.9546803682393117</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2764,13 +2764,13 @@
         <v>63</v>
       </c>
       <c r="B61" s="2">
-        <v>253.68</v>
+        <v>257.02</v>
       </c>
       <c r="C61" s="2">
-        <v>73758411618</v>
+        <v>72540794229</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>0.3852225546264844</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2778,13 +2778,13 @@
         <v>64</v>
       </c>
       <c r="B62" s="2">
-        <v>25.8</v>
+        <v>24.9</v>
       </c>
       <c r="C62" s="2">
-        <v>12549508830</v>
+        <v>13100165035</v>
       </c>
       <c r="D62" s="3">
-        <v>3</v>
+        <v>3.97630124458229</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2792,13 +2792,13 @@
         <v>65</v>
       </c>
       <c r="B63" s="2">
-        <v>81.70999999999999</v>
+        <v>79.65000000000001</v>
       </c>
       <c r="C63" s="2">
-        <v>37206604192</v>
+        <v>38093476603</v>
       </c>
       <c r="D63" s="3">
-        <v>1</v>
+        <v>1.243062159323277</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2806,13 +2806,13 @@
         <v>66</v>
       </c>
       <c r="B64" s="2">
-        <v>258.32</v>
+        <v>250.38</v>
       </c>
       <c r="C64" s="2">
-        <v>40186996473</v>
+        <v>39296019399</v>
       </c>
       <c r="D64" s="3">
-        <v>0</v>
+        <v>0.395438537383573</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2820,13 +2820,13 @@
         <v>67</v>
       </c>
       <c r="B65" s="2">
-        <v>578.3099999999999</v>
+        <v>575.28</v>
       </c>
       <c r="C65" s="2">
-        <v>17462957313</v>
+        <v>17626199789</v>
       </c>
       <c r="D65" s="3">
-        <v>0</v>
+        <v>0.1721073233731383</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2834,13 +2834,13 @@
         <v>68</v>
       </c>
       <c r="B66" s="2">
-        <v>41.89</v>
+        <v>42.22</v>
       </c>
       <c r="C66" s="2">
-        <v>37732935133</v>
+        <v>37677388809</v>
       </c>
       <c r="D66" s="3">
-        <v>2</v>
+        <v>2.345094765279465</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2848,13 +2848,13 @@
         <v>69</v>
       </c>
       <c r="B67" s="2">
-        <v>2104.54</v>
+        <v>2120.4</v>
       </c>
       <c r="C67" s="2">
-        <v>89370160862</v>
+        <v>87100512546</v>
       </c>
       <c r="D67" s="3">
-        <v>0</v>
+        <v>0.04669397330225383</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2862,13 +2862,13 @@
         <v>70</v>
       </c>
       <c r="B68" s="2">
-        <v>21.52</v>
+        <v>21.32</v>
       </c>
       <c r="C68" s="2">
-        <v>22367380776</v>
+        <v>22834148044</v>
       </c>
       <c r="D68" s="3">
-        <v>4</v>
+        <v>4.643991603663181</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2876,13 +2876,13 @@
         <v>71</v>
       </c>
       <c r="B69" s="2">
-        <v>729.66</v>
+        <v>734.26</v>
       </c>
       <c r="C69" s="2">
-        <v>110199735858</v>
+        <v>108373450422</v>
       </c>
       <c r="D69" s="3">
-        <v>0</v>
+        <v>0.1348431086946028</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2890,13 +2890,13 @@
         <v>72</v>
       </c>
       <c r="B70" s="2">
-        <v>92.48999999999999</v>
+        <v>95.29000000000001</v>
       </c>
       <c r="C70" s="2">
-        <v>31675510207</v>
+        <v>30649884772</v>
       </c>
       <c r="D70" s="3">
-        <v>1</v>
+        <v>1.039037684857792</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2904,13 +2904,13 @@
         <v>73</v>
       </c>
       <c r="B71" s="2">
-        <v>63.19</v>
+        <v>63.36</v>
       </c>
       <c r="C71" s="2">
-        <v>139669650969</v>
+        <v>143907114229</v>
       </c>
       <c r="D71" s="3">
-        <v>1</v>
+        <v>1.562656265626563</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2918,13 +2918,13 @@
         <v>74</v>
       </c>
       <c r="B72" s="2">
-        <v>152.88</v>
+        <v>154.55</v>
       </c>
       <c r="C72" s="2">
-        <v>17834138996</v>
+        <v>17475542559</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>0.6406334583636299</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2932,13 +2932,13 @@
         <v>75</v>
       </c>
       <c r="B73" s="2">
-        <v>233</v>
+        <v>233.31</v>
       </c>
       <c r="C73" s="2">
-        <v>543956329308</v>
+        <v>557926740351</v>
       </c>
       <c r="D73" s="3">
-        <v>0</v>
+        <v>0.4243705841588402</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2946,13 +2946,13 @@
         <v>76</v>
       </c>
       <c r="B74" s="2">
-        <v>34.7</v>
+        <v>35.62</v>
       </c>
       <c r="C74" s="2">
-        <v>51027093153</v>
+        <v>51179924829</v>
       </c>
       <c r="D74" s="3">
-        <v>2</v>
+        <v>2.779615412411539</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2960,13 +2960,13 @@
         <v>77</v>
       </c>
       <c r="B75" s="2">
-        <v>39.16</v>
+        <v>40.44</v>
       </c>
       <c r="C75" s="2">
-        <v>9775902733</v>
+        <v>9824274455</v>
       </c>
       <c r="D75" s="3">
-        <v>2</v>
+        <v>2.448316048222033</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2974,13 +2974,13 @@
         <v>78</v>
       </c>
       <c r="B76" s="2">
-        <v>98.33</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="C76" s="2">
-        <v>15113289998</v>
+        <v>15026729542</v>
       </c>
       <c r="D76" s="3">
-        <v>1</v>
+        <v>1.022301507383573</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2988,13 +2988,13 @@
         <v>79</v>
       </c>
       <c r="B77" s="2">
-        <v>62.09</v>
+        <v>63.42</v>
       </c>
       <c r="C77" s="2">
-        <v>129373681888</v>
+        <v>126704491814</v>
       </c>
       <c r="D77" s="3">
-        <v>1</v>
+        <v>1.561177877485005</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3002,13 +3002,13 @@
         <v>80</v>
       </c>
       <c r="B78" s="2">
-        <v>36.42</v>
+        <v>37.95</v>
       </c>
       <c r="C78" s="2">
-        <v>18055879460</v>
+        <v>18432455375</v>
       </c>
       <c r="D78" s="3">
-        <v>2</v>
+        <v>2.608956547828696</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3016,13 +3016,13 @@
         <v>81</v>
       </c>
       <c r="B79" s="2">
-        <v>55.7</v>
+        <v>55.1</v>
       </c>
       <c r="C79" s="2">
-        <v>16256676027</v>
+        <v>16367689746</v>
       </c>
       <c r="D79" s="3">
-        <v>1</v>
+        <v>1.796912903631561</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3030,13 +3030,13 @@
         <v>82</v>
       </c>
       <c r="B80" s="2">
-        <v>39.69</v>
+        <v>38.32</v>
       </c>
       <c r="C80" s="2">
-        <v>34081755140</v>
+        <v>33716396401</v>
       </c>
       <c r="D80" s="3">
-        <v>2</v>
+        <v>2.583765683457699</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3044,13 +3044,13 @@
         <v>83</v>
       </c>
       <c r="B81" s="2">
-        <v>179.99</v>
+        <v>185.77</v>
       </c>
       <c r="C81" s="2">
-        <v>98722172219</v>
+        <v>99108142084</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>0.532970344997034</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3058,13 +3058,13 @@
         <v>84</v>
       </c>
       <c r="B82" s="2">
-        <v>155.16</v>
+        <v>156.83</v>
       </c>
       <c r="C82" s="2">
-        <v>69349405011</v>
+        <v>70412471134</v>
       </c>
       <c r="D82" s="3">
-        <v>0</v>
+        <v>0.6313199068424346</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3072,13 +3072,13 @@
         <v>85</v>
       </c>
       <c r="B83" s="2">
-        <v>96.51000000000001</v>
+        <v>93.34</v>
       </c>
       <c r="C83" s="2">
-        <v>10159883018</v>
+        <v>10323956864</v>
       </c>
       <c r="D83" s="3">
-        <v>1</v>
+        <v>1.060744600279612</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3086,13 +3086,13 @@
         <v>86</v>
       </c>
       <c r="B84" s="2">
-        <v>64.09</v>
+        <v>63.11</v>
       </c>
       <c r="C84" s="2">
-        <v>21845666561</v>
+        <v>21297226837</v>
       </c>
       <c r="D84" s="3">
-        <v>1</v>
+        <v>1.568846474252876</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3100,13 +3100,13 @@
         <v>87</v>
       </c>
       <c r="B85" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C85" s="2">
-        <v>67455084919</v>
+        <v>69385610618</v>
       </c>
       <c r="D85" s="3">
-        <v>0</v>
+        <v>0.6266449429753103</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3114,13 +3114,13 @@
         <v>88</v>
       </c>
       <c r="B86" s="2">
-        <v>21.21</v>
+        <v>21.24</v>
       </c>
       <c r="C86" s="2">
-        <v>23867367939</v>
+        <v>23853515386</v>
       </c>
       <c r="D86" s="3">
-        <v>4</v>
+        <v>4.661483097462289</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3128,13 +3128,13 @@
         <v>89</v>
       </c>
       <c r="B87" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C87" s="2">
-        <v>38630146452</v>
+        <v>37715986705</v>
       </c>
       <c r="D87" s="3">
-        <v>0</v>
+        <v>0.7123014459719353</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3142,13 +3142,13 @@
         <v>90</v>
       </c>
       <c r="B88" s="2">
-        <v>129.59</v>
+        <v>133.6</v>
       </c>
       <c r="C88" s="2">
-        <v>18867310140</v>
+        <v>19200843835</v>
       </c>
       <c r="D88" s="3">
-        <v>0</v>
+        <v>0.7410920732791842</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3156,13 +3156,13 @@
         <v>91</v>
       </c>
       <c r="B89" s="2">
-        <v>136.17</v>
+        <v>133.75</v>
       </c>
       <c r="C89" s="2">
-        <v>15469450330</v>
+        <v>15474032055</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>0.7402609419820487</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3170,13 +3170,13 @@
         <v>92</v>
       </c>
       <c r="B90" s="2">
-        <v>81.03</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="C90" s="2">
-        <v>24743071460</v>
+        <v>24929317993</v>
       </c>
       <c r="D90" s="3">
-        <v>1</v>
+        <v>1.228410682259293</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3184,13 +3184,13 @@
         <v>93</v>
       </c>
       <c r="B91" s="2">
-        <v>38.36</v>
+        <v>38.02</v>
       </c>
       <c r="C91" s="2">
-        <v>8173191684</v>
+        <v>8097825376</v>
       </c>
       <c r="D91" s="3">
-        <v>2</v>
+        <v>2.604153103369253</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3198,13 +3198,13 @@
         <v>94</v>
       </c>
       <c r="B92" s="2">
-        <v>35.19</v>
+        <v>35.5</v>
       </c>
       <c r="C92" s="2">
-        <v>15622081253</v>
+        <v>15099306996</v>
       </c>
       <c r="D92" s="3">
-        <v>2</v>
+        <v>2.789011295495747</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3212,13 +3212,13 @@
         <v>95</v>
       </c>
       <c r="B93" s="2">
-        <v>89.56</v>
+        <v>89.58</v>
       </c>
       <c r="C93" s="2">
-        <v>21720604271</v>
+        <v>22246239737</v>
       </c>
       <c r="D93" s="3">
-        <v>1</v>
+        <v>1.105267927998426</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3226,13 +3226,13 @@
         <v>96</v>
       </c>
       <c r="B94" s="2">
-        <v>97.89</v>
+        <v>98.08</v>
       </c>
       <c r="C94" s="2">
-        <v>13178469032</v>
+        <v>13312654710</v>
       </c>
       <c r="D94" s="3">
-        <v>1</v>
+        <v>1.009481045983881</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3240,13 +3240,13 @@
         <v>97</v>
       </c>
       <c r="B95" s="2">
-        <v>677.62</v>
+        <v>684.28</v>
       </c>
       <c r="C95" s="2">
-        <v>135003042902</v>
+        <v>135088945676</v>
       </c>
       <c r="D95" s="3">
-        <v>0</v>
+        <v>0.1446920865582788</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3254,13 +3254,13 @@
         <v>98</v>
       </c>
       <c r="B96" s="2">
-        <v>198.95</v>
+        <v>206.92</v>
       </c>
       <c r="C96" s="2">
-        <v>74706111826</v>
+        <v>75075110502</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>0.478493625507921</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3268,13 +3268,13 @@
         <v>99</v>
       </c>
       <c r="B97" s="2">
-        <v>86.94</v>
+        <v>87.53</v>
       </c>
       <c r="C97" s="2">
-        <v>13822855774</v>
+        <v>14145192900</v>
       </c>
       <c r="D97" s="3">
-        <v>1</v>
+        <v>1.131153901406364</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3282,13 +3282,13 @@
         <v>100</v>
       </c>
       <c r="B98" s="2">
-        <v>85.42</v>
+        <v>89.15000000000001</v>
       </c>
       <c r="C98" s="2">
-        <v>73868380185</v>
+        <v>73422111940</v>
       </c>
       <c r="D98" s="3">
-        <v>1</v>
+        <v>1.110599001571497</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3296,13 +3296,13 @@
         <v>101</v>
       </c>
       <c r="B99" s="2">
-        <v>212.1</v>
+        <v>209.8</v>
       </c>
       <c r="C99" s="2">
-        <v>26076815583</v>
+        <v>26395229688</v>
       </c>
       <c r="D99" s="3">
-        <v>0</v>
+        <v>0.4719251715447998</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3310,13 +3310,13 @@
         <v>102</v>
       </c>
       <c r="B100" s="2">
-        <v>56.6</v>
+        <v>56.1</v>
       </c>
       <c r="C100" s="2">
-        <v>8038466401</v>
+        <v>7790917546</v>
       </c>
       <c r="D100" s="3">
-        <v>1</v>
+        <v>1.76488237059</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3324,13 +3324,13 @@
         <v>103</v>
       </c>
       <c r="B101" s="2">
-        <v>50.9</v>
+        <v>50.94</v>
       </c>
       <c r="C101" s="2">
-        <v>231200426690</v>
+        <v>232689697267</v>
       </c>
       <c r="D101" s="3">
-        <v>1</v>
+        <v>1.943657263252827</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3338,13 +3338,13 @@
         <v>104</v>
       </c>
       <c r="B102" s="2">
-        <v>180.48</v>
+        <v>179.66</v>
       </c>
       <c r="C102" s="2">
-        <v>65440757717</v>
+        <v>65903406008</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>0.55109596454469</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3352,13 +3352,13 @@
         <v>105</v>
       </c>
       <c r="B103" s="2">
-        <v>1478.65</v>
+        <v>1419.38</v>
       </c>
       <c r="C103" s="2">
-        <v>41268350828</v>
+        <v>40015283808</v>
       </c>
       <c r="D103" s="3">
-        <v>0</v>
+        <v>0.0697557391185581</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3366,13 +3366,13 @@
         <v>106</v>
       </c>
       <c r="B104" s="2">
-        <v>237.02</v>
+        <v>237.3</v>
       </c>
       <c r="C104" s="2">
-        <v>33745951994</v>
+        <v>33970246878</v>
       </c>
       <c r="D104" s="3">
-        <v>0</v>
+        <v>0.4172351495579393</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3380,13 +3380,13 @@
         <v>107</v>
       </c>
       <c r="B105" s="2">
-        <v>58.86</v>
+        <v>59.78</v>
       </c>
       <c r="C105" s="2">
-        <v>17087371207</v>
+        <v>17219757656</v>
       </c>
       <c r="D105" s="3">
-        <v>1</v>
+        <v>1.656237888760439</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3394,13 +3394,13 @@
         <v>108</v>
       </c>
       <c r="B106" s="2">
-        <v>58.71</v>
+        <v>60.06</v>
       </c>
       <c r="C106" s="2">
-        <v>34942049376</v>
+        <v>33776106362</v>
       </c>
       <c r="D106" s="3">
-        <v>1</v>
+        <v>1.648516500001648</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3408,13 +3408,13 @@
         <v>109</v>
       </c>
       <c r="B107" s="2">
-        <v>21.72</v>
+        <v>22.61</v>
       </c>
       <c r="C107" s="2">
-        <v>11977609558</v>
+        <v>11840230723</v>
       </c>
       <c r="D107" s="3">
-        <v>4</v>
+        <v>4.379031445824813</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3422,13 +3422,13 @@
         <v>110</v>
       </c>
       <c r="B108" s="2">
-        <v>99</v>
+        <v>99.3</v>
       </c>
       <c r="C108" s="2">
-        <v>46681462273</v>
+        <v>45377338455</v>
       </c>
       <c r="D108" s="3">
-        <v>1</v>
+        <v>0.9970785598197283</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3436,13 +3436,13 @@
         <v>111</v>
       </c>
       <c r="B109" s="2">
-        <v>17.14</v>
+        <v>17.41</v>
       </c>
       <c r="C109" s="2">
-        <v>6786970497</v>
+        <v>6926410792</v>
       </c>
       <c r="D109" s="3">
-        <v>5</v>
+        <v>5.686955829414073</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3450,13 +3450,13 @@
         <v>112</v>
       </c>
       <c r="B110" s="2">
-        <v>363.43</v>
+        <v>370.82</v>
       </c>
       <c r="C110" s="2">
-        <v>19175512441</v>
+        <v>19604043490</v>
       </c>
       <c r="D110" s="3">
-        <v>0</v>
+        <v>0.2670025915271534</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3464,13 +3464,13 @@
         <v>113</v>
       </c>
       <c r="B111" s="2">
-        <v>40.74</v>
+        <v>40.73</v>
       </c>
       <c r="C111" s="2">
-        <v>43765241833</v>
+        <v>42838085814</v>
       </c>
       <c r="D111" s="3">
-        <v>2</v>
+        <v>2.430883893692586</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3478,13 +3478,13 @@
         <v>114</v>
       </c>
       <c r="B112" s="2">
-        <v>366.7</v>
+        <v>367.97</v>
       </c>
       <c r="C112" s="2">
-        <v>167231881845</v>
+        <v>168364751571</v>
       </c>
       <c r="D112" s="3">
-        <v>0</v>
+        <v>0.269070579096391</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3492,13 +3492,13 @@
         <v>115</v>
       </c>
       <c r="B113" s="2">
-        <v>7.27</v>
+        <v>7.47</v>
       </c>
       <c r="C113" s="2">
-        <v>5502907274</v>
+        <v>5516900640</v>
       </c>
       <c r="D113" s="3">
-        <v>13</v>
+        <v>13.25433748194097</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3506,13 +3506,13 @@
         <v>116</v>
       </c>
       <c r="B114" s="2">
-        <v>48.81</v>
+        <v>49.35</v>
       </c>
       <c r="C114" s="2">
-        <v>15034231331</v>
+        <v>15111132122</v>
       </c>
       <c r="D114" s="3">
-        <v>2</v>
+        <v>2.006279655321155</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3520,13 +3520,13 @@
         <v>117</v>
       </c>
       <c r="B115" s="2">
-        <v>125.9</v>
+        <v>129.42</v>
       </c>
       <c r="C115" s="2">
-        <v>30369326200</v>
+        <v>29614183648</v>
       </c>
       <c r="D115" s="3">
-        <v>0</v>
+        <v>0.7650278240619612</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3534,13 +3534,13 @@
         <v>118</v>
       </c>
       <c r="B116" s="2">
-        <v>232.19</v>
+        <v>231.41</v>
       </c>
       <c r="C116" s="2">
-        <v>210883700737</v>
+        <v>208507574382</v>
       </c>
       <c r="D116" s="3">
-        <v>0</v>
+        <v>0.4278548938684543</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3548,13 +3548,13 @@
         <v>119</v>
       </c>
       <c r="B117" s="2">
-        <v>45.68</v>
+        <v>45.38</v>
       </c>
       <c r="C117" s="2">
-        <v>188227280025</v>
+        <v>197456893822</v>
       </c>
       <c r="D117" s="3">
-        <v>2</v>
+        <v>2.181795967168334</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3562,13 +3562,13 @@
         <v>120</v>
       </c>
       <c r="B118" s="2">
-        <v>91.78</v>
+        <v>92.94</v>
       </c>
       <c r="C118" s="2">
-        <v>71497749399</v>
+        <v>71747663423</v>
       </c>
       <c r="D118" s="3">
-        <v>1</v>
+        <v>1.065309887993318</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3576,13 +3576,13 @@
         <v>121</v>
       </c>
       <c r="B119" s="2">
-        <v>340.4</v>
+        <v>355.3</v>
       </c>
       <c r="C119" s="2">
-        <v>36264519368</v>
+        <v>36222744433</v>
       </c>
       <c r="D119" s="3">
-        <v>0</v>
+        <v>0.278665637461579</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3590,13 +3590,13 @@
         <v>122</v>
       </c>
       <c r="B120" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C120" s="2">
-        <v>12520770992</v>
+        <v>12088551795</v>
       </c>
       <c r="D120" s="3">
-        <v>9</v>
+        <v>8.250825082508252</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3604,13 +3604,13 @@
         <v>123</v>
       </c>
       <c r="B121" s="2">
-        <v>82.53</v>
+        <v>84.54000000000001</v>
       </c>
       <c r="C121" s="2">
-        <v>43652106441</v>
+        <v>43680209235</v>
       </c>
       <c r="D121" s="3">
-        <v>1</v>
+        <v>1.171160409156601</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3621,10 +3621,10 @@
         <v>40</v>
       </c>
       <c r="C122" s="2">
-        <v>29617263340</v>
+        <v>30809179882</v>
       </c>
       <c r="D122" s="3">
-        <v>2</v>
+        <v>2.475247524752475</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3632,13 +3632,13 @@
         <v>125</v>
       </c>
       <c r="B123" s="2">
-        <v>134.47</v>
+        <v>135.59</v>
       </c>
       <c r="C123" s="2">
-        <v>16666528626</v>
+        <v>16577243790</v>
       </c>
       <c r="D123" s="3">
-        <v>0</v>
+        <v>0.7302153624168376</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3646,13 +3646,13 @@
         <v>126</v>
       </c>
       <c r="B124" s="2">
-        <v>68.43000000000001</v>
+        <v>71.20999999999999</v>
       </c>
       <c r="C124" s="2">
-        <v>92901207974</v>
+        <v>91447616480</v>
       </c>
       <c r="D124" s="3">
-        <v>1</v>
+        <v>1.39039321710573</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3660,13 +3660,13 @@
         <v>127</v>
       </c>
       <c r="B125" s="2">
-        <v>87.70999999999999</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="C125" s="2">
-        <v>167258646431</v>
+        <v>163208293059</v>
       </c>
       <c r="D125" s="3">
-        <v>1</v>
+        <v>1.113722170867255</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3674,13 +3674,13 @@
         <v>128</v>
       </c>
       <c r="B126" s="2">
-        <v>58.16</v>
+        <v>59.44</v>
       </c>
       <c r="C126" s="2">
-        <v>11435765580</v>
+        <v>11733085654</v>
       </c>
       <c r="D126" s="3">
-        <v>1</v>
+        <v>1.665711658649041</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3688,13 +3688,13 @@
         <v>129</v>
       </c>
       <c r="B127" s="2">
-        <v>75.39</v>
+        <v>77.79000000000001</v>
       </c>
       <c r="C127" s="2">
-        <v>61555193697</v>
+        <v>61617013782</v>
       </c>
       <c r="D127" s="3">
-        <v>1</v>
+        <v>1.272784432319051</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3702,13 +3702,13 @@
         <v>130</v>
       </c>
       <c r="B128" s="2">
-        <v>41.33</v>
+        <v>41.64</v>
       </c>
       <c r="C128" s="2">
-        <v>25876649877</v>
+        <v>26402660431</v>
       </c>
       <c r="D128" s="3">
-        <v>2</v>
+        <v>2.37775938977183</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3716,13 +3716,13 @@
         <v>131</v>
       </c>
       <c r="B129" s="2">
-        <v>69.63</v>
+        <v>70.39</v>
       </c>
       <c r="C129" s="2">
-        <v>51068850548</v>
+        <v>52589455377</v>
       </c>
       <c r="D129" s="3">
-        <v>1</v>
+        <v>1.406590438842151</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3730,13 +3730,13 @@
         <v>132</v>
       </c>
       <c r="B130" s="2">
-        <v>275.99</v>
+        <v>280.33</v>
       </c>
       <c r="C130" s="2">
-        <v>86513976335</v>
+        <v>88353222554</v>
       </c>
       <c r="D130" s="3">
-        <v>0</v>
+        <v>0.353190528984051</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3744,13 +3744,13 @@
         <v>133</v>
       </c>
       <c r="B131" s="2">
-        <v>90.08</v>
+        <v>88.48999999999999</v>
       </c>
       <c r="C131" s="2">
-        <v>28400102589</v>
+        <v>27531920314</v>
       </c>
       <c r="D131" s="3">
-        <v>1</v>
+        <v>1.118882370777478</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3761,10 +3761,10 @@
         <v>216.51</v>
       </c>
       <c r="C132" s="2">
-        <v>54187170912</v>
+        <v>52629605600</v>
       </c>
       <c r="D132" s="3">
-        <v>0</v>
+        <v>0.4572994364699045</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3772,13 +3772,13 @@
         <v>135</v>
       </c>
       <c r="B133" s="2">
-        <v>125.42</v>
+        <v>124.76</v>
       </c>
       <c r="C133" s="2">
-        <v>16733425491</v>
+        <v>16537011214</v>
       </c>
       <c r="D133" s="3">
-        <v>0</v>
+        <v>0.7936029255378247</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3786,13 +3786,13 @@
         <v>136</v>
       </c>
       <c r="B134" s="2">
-        <v>73.13</v>
+        <v>74.25</v>
       </c>
       <c r="C134" s="2">
-        <v>27005748799</v>
+        <v>26383547947</v>
       </c>
       <c r="D134" s="3">
-        <v>1</v>
+        <v>1.333466680001334</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3800,13 +3800,13 @@
         <v>137</v>
       </c>
       <c r="B135" s="2">
-        <v>229.8</v>
+        <v>229.82</v>
       </c>
       <c r="C135" s="2">
-        <v>164571048863</v>
+        <v>158466510490</v>
       </c>
       <c r="D135" s="3">
-        <v>0</v>
+        <v>0.4308149899490863</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3814,13 +3814,13 @@
         <v>138</v>
       </c>
       <c r="B136" s="2">
-        <v>179.14</v>
+        <v>179.17</v>
       </c>
       <c r="C136" s="2">
-        <v>327658972797</v>
+        <v>320301623176</v>
       </c>
       <c r="D136" s="3">
-        <v>0</v>
+        <v>0.5526031198866943</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3828,13 +3828,13 @@
         <v>139</v>
       </c>
       <c r="B137" s="2">
-        <v>29.37</v>
+        <v>29.87</v>
       </c>
       <c r="C137" s="2">
-        <v>13342758544</v>
+        <v>13253399697</v>
       </c>
       <c r="D137" s="3">
-        <v>3</v>
+        <v>3.314693705728122</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3842,13 +3842,13 @@
         <v>140</v>
       </c>
       <c r="B138" s="2">
-        <v>26.37</v>
+        <v>26.16</v>
       </c>
       <c r="C138" s="2">
-        <v>13344210953</v>
+        <v>12981280965</v>
       </c>
       <c r="D138" s="3">
-        <v>3</v>
+        <v>3.784782147939564</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3856,13 +3856,13 @@
         <v>141</v>
       </c>
       <c r="B139" s="2">
-        <v>31.13</v>
+        <v>32.15</v>
       </c>
       <c r="C139" s="2">
-        <v>16978655149</v>
+        <v>16340030468</v>
       </c>
       <c r="D139" s="3">
-        <v>3</v>
+        <v>3.079623669987528</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3870,13 +3870,13 @@
         <v>142</v>
       </c>
       <c r="B140" s="2">
-        <v>141.02</v>
+        <v>138.53</v>
       </c>
       <c r="C140" s="2">
-        <v>38929248593</v>
+        <v>38882985528</v>
       </c>
       <c r="D140" s="3">
-        <v>0</v>
+        <v>0.7147181187475565</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3884,13 +3884,13 @@
         <v>143</v>
       </c>
       <c r="B141" s="2">
-        <v>110.67</v>
+        <v>110.73</v>
       </c>
       <c r="C141" s="2">
-        <v>26224401978</v>
+        <v>26232642399</v>
       </c>
       <c r="D141" s="3">
-        <v>0</v>
+        <v>0.8941560642111352</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3898,13 +3898,13 @@
         <v>144</v>
       </c>
       <c r="B142" s="2">
-        <v>124.23</v>
+        <v>127.51</v>
       </c>
       <c r="C142" s="2">
-        <v>18129109374</v>
+        <v>18234369422</v>
       </c>
       <c r="D142" s="3">
-        <v>0</v>
+        <v>0.7764873420915929</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3912,13 +3912,13 @@
         <v>145</v>
       </c>
       <c r="B143" s="2">
-        <v>54.92</v>
+        <v>55.39</v>
       </c>
       <c r="C143" s="2">
-        <v>40809873013</v>
+        <v>42631759695</v>
       </c>
       <c r="D143" s="3">
-        <v>1</v>
+        <v>1.787504982670139</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3926,13 +3926,13 @@
         <v>146</v>
       </c>
       <c r="B144" s="2">
-        <v>412.55</v>
+        <v>405.57</v>
       </c>
       <c r="C144" s="2">
-        <v>15877788344</v>
+        <v>16243562032</v>
       </c>
       <c r="D144" s="3">
-        <v>0</v>
+        <v>0.2441253075673719</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3940,13 +3940,13 @@
         <v>147</v>
       </c>
       <c r="B145" s="2">
-        <v>40</v>
+        <v>40.3</v>
       </c>
       <c r="C145" s="2">
-        <v>15037120607</v>
+        <v>14798348008</v>
       </c>
       <c r="D145" s="3">
-        <v>2</v>
+        <v>2.456821364518586</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3954,13 +3954,13 @@
         <v>148</v>
       </c>
       <c r="B146" s="2">
-        <v>119.76</v>
+        <v>119.4</v>
       </c>
       <c r="C146" s="2">
-        <v>16030427627</v>
+        <v>15399619883</v>
       </c>
       <c r="D146" s="3">
-        <v>0</v>
+        <v>0.8292286515083669</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3968,13 +3968,13 @@
         <v>149</v>
       </c>
       <c r="B147" s="2">
-        <v>120.04</v>
+        <v>123.16</v>
       </c>
       <c r="C147" s="2">
-        <v>23583846674</v>
+        <v>23637602112</v>
       </c>
       <c r="D147" s="3">
-        <v>0</v>
+        <v>0.8039128044015834</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3982,13 +3982,13 @@
         <v>150</v>
       </c>
       <c r="B148" s="2">
-        <v>91.09999999999999</v>
+        <v>91.52</v>
       </c>
       <c r="C148" s="2">
-        <v>67142730986</v>
+        <v>67037213982</v>
       </c>
       <c r="D148" s="3">
-        <v>1</v>
+        <v>1.081838953126082</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3996,13 +3996,13 @@
         <v>151</v>
       </c>
       <c r="B149" s="2">
-        <v>118.1</v>
+        <v>120.25</v>
       </c>
       <c r="C149" s="2">
-        <v>13523799278</v>
+        <v>13390795963</v>
       </c>
       <c r="D149" s="3">
-        <v>0</v>
+        <v>0.8233671600008234</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4010,13 +4010,13 @@
         <v>152</v>
       </c>
       <c r="B150" s="2">
-        <v>15.4</v>
+        <v>15.61</v>
       </c>
       <c r="C150" s="2">
-        <v>6125277114</v>
+        <v>6129763370</v>
       </c>
       <c r="D150" s="3">
-        <v>6</v>
+        <v>6.342722677136388</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4024,13 +4024,13 @@
         <v>153</v>
       </c>
       <c r="B151" s="2">
-        <v>23.8</v>
+        <v>23.2</v>
       </c>
       <c r="C151" s="2">
-        <v>6089585511</v>
+        <v>5990259931</v>
       </c>
       <c r="D151" s="3">
-        <v>4</v>
+        <v>4.267668146124958</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4038,13 +4038,13 @@
         <v>154</v>
       </c>
       <c r="B152" s="2">
-        <v>355.42</v>
+        <v>370.43</v>
       </c>
       <c r="C152" s="2">
-        <v>34562148640</v>
+        <v>35503394205</v>
       </c>
       <c r="D152" s="3">
-        <v>0</v>
+        <v>0.2672836999975677</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4052,13 +4052,13 @@
         <v>155</v>
       </c>
       <c r="B153" s="2">
-        <v>142.01</v>
+        <v>145.64</v>
       </c>
       <c r="C153" s="2">
-        <v>42563217408</v>
+        <v>41470877820</v>
       </c>
       <c r="D153" s="3">
-        <v>0</v>
+        <v>0.6798262907861784</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4066,13 +4066,13 @@
         <v>156</v>
       </c>
       <c r="B154" s="2">
-        <v>50.17</v>
+        <v>50.76</v>
       </c>
       <c r="C154" s="2">
-        <v>34695137121</v>
+        <v>35105030923</v>
       </c>
       <c r="D154" s="3">
-        <v>1</v>
+        <v>1.950549664895568</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4080,13 +4080,13 @@
         <v>157</v>
       </c>
       <c r="B155" s="2">
-        <v>222.46</v>
+        <v>218</v>
       </c>
       <c r="C155" s="2">
-        <v>63388397661</v>
+        <v>62337902902</v>
       </c>
       <c r="D155" s="3">
-        <v>0</v>
+        <v>0.4541738577527478</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4094,13 +4094,13 @@
         <v>158</v>
       </c>
       <c r="B156" s="2">
-        <v>72.68000000000001</v>
+        <v>72.12</v>
       </c>
       <c r="C156" s="2">
-        <v>24727851670</v>
+        <v>24174825641</v>
       </c>
       <c r="D156" s="3">
-        <v>1</v>
+        <v>1.372849431365766</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4108,13 +4108,13 @@
         <v>159</v>
       </c>
       <c r="B157" s="2">
-        <v>200.11</v>
+        <v>196.54</v>
       </c>
       <c r="C157" s="2">
-        <v>23779322110</v>
+        <v>24223634129</v>
       </c>
       <c r="D157" s="3">
-        <v>0</v>
+        <v>0.5037646331031801</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4122,13 +4122,13 @@
         <v>160</v>
       </c>
       <c r="B158" s="2">
-        <v>62.31</v>
+        <v>63.83</v>
       </c>
       <c r="C158" s="2">
-        <v>23722457139</v>
+        <v>23779892038</v>
       </c>
       <c r="D158" s="3">
-        <v>1</v>
+        <v>1.551149945011735</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4136,13 +4136,13 @@
         <v>161</v>
       </c>
       <c r="B159" s="2">
-        <v>272.4</v>
+        <v>264.12</v>
       </c>
       <c r="C159" s="2">
-        <v>95636648382</v>
+        <v>96316184348</v>
       </c>
       <c r="D159" s="3">
-        <v>0</v>
+        <v>0.3748671096096434</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4150,13 +4150,13 @@
         <v>162</v>
       </c>
       <c r="B160" s="2">
-        <v>101.87</v>
+        <v>105.13</v>
       </c>
       <c r="C160" s="2">
-        <v>14291940482</v>
+        <v>14117296719</v>
       </c>
       <c r="D160" s="3">
-        <v>0</v>
+        <v>0.9417854179596596</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4164,13 +4164,13 @@
         <v>163</v>
       </c>
       <c r="B161" s="2">
-        <v>82.26000000000001</v>
+        <v>82.28</v>
       </c>
       <c r="C161" s="2">
-        <v>49480028212</v>
+        <v>49247709737</v>
       </c>
       <c r="D161" s="3">
-        <v>1</v>
+        <v>1.203328889038636</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4178,13 +4178,13 @@
         <v>164</v>
       </c>
       <c r="B162" s="2">
-        <v>51.9</v>
+        <v>50.6</v>
       </c>
       <c r="C162" s="2">
-        <v>29101692458</v>
+        <v>29506406966</v>
       </c>
       <c r="D162" s="3">
-        <v>1</v>
+        <v>1.956717410871522</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4192,13 +4192,13 @@
         <v>165</v>
       </c>
       <c r="B163" s="2">
-        <v>714.38</v>
+        <v>731.3</v>
       </c>
       <c r="C163" s="2">
-        <v>65317169337</v>
+        <v>64106777388</v>
       </c>
       <c r="D163" s="3">
-        <v>0</v>
+        <v>0.1353888978395994</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4206,13 +4206,13 @@
         <v>166</v>
       </c>
       <c r="B164" s="2">
-        <v>60.5</v>
+        <v>59</v>
       </c>
       <c r="C164" s="2">
-        <v>21841306702</v>
+        <v>22616771874</v>
       </c>
       <c r="D164" s="3">
-        <v>1</v>
+        <v>1.678133915086424</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4220,13 +4220,13 @@
         <v>167</v>
       </c>
       <c r="B165" s="2">
-        <v>86.67</v>
+        <v>85.34</v>
       </c>
       <c r="C165" s="2">
-        <v>29165324243</v>
+        <v>29547589328</v>
       </c>
       <c r="D165" s="3">
-        <v>1</v>
+        <v>1.160181638037251</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4234,13 +4234,13 @@
         <v>168</v>
       </c>
       <c r="B166" s="2">
-        <v>242.85</v>
+        <v>242.7</v>
       </c>
       <c r="C166" s="2">
-        <v>15687968501</v>
+        <v>15604425137</v>
       </c>
       <c r="D166" s="3">
-        <v>0</v>
+        <v>0.4079517964157355</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4248,13 +4248,13 @@
         <v>169</v>
       </c>
       <c r="B167" s="2">
-        <v>50.4</v>
+        <v>50.04</v>
       </c>
       <c r="C167" s="2">
-        <v>11222087746</v>
+        <v>11410933689</v>
       </c>
       <c r="D167" s="3">
-        <v>1</v>
+        <v>1.978615127699821</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4262,13 +4262,13 @@
         <v>170</v>
       </c>
       <c r="B168" s="2">
-        <v>119.65</v>
+        <v>123.97</v>
       </c>
       <c r="C168" s="2">
-        <v>48365712257</v>
+        <v>47654468595</v>
       </c>
       <c r="D168" s="3">
-        <v>0</v>
+        <v>0.798660167702662</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4276,13 +4276,13 @@
         <v>171</v>
       </c>
       <c r="B169" s="2">
-        <v>96.89</v>
+        <v>98.29000000000001</v>
       </c>
       <c r="C169" s="2">
-        <v>19728973376</v>
+        <v>19761303854</v>
       </c>
       <c r="D169" s="3">
-        <v>1</v>
+        <v>1.007324254655601</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4290,13 +4290,13 @@
         <v>172</v>
       </c>
       <c r="B170" s="2">
-        <v>54.22</v>
+        <v>55.74</v>
       </c>
       <c r="C170" s="2">
-        <v>12559545808</v>
+        <v>12377915406</v>
       </c>
       <c r="D170" s="3">
-        <v>1</v>
+        <v>1.776280965017923</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4304,13 +4304,13 @@
         <v>173</v>
       </c>
       <c r="B171" s="2">
-        <v>91.61</v>
+        <v>88.77</v>
       </c>
       <c r="C171" s="2">
-        <v>55384481561</v>
+        <v>55381035178</v>
       </c>
       <c r="D171" s="3">
-        <v>1</v>
+        <v>1.115353171004833</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4318,13 +4318,13 @@
         <v>174</v>
       </c>
       <c r="B172" s="2">
-        <v>43.73</v>
+        <v>42.18</v>
       </c>
       <c r="C172" s="2">
-        <v>40993735933</v>
+        <v>41721731930</v>
       </c>
       <c r="D172" s="3">
-        <v>2</v>
+        <v>2.347318657897084</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4332,13 +4332,13 @@
         <v>175</v>
       </c>
       <c r="B173" s="2">
-        <v>95.54000000000001</v>
+        <v>98.15000000000001</v>
       </c>
       <c r="C173" s="2">
-        <v>16201755094</v>
+        <v>16769882310</v>
       </c>
       <c r="D173" s="3">
-        <v>1</v>
+        <v>1.008761090067234</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4346,13 +4346,13 @@
         <v>176</v>
       </c>
       <c r="B174" s="2">
-        <v>130.31</v>
+        <v>129.47</v>
       </c>
       <c r="C174" s="2">
-        <v>17595429565</v>
+        <v>17394938457</v>
       </c>
       <c r="D174" s="3">
-        <v>0</v>
+        <v>0.7647323780806288</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4360,13 +4360,13 @@
         <v>177</v>
       </c>
       <c r="B175" s="2">
-        <v>115.39</v>
+        <v>117.83</v>
       </c>
       <c r="C175" s="2">
-        <v>15150854522</v>
+        <v>15185132172</v>
       </c>
       <c r="D175" s="3">
-        <v>0</v>
+        <v>0.8402775268615719</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4374,13 +4374,13 @@
         <v>178</v>
       </c>
       <c r="B176" s="2">
-        <v>9.199999999999999</v>
+        <v>8.98</v>
       </c>
       <c r="C176" s="2">
-        <v>35969070093</v>
+        <v>35030894165</v>
       </c>
       <c r="D176" s="3">
-        <v>10</v>
+        <v>11.02560144655891</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4388,13 +4388,13 @@
         <v>179</v>
       </c>
       <c r="B177" s="2">
-        <v>48.69</v>
+        <v>49.54</v>
       </c>
       <c r="C177" s="2">
-        <v>7661946570</v>
+        <v>7994393090</v>
       </c>
       <c r="D177" s="3">
-        <v>2</v>
+        <v>1.998585001818712</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4402,13 +4402,13 @@
         <v>180</v>
       </c>
       <c r="B178" s="2">
-        <v>49.74</v>
+        <v>49.54</v>
       </c>
       <c r="C178" s="2">
-        <v>29687601921</v>
+        <v>29045928404</v>
       </c>
       <c r="D178" s="3">
-        <v>1</v>
+        <v>1.998585001818712</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4416,13 +4416,13 @@
         <v>181</v>
       </c>
       <c r="B179" s="2">
-        <v>275.6</v>
+        <v>271.2</v>
       </c>
       <c r="C179" s="2">
-        <v>772781315154</v>
+        <v>782609372841</v>
       </c>
       <c r="D179" s="3">
-        <v>0</v>
+        <v>0.3650807558631969</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4430,13 +4430,13 @@
         <v>182</v>
       </c>
       <c r="B180" s="2">
-        <v>93.37</v>
+        <v>91.67</v>
       </c>
       <c r="C180" s="2">
-        <v>12697310226</v>
+        <v>12427146986</v>
       </c>
       <c r="D180" s="3">
-        <v>1</v>
+        <v>1.080068735574332</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4444,13 +4444,13 @@
         <v>183</v>
       </c>
       <c r="B181" s="2">
-        <v>25.87</v>
+        <v>25.64</v>
       </c>
       <c r="C181" s="2">
-        <v>37083763150</v>
+        <v>37138871884</v>
       </c>
       <c r="D181" s="3">
-        <v>3</v>
+        <v>3.861540600237871</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4458,13 +4458,13 @@
         <v>184</v>
       </c>
       <c r="B182" s="2">
-        <v>274.55</v>
+        <v>270.41</v>
       </c>
       <c r="C182" s="2">
-        <v>73917853462</v>
+        <v>73037521659</v>
       </c>
       <c r="D182" s="3">
-        <v>0</v>
+        <v>0.3661473354909175</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4472,13 +4472,13 @@
         <v>185</v>
       </c>
       <c r="B183" s="2">
-        <v>29.94</v>
+        <v>31.06</v>
       </c>
       <c r="C183" s="2">
-        <v>16758358031</v>
+        <v>16899191239</v>
       </c>
       <c r="D183" s="3">
-        <v>3</v>
+        <v>3.187698035740471</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4486,13 +4486,13 @@
         <v>186</v>
       </c>
       <c r="B184" s="2">
-        <v>183.81</v>
+        <v>181.56</v>
       </c>
       <c r="C184" s="2">
-        <v>11314084404</v>
+        <v>11287442744</v>
       </c>
       <c r="D184" s="3">
-        <v>0</v>
+        <v>0.5453288223733147</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4500,13 +4500,13 @@
         <v>187</v>
       </c>
       <c r="B185" s="2">
-        <v>143.11</v>
+        <v>147.53</v>
       </c>
       <c r="C185" s="2">
-        <v>90117866541</v>
+        <v>90641647179</v>
       </c>
       <c r="D185" s="3">
-        <v>0</v>
+        <v>0.6711170676479293</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4514,13 +4514,13 @@
         <v>188</v>
       </c>
       <c r="B186" s="2">
-        <v>117.32</v>
+        <v>114.51</v>
       </c>
       <c r="C186" s="2">
-        <v>78023063259</v>
+        <v>78674761977</v>
       </c>
       <c r="D186" s="3">
-        <v>0</v>
+        <v>0.8646397780988473</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4528,13 +4528,13 @@
         <v>189</v>
       </c>
       <c r="B187" s="2">
-        <v>28.89</v>
+        <v>28.96</v>
       </c>
       <c r="C187" s="2">
-        <v>20098127896</v>
+        <v>20540173705</v>
       </c>
       <c r="D187" s="3">
-        <v>3</v>
+        <v>3.418850172310049</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4542,13 +4542,13 @@
         <v>190</v>
       </c>
       <c r="B188" s="2">
-        <v>46.07</v>
+        <v>44.63</v>
       </c>
       <c r="C188" s="2">
-        <v>6117825137</v>
+        <v>6038421947</v>
       </c>
       <c r="D188" s="3">
-        <v>2</v>
+        <v>2.218460698859489</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4556,13 +4556,13 @@
         <v>191</v>
       </c>
       <c r="B189" s="2">
-        <v>37.02</v>
+        <v>37.75</v>
       </c>
       <c r="C189" s="2">
-        <v>5006083285</v>
+        <v>4952171483</v>
       </c>
       <c r="D189" s="3">
-        <v>2</v>
+        <v>2.622778834174808</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4570,13 +4570,13 @@
         <v>192</v>
       </c>
       <c r="B190" s="2">
-        <v>272.91</v>
+        <v>276.26</v>
       </c>
       <c r="C190" s="2">
-        <v>22783611806</v>
+        <v>23133194464</v>
       </c>
       <c r="D190" s="3">
-        <v>0</v>
+        <v>0.3583939078769964</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4584,13 +4584,13 @@
         <v>193</v>
       </c>
       <c r="B191" s="2">
-        <v>116.69</v>
+        <v>114.6</v>
       </c>
       <c r="C191" s="2">
-        <v>14993256599</v>
+        <v>15131908474</v>
       </c>
       <c r="D191" s="3">
-        <v>0</v>
+        <v>0.8639607416239007</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4601,10 +4601,10 @@
         <v>29</v>
       </c>
       <c r="C192" s="2">
-        <v>16952950877</v>
+        <v>17083104521</v>
       </c>
       <c r="D192" s="3">
-        <v>3</v>
+        <v>3.414134516899966</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4612,13 +4612,13 @@
         <v>195</v>
       </c>
       <c r="B193" s="2">
-        <v>28.53</v>
+        <v>29.05</v>
       </c>
       <c r="C193" s="2">
-        <v>16960378948</v>
+        <v>16892104569</v>
       </c>
       <c r="D193" s="3">
-        <v>3</v>
+        <v>3.408258209641962</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4626,13 +4626,13 @@
         <v>196</v>
       </c>
       <c r="B194" s="2">
-        <v>145.21</v>
+        <v>146.26</v>
       </c>
       <c r="C194" s="2">
-        <v>24490622000</v>
+        <v>24305004521</v>
       </c>
       <c r="D194" s="3">
-        <v>0</v>
+        <v>0.6769444891979969</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4640,13 +4640,13 @@
         <v>197</v>
       </c>
       <c r="B195" s="2">
-        <v>87.08</v>
+        <v>87.95</v>
       </c>
       <c r="C195" s="2">
-        <v>6861704643</v>
+        <v>6719793630</v>
       </c>
       <c r="D195" s="3">
-        <v>1</v>
+        <v>1.125752143150643</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4657,10 +4657,10 @@
         <v>9.6</v>
       </c>
       <c r="C196" s="2">
-        <v>4325799276</v>
+        <v>4369972699</v>
       </c>
       <c r="D196" s="3">
-        <v>10</v>
+        <v>10.31353135313531</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4668,13 +4668,13 @@
         <v>199</v>
       </c>
       <c r="B197" s="2">
-        <v>153.09</v>
+        <v>154.05</v>
       </c>
       <c r="C197" s="2">
-        <v>25463688640</v>
+        <v>24322716067</v>
       </c>
       <c r="D197" s="3">
-        <v>0</v>
+        <v>0.6427127620259592</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4682,13 +4682,13 @@
         <v>200</v>
       </c>
       <c r="B198" s="2">
-        <v>70.34999999999999</v>
+        <v>70.29000000000001</v>
       </c>
       <c r="C198" s="2">
-        <v>24225818046</v>
+        <v>23789526054</v>
       </c>
       <c r="D198" s="3">
-        <v>1</v>
+        <v>1.40859156338169</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4696,13 +4696,13 @@
         <v>201</v>
       </c>
       <c r="B199" s="2">
-        <v>155.57</v>
+        <v>149.21</v>
       </c>
       <c r="C199" s="2">
-        <v>43008827592</v>
+        <v>43913605103</v>
       </c>
       <c r="D199" s="3">
-        <v>0</v>
+        <v>0.6635607599363247</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4710,13 +4710,13 @@
         <v>202</v>
       </c>
       <c r="B200" s="2">
-        <v>10.68</v>
+        <v>10.69</v>
       </c>
       <c r="C200" s="2">
-        <v>97657180599</v>
+        <v>96734846948</v>
       </c>
       <c r="D200" s="3">
-        <v>9</v>
+        <v>9.261917772694014</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4724,13 +4724,13 @@
         <v>203</v>
       </c>
       <c r="B201" s="2">
-        <v>59.37</v>
+        <v>59.54</v>
       </c>
       <c r="C201" s="2">
-        <v>74407013412</v>
+        <v>72736930986</v>
       </c>
       <c r="D201" s="3">
-        <v>1</v>
+        <v>1.66291402401913</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4738,13 +4738,13 @@
         <v>204</v>
       </c>
       <c r="B202" s="2">
-        <v>59.39</v>
+        <v>59.57</v>
       </c>
       <c r="C202" s="2">
-        <v>37752225387</v>
+        <v>37145260703</v>
       </c>
       <c r="D202" s="3">
-        <v>1</v>
+        <v>1.662076565219053</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4752,13 +4752,13 @@
         <v>205</v>
       </c>
       <c r="B203" s="2">
-        <v>93.15000000000001</v>
+        <v>96.73</v>
       </c>
       <c r="C203" s="2">
-        <v>9745862949</v>
+        <v>10191299994</v>
       </c>
       <c r="D203" s="3">
-        <v>1</v>
+        <v>1.023569740412478</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4766,13 +4766,13 @@
         <v>206</v>
       </c>
       <c r="B204" s="2">
-        <v>36.69</v>
+        <v>37.17</v>
       </c>
       <c r="C204" s="2">
-        <v>28283370437</v>
+        <v>29003136417</v>
       </c>
       <c r="D204" s="3">
-        <v>2</v>
+        <v>2.663704627121308</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4780,13 +4780,13 @@
         <v>207</v>
       </c>
       <c r="B205" s="2">
-        <v>43.57</v>
+        <v>41.94</v>
       </c>
       <c r="C205" s="2">
-        <v>62456816340</v>
+        <v>60860765052</v>
       </c>
       <c r="D205" s="3">
-        <v>2</v>
+        <v>2.360751096568884</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4794,13 +4794,13 @@
         <v>208</v>
       </c>
       <c r="B206" s="2">
-        <v>1758.53</v>
+        <v>1788.46</v>
       </c>
       <c r="C206" s="2">
-        <v>1231131560613</v>
+        <v>1210321675374</v>
       </c>
       <c r="D206" s="3">
-        <v>0</v>
+        <v>0.05536042236902084</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4808,13 +4808,13 @@
         <v>209</v>
       </c>
       <c r="B207" s="2">
-        <v>1745.25</v>
+        <v>1755.16</v>
       </c>
       <c r="C207" s="2">
-        <v>1199743864786</v>
+        <v>1195159322825</v>
       </c>
       <c r="D207" s="3">
-        <v>0</v>
+        <v>0.05641075513918902</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4822,13 +4822,13 @@
         <v>210</v>
       </c>
       <c r="B208" s="2">
-        <v>102.43</v>
+        <v>99.95</v>
       </c>
       <c r="C208" s="2">
-        <v>14826445439</v>
+        <v>14817340151</v>
       </c>
       <c r="D208" s="3">
-        <v>0</v>
+        <v>0.9905943070545173</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4836,13 +4836,13 @@
         <v>211</v>
       </c>
       <c r="B209" s="2">
-        <v>215.43</v>
+        <v>212.84</v>
       </c>
       <c r="C209" s="2">
-        <v>64349111169</v>
+        <v>63887717358</v>
       </c>
       <c r="D209" s="3">
-        <v>0</v>
+        <v>0.4651846503951279</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4850,13 +4850,13 @@
         <v>212</v>
       </c>
       <c r="B210" s="2">
-        <v>20.83</v>
+        <v>20.98</v>
       </c>
       <c r="C210" s="2">
-        <v>7854802435</v>
+        <v>7863836603</v>
       </c>
       <c r="D210" s="3">
-        <v>4</v>
+        <v>4.719251715447998</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4864,13 +4864,13 @@
         <v>213</v>
       </c>
       <c r="B211" s="2">
-        <v>124.27</v>
+        <v>123.26</v>
       </c>
       <c r="C211" s="2">
-        <v>23523211705</v>
+        <v>24048604992</v>
       </c>
       <c r="D211" s="3">
-        <v>0</v>
+        <v>0.8032605954088837</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4878,13 +4878,13 @@
         <v>214</v>
       </c>
       <c r="B212" s="2">
-        <v>257.25</v>
+        <v>268.66</v>
       </c>
       <c r="C212" s="2">
-        <v>88540024959</v>
+        <v>90209789431</v>
       </c>
       <c r="D212" s="3">
-        <v>0</v>
+        <v>0.3685323494010981</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4892,13 +4892,13 @@
         <v>215</v>
       </c>
       <c r="B213" s="2">
-        <v>426.01</v>
+        <v>426.21</v>
       </c>
       <c r="C213" s="2">
-        <v>22752815575</v>
+        <v>22650392687</v>
       </c>
       <c r="D213" s="3">
-        <v>0</v>
+        <v>0.2323030923490745</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4906,13 +4906,13 @@
         <v>216</v>
       </c>
       <c r="B214" s="2">
-        <v>19.83</v>
+        <v>19.76</v>
       </c>
       <c r="C214" s="2">
-        <v>17090575185</v>
+        <v>17609751719</v>
       </c>
       <c r="D214" s="3">
-        <v>4</v>
+        <v>5.010622519741853</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4920,13 +4920,13 @@
         <v>217</v>
       </c>
       <c r="B215" s="2">
-        <v>97.19</v>
+        <v>97.18000000000001</v>
       </c>
       <c r="C215" s="2">
-        <v>13150662637</v>
+        <v>13154205769</v>
       </c>
       <c r="D215" s="3">
-        <v>1</v>
+        <v>1.01883001636241</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4934,13 +4934,13 @@
         <v>218</v>
       </c>
       <c r="B216" s="2">
-        <v>12.63</v>
+        <v>12.58</v>
       </c>
       <c r="C216" s="2">
-        <v>12768200731</v>
+        <v>13114372428</v>
       </c>
       <c r="D216" s="3">
-        <v>7</v>
+        <v>7.870421382360812</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4948,13 +4948,13 @@
         <v>219</v>
       </c>
       <c r="B217" s="2">
-        <v>15.04</v>
+        <v>15.18</v>
       </c>
       <c r="C217" s="2">
-        <v>5243250872</v>
+        <v>5099745845</v>
       </c>
       <c r="D217" s="3">
-        <v>6</v>
+        <v>6.52239136957174</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4962,13 +4962,13 @@
         <v>220</v>
       </c>
       <c r="B218" s="2">
-        <v>171.22</v>
+        <v>171.75</v>
       </c>
       <c r="C218" s="2">
-        <v>56995018159</v>
+        <v>56202068153</v>
       </c>
       <c r="D218" s="3">
-        <v>0</v>
+        <v>0.5764768616599651</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4976,13 +4976,13 @@
         <v>221</v>
       </c>
       <c r="B219" s="2">
-        <v>280.92</v>
+        <v>278.48</v>
       </c>
       <c r="C219" s="2">
-        <v>305967235921</v>
+        <v>295896668095</v>
       </c>
       <c r="D219" s="3">
-        <v>0</v>
+        <v>0.3555368464166152</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4990,13 +4990,13 @@
         <v>222</v>
       </c>
       <c r="B220" s="2">
-        <v>55.29</v>
+        <v>54.8</v>
       </c>
       <c r="C220" s="2">
-        <v>16518422404</v>
+        <v>16647023274</v>
       </c>
       <c r="D220" s="3">
-        <v>1</v>
+        <v>1.8067500180675</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5004,13 +5004,13 @@
         <v>223</v>
       </c>
       <c r="B221" s="2">
-        <v>26.47</v>
+        <v>26.09</v>
       </c>
       <c r="C221" s="2">
-        <v>4173696769</v>
+        <v>4289715889</v>
       </c>
       <c r="D221" s="3">
-        <v>3</v>
+        <v>3.794936795327674</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5018,13 +5018,13 @@
         <v>224</v>
       </c>
       <c r="B222" s="2">
-        <v>48.67</v>
+        <v>48.66</v>
       </c>
       <c r="C222" s="2">
-        <v>17773636744</v>
+        <v>17783463218</v>
       </c>
       <c r="D222" s="3">
-        <v>2</v>
+        <v>2.034728750310296</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5032,13 +5032,13 @@
         <v>225</v>
       </c>
       <c r="B223" s="2">
-        <v>172.1</v>
+        <v>173.4</v>
       </c>
       <c r="C223" s="2">
-        <v>6712047214</v>
+        <v>6715084939</v>
       </c>
       <c r="D223" s="3">
-        <v>0</v>
+        <v>0.5709913551908824</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5046,13 +5046,13 @@
         <v>226</v>
       </c>
       <c r="B224" s="2">
-        <v>110.74</v>
+        <v>111.57</v>
       </c>
       <c r="C224" s="2">
-        <v>30838738962</v>
+        <v>30970777165</v>
       </c>
       <c r="D224" s="3">
-        <v>0</v>
+        <v>0.8874240475943266</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5060,13 +5060,13 @@
         <v>227</v>
       </c>
       <c r="B225" s="2">
-        <v>74.94</v>
+        <v>77.95999999999999</v>
       </c>
       <c r="C225" s="2">
-        <v>20160804339</v>
+        <v>19910922293</v>
       </c>
       <c r="D225" s="3">
-        <v>1</v>
+        <v>1.270008991663661</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5074,13 +5074,13 @@
         <v>228</v>
       </c>
       <c r="B226" s="2">
-        <v>218.33</v>
+        <v>215.28</v>
       </c>
       <c r="C226" s="2">
-        <v>153266864702</v>
+        <v>149485963765</v>
       </c>
       <c r="D226" s="3">
-        <v>0</v>
+        <v>0.4599122119569817</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5088,13 +5088,13 @@
         <v>229</v>
       </c>
       <c r="B227" s="2">
-        <v>12.25</v>
+        <v>12.17</v>
       </c>
       <c r="C227" s="2">
-        <v>15646166667</v>
+        <v>15829565167</v>
       </c>
       <c r="D227" s="3">
-        <v>8</v>
+        <v>8.135571157773132</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5102,13 +5102,13 @@
         <v>230</v>
       </c>
       <c r="B228" s="2">
-        <v>24.44</v>
+        <v>25.37</v>
       </c>
       <c r="C228" s="2">
-        <v>32439676100</v>
+        <v>31992868744</v>
       </c>
       <c r="D228" s="3">
-        <v>4</v>
+        <v>3.902637011828893</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5116,13 +5116,13 @@
         <v>231</v>
       </c>
       <c r="B229" s="2">
-        <v>16.21</v>
+        <v>15.53</v>
       </c>
       <c r="C229" s="2">
-        <v>2943116828</v>
+        <v>2953229950</v>
       </c>
       <c r="D229" s="3">
-        <v>6</v>
+        <v>6.375396071480941</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5130,13 +5130,13 @@
         <v>232</v>
       </c>
       <c r="B230" s="2">
-        <v>48.85</v>
+        <v>49.03</v>
       </c>
       <c r="C230" s="2">
-        <v>26618068369</v>
+        <v>25881936301</v>
       </c>
       <c r="D230" s="3">
-        <v>2</v>
+        <v>2.019373872936957</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5144,13 +5144,13 @@
         <v>233</v>
       </c>
       <c r="B231" s="2">
-        <v>66.15000000000001</v>
+        <v>66.97</v>
       </c>
       <c r="C231" s="2">
-        <v>9497253058</v>
+        <v>9813107650</v>
       </c>
       <c r="D231" s="3">
-        <v>1</v>
+        <v>1.478421696134075</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5161,10 +5161,10 @@
         <v>14.5</v>
       </c>
       <c r="C232" s="2">
-        <v>10435940178</v>
+        <v>10291591856</v>
       </c>
       <c r="D232" s="3">
-        <v>6</v>
+        <v>6.828269033799932</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5172,13 +5172,13 @@
         <v>235</v>
       </c>
       <c r="B233" s="2">
-        <v>153.4</v>
+        <v>154.18</v>
       </c>
       <c r="C233" s="2">
-        <v>32022208568</v>
+        <v>31489054599</v>
       </c>
       <c r="D233" s="3">
-        <v>0</v>
+        <v>0.6421708457004736</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5186,13 +5186,13 @@
         <v>236</v>
       </c>
       <c r="B234" s="2">
-        <v>420.4</v>
+        <v>405.34</v>
       </c>
       <c r="C234" s="2">
-        <v>54740849537</v>
+        <v>54952885125</v>
       </c>
       <c r="D234" s="3">
-        <v>0</v>
+        <v>0.2442638303402058</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5200,13 +5200,13 @@
         <v>237</v>
       </c>
       <c r="B235" s="2">
-        <v>28.67</v>
+        <v>28.43</v>
       </c>
       <c r="C235" s="2">
-        <v>12136303995</v>
+        <v>12370163676</v>
       </c>
       <c r="D235" s="3">
-        <v>3</v>
+        <v>3.482585332047099</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5214,13 +5214,13 @@
         <v>238</v>
       </c>
       <c r="B236" s="2">
-        <v>127.26</v>
+        <v>130.71</v>
       </c>
       <c r="C236" s="2">
-        <v>115857386046</v>
+        <v>112081426230</v>
       </c>
       <c r="D236" s="3">
-        <v>0</v>
+        <v>0.7574776297918981</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5228,13 +5228,13 @@
         <v>239</v>
       </c>
       <c r="B237" s="2">
-        <v>117.42</v>
+        <v>115.23</v>
       </c>
       <c r="C237" s="2">
-        <v>63469882033</v>
+        <v>64232216627</v>
       </c>
       <c r="D237" s="3">
-        <v>0</v>
+        <v>0.8592371864106484</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5242,13 +5242,13 @@
         <v>240</v>
       </c>
       <c r="B238" s="2">
-        <v>515.6799999999999</v>
+        <v>510.74</v>
       </c>
       <c r="C238" s="2">
-        <v>44489965414</v>
+        <v>44263095780</v>
       </c>
       <c r="D238" s="3">
-        <v>0</v>
+        <v>0.1938557798294612</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5256,13 +5256,13 @@
         <v>241</v>
       </c>
       <c r="B239" s="2">
-        <v>200.16</v>
+        <v>201.38</v>
       </c>
       <c r="C239" s="2">
-        <v>14929412179</v>
+        <v>15228229366</v>
       </c>
       <c r="D239" s="3">
-        <v>0</v>
+        <v>0.4916570711594946</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5270,13 +5270,13 @@
         <v>242</v>
       </c>
       <c r="B240" s="2">
-        <v>111.5</v>
+        <v>111.33</v>
       </c>
       <c r="C240" s="2">
-        <v>11869636552</v>
+        <v>11823834962</v>
       </c>
       <c r="D240" s="3">
-        <v>0</v>
+        <v>0.8893371147947455</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5284,13 +5284,13 @@
         <v>243</v>
       </c>
       <c r="B241" s="2">
-        <v>368.08</v>
+        <v>376.7</v>
       </c>
       <c r="C241" s="2">
-        <v>53957056394</v>
+        <v>54026406419</v>
       </c>
       <c r="D241" s="3">
-        <v>0</v>
+        <v>0.26283488449721</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5298,13 +5298,13 @@
         <v>244</v>
       </c>
       <c r="B242" s="2">
-        <v>91.45999999999999</v>
+        <v>88.18000000000001</v>
       </c>
       <c r="C242" s="2">
-        <v>19690874737</v>
+        <v>19282740811</v>
       </c>
       <c r="D242" s="3">
-        <v>1</v>
+        <v>1.122815842482411</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5312,13 +5312,13 @@
         <v>245</v>
       </c>
       <c r="B243" s="2">
-        <v>88.20999999999999</v>
+        <v>87.70999999999999</v>
       </c>
       <c r="C243" s="2">
-        <v>37222980638</v>
+        <v>37563553161</v>
       </c>
       <c r="D243" s="3">
-        <v>1</v>
+        <v>1.128832527535047</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5326,13 +5326,13 @@
         <v>246</v>
       </c>
       <c r="B244" s="2">
-        <v>47.68</v>
+        <v>47.96</v>
       </c>
       <c r="C244" s="2">
-        <v>192994259949</v>
+        <v>200933038758</v>
       </c>
       <c r="D244" s="3">
-        <v>2</v>
+        <v>2.064426626148853</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5340,13 +5340,13 @@
         <v>247</v>
       </c>
       <c r="B245" s="2">
-        <v>399.74</v>
+        <v>394.83</v>
       </c>
       <c r="C245" s="2">
-        <v>108096569454</v>
+        <v>108985897785</v>
       </c>
       <c r="D245" s="3">
-        <v>0</v>
+        <v>0.2507659017554366</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5354,13 +5354,13 @@
         <v>248</v>
       </c>
       <c r="B246" s="2">
-        <v>50.97</v>
+        <v>51.96</v>
       </c>
       <c r="C246" s="2">
-        <v>19839525185</v>
+        <v>20327586070</v>
       </c>
       <c r="D246" s="3">
-        <v>1</v>
+        <v>1.905502328523845</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5368,13 +5368,13 @@
         <v>249</v>
       </c>
       <c r="B247" s="2">
-        <v>23.93</v>
+        <v>23.91</v>
       </c>
       <c r="C247" s="2">
-        <v>9456586500</v>
+        <v>9333826698</v>
       </c>
       <c r="D247" s="3">
-        <v>4</v>
+        <v>4.140941070267629</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5382,13 +5382,13 @@
         <v>250</v>
       </c>
       <c r="B248" s="2">
-        <v>224.47</v>
+        <v>222.77</v>
       </c>
       <c r="C248" s="2">
-        <v>11977914555</v>
+        <v>12123946589</v>
       </c>
       <c r="D248" s="3">
-        <v>0</v>
+        <v>0.4444489877007631</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5396,13 +5396,13 @@
         <v>251</v>
       </c>
       <c r="B249" s="2">
-        <v>180.87</v>
+        <v>176.1</v>
       </c>
       <c r="C249" s="2">
-        <v>34604996346</v>
+        <v>34824863506</v>
       </c>
       <c r="D249" s="3">
-        <v>0</v>
+        <v>0.562236802896644</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5410,13 +5410,13 @@
         <v>252</v>
       </c>
       <c r="B250" s="2">
-        <v>46.69</v>
+        <v>47.12</v>
       </c>
       <c r="C250" s="2">
-        <v>19261767082</v>
+        <v>19672180817</v>
       </c>
       <c r="D250" s="3">
-        <v>2</v>
+        <v>2.101228798601422</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5424,13 +5424,13 @@
         <v>253</v>
       </c>
       <c r="B251" s="2">
-        <v>29.98</v>
+        <v>29.61</v>
       </c>
       <c r="C251" s="2">
-        <v>8810078341</v>
+        <v>8775273851</v>
       </c>
       <c r="D251" s="3">
-        <v>3</v>
+        <v>3.343799425535259</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5438,13 +5438,13 @@
         <v>254</v>
       </c>
       <c r="B252" s="2">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="C252" s="2">
-        <v>95570597389</v>
+        <v>97453236455</v>
       </c>
       <c r="D252" s="3">
-        <v>0</v>
+        <v>0.1174494673666655</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5452,13 +5452,13 @@
         <v>255</v>
       </c>
       <c r="B253" s="2">
-        <v>166.27</v>
+        <v>159.95</v>
       </c>
       <c r="C253" s="2">
-        <v>14566330922</v>
+        <v>14248800554</v>
       </c>
       <c r="D253" s="3">
-        <v>0</v>
+        <v>0.6190053203507285</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5466,13 +5466,13 @@
         <v>256</v>
       </c>
       <c r="B254" s="2">
-        <v>208.87</v>
+        <v>207.91</v>
       </c>
       <c r="C254" s="2">
-        <v>64974295588</v>
+        <v>65604117500</v>
       </c>
       <c r="D254" s="3">
-        <v>0</v>
+        <v>0.4762151940267376</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5480,13 +5480,13 @@
         <v>257</v>
       </c>
       <c r="B255" s="2">
-        <v>18.19</v>
+        <v>18.05</v>
       </c>
       <c r="C255" s="2">
-        <v>8317840666</v>
+        <v>8416173636</v>
       </c>
       <c r="D255" s="3">
-        <v>5</v>
+        <v>5.485313074243712</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5494,13 +5494,13 @@
         <v>258</v>
       </c>
       <c r="B256" s="2">
-        <v>107.89</v>
+        <v>110.79</v>
       </c>
       <c r="C256" s="2">
-        <v>14126258876</v>
+        <v>14500840964</v>
       </c>
       <c r="D256" s="3">
-        <v>0</v>
+        <v>0.8936718204720553</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5508,13 +5508,13 @@
         <v>259</v>
       </c>
       <c r="B257" s="2">
-        <v>140.14</v>
+        <v>143.38</v>
       </c>
       <c r="C257" s="2">
-        <v>14616136029</v>
+        <v>14940666837</v>
       </c>
       <c r="D257" s="3">
-        <v>0</v>
+        <v>0.6905419234907171</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5522,13 +5522,13 @@
         <v>260</v>
       </c>
       <c r="B258" s="2">
-        <v>46.91</v>
+        <v>46.4</v>
       </c>
       <c r="C258" s="2">
-        <v>34789510323</v>
+        <v>33428624459</v>
       </c>
       <c r="D258" s="3">
-        <v>2</v>
+        <v>2.133834073062479</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5536,13 +5536,13 @@
         <v>261</v>
       </c>
       <c r="B259" s="2">
-        <v>162.72</v>
+        <v>159.22</v>
       </c>
       <c r="C259" s="2">
-        <v>12611624220</v>
+        <v>12275405527</v>
       </c>
       <c r="D259" s="3">
-        <v>0</v>
+        <v>0.6218433676051942</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5550,13 +5550,13 @@
         <v>262</v>
       </c>
       <c r="B260" s="2">
-        <v>157.62</v>
+        <v>159.24</v>
       </c>
       <c r="C260" s="2">
-        <v>411823669226</v>
+        <v>420988037833</v>
       </c>
       <c r="D260" s="3">
-        <v>0</v>
+        <v>0.6217652662025811</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5564,13 +5564,13 @@
         <v>263</v>
       </c>
       <c r="B261" s="2">
-        <v>23.5</v>
+        <v>23.1</v>
       </c>
       <c r="C261" s="2">
-        <v>7529249353</v>
+        <v>7587511577</v>
       </c>
       <c r="D261" s="3">
-        <v>4</v>
+        <v>4.286142900004286</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5578,13 +5578,13 @@
         <v>264</v>
       </c>
       <c r="B262" s="2">
-        <v>126.3</v>
+        <v>125.7</v>
       </c>
       <c r="C262" s="2">
-        <v>387370324768</v>
+        <v>394664198653</v>
       </c>
       <c r="D262" s="3">
-        <v>0</v>
+        <v>0.7876682656332459</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5592,13 +5592,13 @@
         <v>265</v>
       </c>
       <c r="B263" s="2">
-        <v>62.77</v>
+        <v>64.8</v>
       </c>
       <c r="C263" s="2">
-        <v>22073095590</v>
+        <v>21364657615</v>
       </c>
       <c r="D263" s="3">
-        <v>1</v>
+        <v>1.527930570834861</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5606,13 +5606,13 @@
         <v>266</v>
       </c>
       <c r="B264" s="2">
-        <v>16.47</v>
+        <v>16.48</v>
       </c>
       <c r="C264" s="2">
-        <v>15867943004</v>
+        <v>16175200222</v>
       </c>
       <c r="D264" s="3">
-        <v>6</v>
+        <v>6.007882341632222</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5620,13 +5620,13 @@
         <v>267</v>
       </c>
       <c r="B265" s="2">
-        <v>133.56</v>
+        <v>132.05</v>
       </c>
       <c r="C265" s="2">
-        <v>25174602639</v>
+        <v>24654218512</v>
       </c>
       <c r="D265" s="3">
-        <v>0</v>
+        <v>0.7497909957599319</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5634,13 +5634,13 @@
         <v>268</v>
       </c>
       <c r="B266" s="2">
-        <v>35.44</v>
+        <v>36</v>
       </c>
       <c r="C266" s="2">
-        <v>43716143365</v>
+        <v>43126585943</v>
       </c>
       <c r="D266" s="3">
-        <v>2</v>
+        <v>2.750275027502751</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5648,13 +5648,13 @@
         <v>269</v>
       </c>
       <c r="B267" s="2">
-        <v>14.89</v>
+        <v>15.2</v>
       </c>
       <c r="C267" s="2">
-        <v>6486496554</v>
+        <v>6567054194</v>
       </c>
       <c r="D267" s="3">
-        <v>6</v>
+        <v>6.513809275664409</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5662,13 +5662,13 @@
         <v>270</v>
       </c>
       <c r="B268" s="2">
-        <v>266.26</v>
+        <v>272.03</v>
       </c>
       <c r="C268" s="2">
-        <v>40480317804</v>
+        <v>41504325628</v>
       </c>
       <c r="D268" s="3">
-        <v>0</v>
+        <v>0.3639668455321068</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5676,13 +5676,13 @@
         <v>271</v>
       </c>
       <c r="B269" s="2">
-        <v>138.38</v>
+        <v>135.58</v>
       </c>
       <c r="C269" s="2">
-        <v>45924653403</v>
+        <v>47095639599</v>
       </c>
       <c r="D269" s="3">
-        <v>0</v>
+        <v>0.7302692210510326</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5690,13 +5690,13 @@
         <v>272</v>
       </c>
       <c r="B270" s="2">
-        <v>14.23</v>
+        <v>13.9</v>
       </c>
       <c r="C270" s="2">
-        <v>31646732629</v>
+        <v>32118809094</v>
       </c>
       <c r="D270" s="3">
-        <v>6</v>
+        <v>7.123014459719354</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5704,13 +5704,13 @@
         <v>273</v>
       </c>
       <c r="B271" s="2">
-        <v>93.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C271" s="2">
-        <v>15206502904</v>
+        <v>15237761632</v>
       </c>
       <c r="D271" s="3">
-        <v>1</v>
+        <v>1.024947215218416</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5718,13 +5718,13 @@
         <v>274</v>
       </c>
       <c r="B272" s="2">
-        <v>54.78</v>
+        <v>53.68</v>
       </c>
       <c r="C272" s="2">
-        <v>229960513153</v>
+        <v>240128854751</v>
       </c>
       <c r="D272" s="3">
-        <v>1</v>
+        <v>1.844446739755943</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5732,13 +5732,13 @@
         <v>275</v>
       </c>
       <c r="B273" s="2">
-        <v>32.34</v>
+        <v>31.68</v>
       </c>
       <c r="C273" s="2">
-        <v>24950481248</v>
+        <v>25070761957</v>
       </c>
       <c r="D273" s="3">
-        <v>3</v>
+        <v>3.125312531253126</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5746,13 +5746,13 @@
         <v>276</v>
       </c>
       <c r="B274" s="2">
-        <v>40.55</v>
+        <v>40.24</v>
       </c>
       <c r="C274" s="2">
-        <v>6410451937</v>
+        <v>6379813750</v>
       </c>
       <c r="D274" s="3">
-        <v>2</v>
+        <v>2.460484617050174</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5760,13 +5760,13 @@
         <v>277</v>
       </c>
       <c r="B275" s="2">
-        <v>202.85</v>
+        <v>201.07</v>
       </c>
       <c r="C275" s="2">
-        <v>19385662221</v>
+        <v>18916252318</v>
       </c>
       <c r="D275" s="3">
-        <v>0</v>
+        <v>0.4924150842497589</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5777,10 +5777,10 @@
         <v>44</v>
       </c>
       <c r="C276" s="2">
-        <v>12460469926</v>
+        <v>12408440896</v>
       </c>
       <c r="D276" s="3">
-        <v>2</v>
+        <v>2.25022502250225</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5788,13 +5788,13 @@
         <v>279</v>
       </c>
       <c r="B277" s="2">
-        <v>40.01</v>
+        <v>40.71</v>
       </c>
       <c r="C277" s="2">
-        <v>10917129393</v>
+        <v>10918482579</v>
       </c>
       <c r="D277" s="3">
-        <v>2</v>
+        <v>2.432078137806411</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5802,13 +5802,13 @@
         <v>280</v>
       </c>
       <c r="B278" s="2">
-        <v>105.34</v>
+        <v>106.92</v>
       </c>
       <c r="C278" s="2">
-        <v>15224878449</v>
+        <v>14930769624</v>
       </c>
       <c r="D278" s="3">
-        <v>0</v>
+        <v>0.9260185277787039</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5816,13 +5816,13 @@
         <v>281</v>
       </c>
       <c r="B279" s="2">
-        <v>42.63</v>
+        <v>44.04</v>
       </c>
       <c r="C279" s="2">
-        <v>5779561465</v>
+        <v>5854807916</v>
       </c>
       <c r="D279" s="3">
-        <v>2</v>
+        <v>2.248181221391894</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5830,13 +5830,13 @@
         <v>282</v>
       </c>
       <c r="B280" s="2">
-        <v>83.08</v>
+        <v>80.84</v>
       </c>
       <c r="C280" s="2">
-        <v>25169628306</v>
+        <v>24832673506</v>
       </c>
       <c r="D280" s="3">
-        <v>1</v>
+        <v>1.224763743073961</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5844,13 +5844,13 @@
         <v>283</v>
       </c>
       <c r="B281" s="2">
-        <v>208.21</v>
+        <v>210.4</v>
       </c>
       <c r="C281" s="2">
-        <v>19875320794</v>
+        <v>20386044797</v>
       </c>
       <c r="D281" s="3">
-        <v>0</v>
+        <v>0.4705793773293679</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5858,13 +5858,13 @@
         <v>284</v>
       </c>
       <c r="B282" s="2">
-        <v>189.8</v>
+        <v>185.21</v>
       </c>
       <c r="C282" s="2">
-        <v>40775044972</v>
+        <v>39388872583</v>
       </c>
       <c r="D282" s="3">
-        <v>0</v>
+        <v>0.5345818313811296</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5872,13 +5872,13 @@
         <v>285</v>
       </c>
       <c r="B283" s="2">
-        <v>269.41</v>
+        <v>260.09</v>
       </c>
       <c r="C283" s="2">
-        <v>135295779266</v>
+        <v>135757991681</v>
       </c>
       <c r="D283" s="3">
-        <v>0</v>
+        <v>0.3806755391983507</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5886,13 +5886,13 @@
         <v>286</v>
       </c>
       <c r="B284" s="2">
-        <v>36.97</v>
+        <v>36.56</v>
       </c>
       <c r="C284" s="2">
-        <v>11570757180</v>
+        <v>11138154407</v>
       </c>
       <c r="D284" s="3">
-        <v>2</v>
+        <v>2.708148276534437</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5900,13 +5900,13 @@
         <v>287</v>
       </c>
       <c r="B285" s="2">
-        <v>172.7</v>
+        <v>172.54</v>
       </c>
       <c r="C285" s="2">
-        <v>162232546802</v>
+        <v>160930714265</v>
       </c>
       <c r="D285" s="3">
-        <v>0</v>
+        <v>0.5738373767827694</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5914,13 +5914,13 @@
         <v>288</v>
       </c>
       <c r="B286" s="2">
-        <v>358.84</v>
+        <v>353.71</v>
       </c>
       <c r="C286" s="2">
-        <v>101532809561</v>
+        <v>103262590723</v>
       </c>
       <c r="D286" s="3">
-        <v>0</v>
+        <v>0.2799182974473411</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5928,13 +5928,13 @@
         <v>289</v>
       </c>
       <c r="B287" s="2">
-        <v>51</v>
+        <v>50.25</v>
       </c>
       <c r="C287" s="2">
-        <v>9845938586</v>
+        <v>10063464900</v>
       </c>
       <c r="D287" s="3">
-        <v>1</v>
+        <v>1.970346288360179</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5942,13 +5942,13 @@
         <v>290</v>
       </c>
       <c r="B288" s="2">
-        <v>51.31</v>
+        <v>51.93</v>
       </c>
       <c r="C288" s="2">
-        <v>12684454848</v>
+        <v>12752480592</v>
       </c>
       <c r="D288" s="3">
-        <v>1</v>
+        <v>1.906603138650087</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5956,13 +5956,13 @@
         <v>291</v>
       </c>
       <c r="B289" s="2">
-        <v>163.46</v>
+        <v>168.89</v>
       </c>
       <c r="C289" s="2">
-        <v>122200071111</v>
+        <v>122774836820</v>
       </c>
       <c r="D289" s="3">
-        <v>0</v>
+        <v>0.5862389779744154</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5970,13 +5970,13 @@
         <v>292</v>
       </c>
       <c r="B290" s="2">
-        <v>501.7</v>
+        <v>495.38</v>
       </c>
       <c r="C290" s="2">
-        <v>71737430481</v>
+        <v>69333049308</v>
       </c>
       <c r="D290" s="3">
-        <v>0</v>
+        <v>0.1998665690784832</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5984,13 +5984,13 @@
         <v>293</v>
       </c>
       <c r="B291" s="2">
-        <v>46.31</v>
+        <v>47.39</v>
       </c>
       <c r="C291" s="2">
-        <v>28501789898</v>
+        <v>27478806116</v>
       </c>
       <c r="D291" s="3">
-        <v>2</v>
+        <v>2.089257248155708</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5998,13 +5998,13 @@
         <v>294</v>
       </c>
       <c r="B292" s="2">
-        <v>58.99</v>
+        <v>58.96</v>
       </c>
       <c r="C292" s="2">
-        <v>44945063264</v>
+        <v>45082205749</v>
       </c>
       <c r="D292" s="3">
-        <v>1</v>
+        <v>1.679272404852425</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6012,13 +6012,13 @@
         <v>295</v>
       </c>
       <c r="B293" s="2">
-        <v>79.98</v>
+        <v>79.43000000000001</v>
       </c>
       <c r="C293" s="2">
-        <v>11501249146</v>
+        <v>11545117787</v>
       </c>
       <c r="D293" s="3">
-        <v>1</v>
+        <v>1.246505111294209</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6026,13 +6026,13 @@
         <v>296</v>
       </c>
       <c r="B294" s="2">
-        <v>91.33</v>
+        <v>94.98999999999999</v>
       </c>
       <c r="C294" s="2">
-        <v>31678715134</v>
+        <v>30754274613</v>
       </c>
       <c r="D294" s="3">
-        <v>1</v>
+        <v>1.042319201917034</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6040,13 +6040,13 @@
         <v>297</v>
       </c>
       <c r="B295" s="2">
-        <v>72.05</v>
+        <v>73.8</v>
       </c>
       <c r="C295" s="2">
-        <v>15984924793</v>
+        <v>16111713300</v>
       </c>
       <c r="D295" s="3">
-        <v>1</v>
+        <v>1.341597574391586</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6054,13 +6054,13 @@
         <v>298</v>
       </c>
       <c r="B296" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C296" s="2">
-        <v>337566306384</v>
+        <v>347371581442</v>
       </c>
       <c r="D296" s="3">
-        <v>0</v>
+        <v>0.2861557832083786</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6068,13 +6068,13 @@
         <v>299</v>
       </c>
       <c r="B297" s="2">
-        <v>124.8</v>
+        <v>125</v>
       </c>
       <c r="C297" s="2">
-        <v>14510161224</v>
+        <v>14391338688</v>
       </c>
       <c r="D297" s="3">
-        <v>0</v>
+        <v>0.7920792079207921</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6082,13 +6082,13 @@
         <v>300</v>
       </c>
       <c r="B298" s="2">
-        <v>135.17</v>
+        <v>135.07</v>
       </c>
       <c r="C298" s="2">
-        <v>43029256514</v>
+        <v>41887545041</v>
       </c>
       <c r="D298" s="3">
-        <v>0</v>
+        <v>0.7330265861412528</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6096,13 +6096,13 @@
         <v>301</v>
       </c>
       <c r="B299" s="2">
-        <v>57.05</v>
+        <v>57.97</v>
       </c>
       <c r="C299" s="2">
-        <v>15286012432</v>
+        <v>15029309800</v>
       </c>
       <c r="D299" s="3">
-        <v>1</v>
+        <v>1.707950681216129</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6110,13 +6110,13 @@
         <v>302</v>
       </c>
       <c r="B300" s="2">
-        <v>214.31</v>
+        <v>211.91</v>
       </c>
       <c r="C300" s="2">
-        <v>158235204537</v>
+        <v>161942717521</v>
       </c>
       <c r="D300" s="3">
-        <v>0</v>
+        <v>0.4672261855981266</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6124,13 +6124,13 @@
         <v>303</v>
       </c>
       <c r="B301" s="2">
-        <v>138.8</v>
+        <v>143.52</v>
       </c>
       <c r="C301" s="2">
-        <v>36911017492</v>
+        <v>35757054776</v>
       </c>
       <c r="D301" s="3">
-        <v>0</v>
+        <v>0.6898683179354724</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6138,13 +6138,13 @@
         <v>304</v>
       </c>
       <c r="B302" s="2">
-        <v>174.32</v>
+        <v>172.02</v>
       </c>
       <c r="C302" s="2">
-        <v>28728881653</v>
+        <v>28558861528</v>
       </c>
       <c r="D302" s="3">
-        <v>0</v>
+        <v>0.5755720322642658</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6152,13 +6152,13 @@
         <v>305</v>
       </c>
       <c r="B303" s="2">
-        <v>284.94</v>
+        <v>291.38</v>
       </c>
       <c r="C303" s="2">
-        <v>53364939839</v>
+        <v>53034152884</v>
       </c>
       <c r="D303" s="3">
-        <v>0</v>
+        <v>0.3397964890867562</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6166,13 +6166,13 @@
         <v>306</v>
       </c>
       <c r="B304" s="2">
-        <v>60.42</v>
+        <v>59.92</v>
       </c>
       <c r="C304" s="2">
-        <v>83018894975</v>
+        <v>85339990276</v>
       </c>
       <c r="D304" s="3">
-        <v>1</v>
+        <v>1.652368174067073</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6180,13 +6180,13 @@
         <v>307</v>
       </c>
       <c r="B305" s="2">
-        <v>114.91</v>
+        <v>117.69</v>
       </c>
       <c r="C305" s="2">
-        <v>159435467949</v>
+        <v>161157021695</v>
       </c>
       <c r="D305" s="3">
-        <v>0</v>
+        <v>0.8412770922771604</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6194,13 +6194,13 @@
         <v>308</v>
       </c>
       <c r="B306" s="2">
-        <v>46.95</v>
+        <v>47.11</v>
       </c>
       <c r="C306" s="2">
-        <v>43270811583</v>
+        <v>41984869523</v>
       </c>
       <c r="D306" s="3">
-        <v>2</v>
+        <v>2.101674824667778</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6208,13 +6208,13 @@
         <v>309</v>
       </c>
       <c r="B307" s="2">
-        <v>30.83</v>
+        <v>31.59</v>
       </c>
       <c r="C307" s="2">
-        <v>15353167617</v>
+        <v>15726980513</v>
       </c>
       <c r="D307" s="3">
-        <v>3</v>
+        <v>3.13421655555869</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6222,13 +6222,13 @@
         <v>310</v>
       </c>
       <c r="B308" s="2">
-        <v>143.68</v>
+        <v>140.72</v>
       </c>
       <c r="C308" s="2">
-        <v>10183309326</v>
+        <v>10003634602</v>
       </c>
       <c r="D308" s="3">
-        <v>0</v>
+        <v>0.7035950894691516</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6236,13 +6236,13 @@
         <v>311</v>
       </c>
       <c r="B309" s="2">
-        <v>94.97</v>
+        <v>93.86</v>
       </c>
       <c r="C309" s="2">
-        <v>24981223029</v>
+        <v>25208011640</v>
       </c>
       <c r="D309" s="3">
-        <v>1</v>
+        <v>1.054867898893022</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6250,13 +6250,13 @@
         <v>312</v>
       </c>
       <c r="B310" s="2">
-        <v>591.2</v>
+        <v>574.01</v>
       </c>
       <c r="C310" s="2">
-        <v>22475017617</v>
+        <v>22327673782</v>
       </c>
       <c r="D310" s="3">
-        <v>0</v>
+        <v>0.1724881116881222</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6264,13 +6264,13 @@
         <v>313</v>
       </c>
       <c r="B311" s="2">
-        <v>286</v>
+        <v>277.07</v>
       </c>
       <c r="C311" s="2">
-        <v>17263216183</v>
+        <v>17875451164</v>
       </c>
       <c r="D311" s="3">
-        <v>0</v>
+        <v>0.3573461615840727</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6278,13 +6278,13 @@
         <v>314</v>
       </c>
       <c r="B312" s="2">
-        <v>115.83</v>
+        <v>115.87</v>
       </c>
       <c r="C312" s="2">
-        <v>60577923645</v>
+        <v>59716127605</v>
       </c>
       <c r="D312" s="3">
-        <v>0</v>
+        <v>0.8544912487278762</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6292,13 +6292,13 @@
         <v>315</v>
       </c>
       <c r="B313" s="2">
-        <v>180.54</v>
+        <v>181.29</v>
       </c>
       <c r="C313" s="2">
-        <v>102439069384</v>
+        <v>105454367359</v>
       </c>
       <c r="D313" s="3">
-        <v>0</v>
+        <v>0.5461409950361246</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6306,13 +6306,13 @@
         <v>316</v>
       </c>
       <c r="B314" s="2">
-        <v>92.93000000000001</v>
+        <v>92.54000000000001</v>
       </c>
       <c r="C314" s="2">
-        <v>49742948384</v>
+        <v>48728628353</v>
       </c>
       <c r="D314" s="3">
-        <v>1</v>
+        <v>1.069914642209844</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6320,13 +6320,13 @@
         <v>317</v>
       </c>
       <c r="B315" s="2">
-        <v>41.81</v>
+        <v>43.4</v>
       </c>
       <c r="C315" s="2">
-        <v>79276329282</v>
+        <v>78163204722</v>
       </c>
       <c r="D315" s="3">
-        <v>2</v>
+        <v>2.28133412419583</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6334,13 +6334,13 @@
         <v>318</v>
       </c>
       <c r="B316" s="2">
-        <v>22.55</v>
+        <v>22.17</v>
       </c>
       <c r="C316" s="2">
-        <v>8626734632</v>
+        <v>8598069347</v>
       </c>
       <c r="D316" s="3">
-        <v>4</v>
+        <v>4.465940504740596</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6348,13 +6348,13 @@
         <v>319</v>
       </c>
       <c r="B317" s="2">
-        <v>41.39</v>
+        <v>41.62</v>
       </c>
       <c r="C317" s="2">
-        <v>27413510366</v>
+        <v>27880949392</v>
       </c>
       <c r="D317" s="3">
-        <v>2</v>
+        <v>2.378901993995651</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6362,13 +6362,13 @@
         <v>320</v>
       </c>
       <c r="B318" s="2">
-        <v>83.83</v>
+        <v>81.78</v>
       </c>
       <c r="C318" s="2">
-        <v>209402091204</v>
+        <v>205266812823</v>
       </c>
       <c r="D318" s="3">
-        <v>1</v>
+        <v>1.210685998900697</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6376,13 +6376,13 @@
         <v>321</v>
       </c>
       <c r="B319" s="2">
-        <v>6.89</v>
+        <v>6.84</v>
       </c>
       <c r="C319" s="2">
-        <v>5467133230</v>
+        <v>5409868818</v>
       </c>
       <c r="D319" s="3">
-        <v>14</v>
+        <v>14.47513172369869</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6390,13 +6390,13 @@
         <v>322</v>
       </c>
       <c r="B320" s="2">
-        <v>70.58</v>
+        <v>70.67</v>
       </c>
       <c r="C320" s="2">
-        <v>127812432813</v>
+        <v>125124533166</v>
       </c>
       <c r="D320" s="3">
-        <v>1</v>
+        <v>1.401017418849569</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6404,13 +6404,13 @@
         <v>323</v>
       </c>
       <c r="B321" s="2">
-        <v>446.56</v>
+        <v>440.33</v>
       </c>
       <c r="C321" s="2">
-        <v>36908344613</v>
+        <v>36609862015</v>
       </c>
       <c r="D321" s="3">
-        <v>0</v>
+        <v>0.2248538618538347</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6418,13 +6418,13 @@
         <v>324</v>
       </c>
       <c r="B322" s="2">
-        <v>232.17</v>
+        <v>226.64</v>
       </c>
       <c r="C322" s="2">
-        <v>1715021030164</v>
+        <v>1700625651427</v>
       </c>
       <c r="D322" s="3">
-        <v>0</v>
+        <v>0.4368597819894944</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6432,13 +6432,13 @@
         <v>325</v>
       </c>
       <c r="B323" s="2">
-        <v>176.35</v>
+        <v>169.58</v>
       </c>
       <c r="C323" s="2">
-        <v>28873598231</v>
+        <v>28672752514</v>
       </c>
       <c r="D323" s="3">
-        <v>0</v>
+        <v>0.5838536442392912</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6446,13 +6446,13 @@
         <v>326</v>
       </c>
       <c r="B324" s="2">
-        <v>129.15</v>
+        <v>128.65</v>
       </c>
       <c r="C324" s="2">
-        <v>16622118400</v>
+        <v>16355267635</v>
       </c>
       <c r="D324" s="3">
-        <v>0</v>
+        <v>0.769606692499798</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6460,13 +6460,13 @@
         <v>327</v>
       </c>
       <c r="B325" s="2">
-        <v>1168.36</v>
+        <v>1176.86</v>
       </c>
       <c r="C325" s="2">
-        <v>28036588444</v>
+        <v>27427084775</v>
       </c>
       <c r="D325" s="3">
-        <v>0</v>
+        <v>0.08413056862336983</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6474,13 +6474,13 @@
         <v>328</v>
       </c>
       <c r="B326" s="2">
-        <v>70.95</v>
+        <v>71.95999999999999</v>
       </c>
       <c r="C326" s="2">
-        <v>82006219141</v>
+        <v>78900984811</v>
       </c>
       <c r="D326" s="3">
-        <v>1</v>
+        <v>1.375901903697874</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6488,13 +6488,13 @@
         <v>329</v>
       </c>
       <c r="B327" s="2">
-        <v>88.23</v>
+        <v>86.88</v>
       </c>
       <c r="C327" s="2">
-        <v>23210183032</v>
+        <v>24219548349</v>
       </c>
       <c r="D327" s="3">
-        <v>1</v>
+        <v>1.13961672410335</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6502,13 +6502,13 @@
         <v>330</v>
       </c>
       <c r="B328" s="2">
-        <v>16.414</v>
+        <v>16.521</v>
       </c>
       <c r="C328" s="2">
-        <v>8636096621</v>
+        <v>8822893386</v>
       </c>
       <c r="D328" s="3">
-        <v>6</v>
+        <v>5.992972640282005</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6516,13 +6516,13 @@
         <v>331</v>
       </c>
       <c r="B329" s="2">
-        <v>8.51</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="C329" s="2">
-        <v>4164102007</v>
+        <v>4162004719</v>
       </c>
       <c r="D329" s="3">
-        <v>11</v>
+        <v>11.17493239165903</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6530,13 +6530,13 @@
         <v>332</v>
       </c>
       <c r="B330" s="2">
-        <v>25.53</v>
+        <v>24.71</v>
       </c>
       <c r="C330" s="2">
-        <v>5512417429</v>
+        <v>5493052465</v>
       </c>
       <c r="D330" s="3">
-        <v>3</v>
+        <v>4.006875798870863</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6544,13 +6544,13 @@
         <v>333</v>
       </c>
       <c r="B331" s="2">
-        <v>131.28</v>
+        <v>133.13</v>
       </c>
       <c r="C331" s="2">
-        <v>21764690501</v>
+        <v>21704677436</v>
       </c>
       <c r="D331" s="3">
-        <v>0</v>
+        <v>0.7437084127551943</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6558,13 +6558,13 @@
         <v>334</v>
       </c>
       <c r="B332" s="2">
-        <v>75.36</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C332" s="2">
-        <v>150403024822</v>
+        <v>148515800151</v>
       </c>
       <c r="D332" s="3">
-        <v>1</v>
+        <v>1.295941112435851</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6572,13 +6572,13 @@
         <v>335</v>
       </c>
       <c r="B333" s="2">
-        <v>60.72</v>
+        <v>62.9</v>
       </c>
       <c r="C333" s="2">
-        <v>48682552415</v>
+        <v>50667455659</v>
       </c>
       <c r="D333" s="3">
-        <v>1</v>
+        <v>1.574084276472162</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6586,13 +6586,13 @@
         <v>336</v>
       </c>
       <c r="B334" s="2">
-        <v>524.41</v>
+        <v>536.03</v>
       </c>
       <c r="C334" s="2">
-        <v>236390947133</v>
+        <v>236094523960</v>
       </c>
       <c r="D334" s="3">
-        <v>0</v>
+        <v>0.1847096263084138</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6600,13 +6600,13 @@
         <v>337</v>
       </c>
       <c r="B335" s="2">
-        <v>22.77</v>
+        <v>22.92</v>
       </c>
       <c r="C335" s="2">
-        <v>8856492704</v>
+        <v>8833383117</v>
       </c>
       <c r="D335" s="3">
-        <v>4</v>
+        <v>4.319803708119503</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6614,13 +6614,13 @@
         <v>338</v>
       </c>
       <c r="B336" s="2">
-        <v>145.6</v>
+        <v>147</v>
       </c>
       <c r="C336" s="2">
-        <v>228948855884</v>
+        <v>231112818788</v>
       </c>
       <c r="D336" s="3">
-        <v>0</v>
+        <v>0.673536741429245</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6628,13 +6628,13 @@
         <v>339</v>
       </c>
       <c r="B337" s="2">
-        <v>21.06</v>
+        <v>21.49</v>
       </c>
       <c r="C337" s="2">
-        <v>12908383568</v>
+        <v>12667118455</v>
       </c>
       <c r="D337" s="3">
-        <v>4</v>
+        <v>4.607254583066497</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6642,13 +6642,13 @@
         <v>340</v>
       </c>
       <c r="B338" s="2">
-        <v>21.02</v>
+        <v>21.15</v>
       </c>
       <c r="C338" s="2">
-        <v>7282754414</v>
+        <v>7432490316</v>
       </c>
       <c r="D338" s="3">
-        <v>4</v>
+        <v>4.681319195749363</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6656,13 +6656,13 @@
         <v>341</v>
       </c>
       <c r="B339" s="2">
-        <v>306.6</v>
+        <v>305.4</v>
       </c>
       <c r="C339" s="2">
-        <v>51783364871</v>
+        <v>51670515611</v>
       </c>
       <c r="D339" s="3">
-        <v>0</v>
+        <v>0.3241974492144696</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6670,13 +6670,13 @@
         <v>342</v>
       </c>
       <c r="B340" s="2">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C340" s="2">
-        <v>5276367525</v>
+        <v>5371929544</v>
       </c>
       <c r="D340" s="3">
-        <v>7</v>
+        <v>7.280139778683751</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6684,13 +6684,13 @@
         <v>343</v>
       </c>
       <c r="B341" s="2">
-        <v>554.47</v>
+        <v>554.86</v>
       </c>
       <c r="C341" s="2">
-        <v>113352107487</v>
+        <v>112923472913</v>
       </c>
       <c r="D341" s="3">
-        <v>0</v>
+        <v>0.1784412302023916</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6698,13 +6698,13 @@
         <v>344</v>
       </c>
       <c r="B342" s="2">
-        <v>35.5</v>
+        <v>36.08</v>
       </c>
       <c r="C342" s="2">
-        <v>8814453595</v>
+        <v>8848996512</v>
       </c>
       <c r="D342" s="3">
-        <v>2</v>
+        <v>2.744176856710062</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6712,13 +6712,13 @@
         <v>345</v>
       </c>
       <c r="B343" s="2">
-        <v>244.58</v>
+        <v>237.08</v>
       </c>
       <c r="C343" s="2">
-        <v>61624561871</v>
+        <v>62066702819</v>
       </c>
       <c r="D343" s="3">
-        <v>0</v>
+        <v>0.417622325755437</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6726,13 +6726,13 @@
         <v>346</v>
       </c>
       <c r="B344" s="2">
-        <v>68.90000000000001</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="C344" s="2">
-        <v>14798622170</v>
+        <v>14844836853</v>
       </c>
       <c r="D344" s="3">
-        <v>1</v>
+        <v>1.502426418666146</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6740,13 +6740,13 @@
         <v>347</v>
       </c>
       <c r="B345" s="2">
-        <v>93.91</v>
+        <v>93.75</v>
       </c>
       <c r="C345" s="2">
-        <v>19332486481</v>
+        <v>19645858236</v>
       </c>
       <c r="D345" s="3">
-        <v>1</v>
+        <v>1.056105610561056</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6754,13 +6754,13 @@
         <v>348</v>
       </c>
       <c r="B346" s="2">
-        <v>53.1</v>
+        <v>54.58</v>
       </c>
       <c r="C346" s="2">
-        <v>16370785231</v>
+        <v>15906516863</v>
       </c>
       <c r="D346" s="3">
-        <v>1</v>
+        <v>1.814032630818963</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6768,13 +6768,13 @@
         <v>349</v>
       </c>
       <c r="B347" s="2">
-        <v>543.47</v>
+        <v>522.25</v>
       </c>
       <c r="C347" s="2">
-        <v>330800289833</v>
+        <v>327465460305</v>
       </c>
       <c r="D347" s="3">
-        <v>0</v>
+        <v>0.1895833432074658</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6782,13 +6782,13 @@
         <v>350</v>
       </c>
       <c r="B348" s="2">
-        <v>4277.13</v>
+        <v>4295.55</v>
       </c>
       <c r="C348" s="2">
-        <v>15864405615</v>
+        <v>16127478148</v>
       </c>
       <c r="D348" s="3">
-        <v>0</v>
+        <v>0.02304941183087125</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6796,13 +6796,13 @@
         <v>351</v>
       </c>
       <c r="B349" s="2">
-        <v>21.27</v>
+        <v>21.99</v>
       </c>
       <c r="C349" s="2">
-        <v>9157283064</v>
+        <v>9422226140</v>
       </c>
       <c r="D349" s="3">
-        <v>4</v>
+        <v>4.502496634383767</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6810,13 +6810,13 @@
         <v>352</v>
       </c>
       <c r="B350" s="2">
-        <v>17.86</v>
+        <v>18.09</v>
       </c>
       <c r="C350" s="2">
-        <v>10772868776</v>
+        <v>10677333967</v>
       </c>
       <c r="D350" s="3">
-        <v>5</v>
+        <v>5.473184134333832</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6824,13 +6824,13 @@
         <v>353</v>
       </c>
       <c r="B351" s="2">
-        <v>18.69</v>
+        <v>18.11</v>
       </c>
       <c r="C351" s="2">
-        <v>10700244794</v>
+        <v>10980494536</v>
       </c>
       <c r="D351" s="3">
-        <v>5</v>
+        <v>5.467139756493595</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6838,13 +6838,13 @@
         <v>354</v>
       </c>
       <c r="B352" s="2">
-        <v>62.68</v>
+        <v>61.63</v>
       </c>
       <c r="C352" s="2">
-        <v>22365288638</v>
+        <v>22179721652</v>
       </c>
       <c r="D352" s="3">
-        <v>1</v>
+        <v>1.606521190817767</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6852,13 +6852,13 @@
         <v>355</v>
       </c>
       <c r="B353" s="2">
-        <v>207.51</v>
+        <v>205.37</v>
       </c>
       <c r="C353" s="2">
-        <v>23322281819</v>
+        <v>23802938055</v>
       </c>
       <c r="D353" s="3">
-        <v>0</v>
+        <v>0.4821049860743975</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6869,10 +6869,10 @@
         <v>40</v>
       </c>
       <c r="C354" s="2">
-        <v>17249545301</v>
+        <v>17865093646</v>
       </c>
       <c r="D354" s="3">
-        <v>2</v>
+        <v>2.475247524752475</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6880,13 +6880,13 @@
         <v>357</v>
       </c>
       <c r="B355" s="2">
-        <v>62.4</v>
+        <v>63.7</v>
       </c>
       <c r="C355" s="2">
-        <v>13524765703</v>
+        <v>13306297544</v>
       </c>
       <c r="D355" s="3">
-        <v>1</v>
+        <v>1.554315557144411</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6894,13 +6894,13 @@
         <v>358</v>
       </c>
       <c r="B356" s="2">
-        <v>66.19</v>
+        <v>68.04000000000001</v>
       </c>
       <c r="C356" s="2">
-        <v>197561546016</v>
+        <v>200764289757</v>
       </c>
       <c r="D356" s="3">
-        <v>1</v>
+        <v>1.455171972223677</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6908,13 +6908,13 @@
         <v>359</v>
       </c>
       <c r="B357" s="2">
-        <v>469.74</v>
+        <v>469.96</v>
       </c>
       <c r="C357" s="2">
-        <v>33454831478</v>
+        <v>34282536458</v>
       </c>
       <c r="D357" s="3">
-        <v>0</v>
+        <v>0.2106772937911716</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6922,13 +6922,13 @@
         <v>360</v>
       </c>
       <c r="B358" s="2">
-        <v>67.51000000000001</v>
+        <v>67.02</v>
       </c>
       <c r="C358" s="2">
-        <v>29645973620</v>
+        <v>28637782498</v>
       </c>
       <c r="D358" s="3">
-        <v>1</v>
+        <v>1.477318725605775</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6936,13 +6936,13 @@
         <v>361</v>
       </c>
       <c r="B359" s="2">
-        <v>18.2</v>
+        <v>17.85</v>
       </c>
       <c r="C359" s="2">
-        <v>16600421201</v>
+        <v>17090063938</v>
       </c>
       <c r="D359" s="3">
-        <v>5</v>
+        <v>5.546773164711428</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6950,13 +6950,13 @@
         <v>362</v>
       </c>
       <c r="B360" s="2">
-        <v>468.02</v>
+        <v>477.1</v>
       </c>
       <c r="C360" s="2">
-        <v>27862892392</v>
+        <v>27767502169</v>
       </c>
       <c r="D360" s="3">
-        <v>0</v>
+        <v>0.2075244204361748</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6964,13 +6964,13 @@
         <v>363</v>
       </c>
       <c r="B361" s="2">
-        <v>96.63</v>
+        <v>95.5</v>
       </c>
       <c r="C361" s="2">
-        <v>34588986287</v>
+        <v>35370034978</v>
       </c>
       <c r="D361" s="3">
-        <v>1</v>
+        <v>1.036752889948681</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6978,13 +6978,13 @@
         <v>364</v>
       </c>
       <c r="B362" s="2">
-        <v>12.92</v>
+        <v>13.32</v>
       </c>
       <c r="C362" s="2">
-        <v>5522270536</v>
+        <v>5588422489</v>
       </c>
       <c r="D362" s="3">
-        <v>7</v>
+        <v>7.433175750007433</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6992,13 +6992,13 @@
         <v>365</v>
       </c>
       <c r="B363" s="2">
-        <v>86.77</v>
+        <v>86.25</v>
       </c>
       <c r="C363" s="2">
-        <v>31107121959</v>
+        <v>30798895170</v>
       </c>
       <c r="D363" s="3">
-        <v>1</v>
+        <v>1.147940881044626</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -7006,13 +7006,13 @@
         <v>366</v>
       </c>
       <c r="B364" s="2">
-        <v>30.82</v>
+        <v>30.16</v>
       </c>
       <c r="C364" s="2">
-        <v>16530954699</v>
+        <v>16582472729</v>
       </c>
       <c r="D364" s="3">
-        <v>3</v>
+        <v>3.282821650865352</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -7020,13 +7020,13 @@
         <v>367</v>
       </c>
       <c r="B365" s="2">
-        <v>57.19</v>
+        <v>59.81</v>
       </c>
       <c r="C365" s="2">
-        <v>30246605837</v>
+        <v>29405613962</v>
       </c>
       <c r="D365" s="3">
-        <v>1</v>
+        <v>1.655407139108828</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -7034,13 +7034,13 @@
         <v>368</v>
       </c>
       <c r="B366" s="2">
-        <v>145.53</v>
+        <v>147.34</v>
       </c>
       <c r="C366" s="2">
-        <v>204563987741</v>
+        <v>209127721496</v>
       </c>
       <c r="D366" s="3">
-        <v>0</v>
+        <v>0.671982496199939</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7048,13 +7048,13 @@
         <v>369</v>
       </c>
       <c r="B367" s="2">
-        <v>37.68</v>
+        <v>38.44</v>
       </c>
       <c r="C367" s="2">
-        <v>210391758658</v>
+        <v>217198696803</v>
       </c>
       <c r="D367" s="3">
-        <v>2</v>
+        <v>2.575699817640453</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7062,13 +7062,13 @@
         <v>370</v>
       </c>
       <c r="B368" s="2">
-        <v>50.31</v>
+        <v>50.64</v>
       </c>
       <c r="C368" s="2">
-        <v>13631277056</v>
+        <v>13966658042</v>
       </c>
       <c r="D368" s="3">
-        <v>1</v>
+        <v>1.955171820499586</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7076,13 +7076,13 @@
         <v>371</v>
       </c>
       <c r="B369" s="2">
-        <v>142.46</v>
+        <v>141.94</v>
       </c>
       <c r="C369" s="2">
-        <v>352926988079</v>
+        <v>353044880562</v>
       </c>
       <c r="D369" s="3">
-        <v>0</v>
+        <v>0.6975475622805342</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7090,13 +7090,13 @@
         <v>372</v>
       </c>
       <c r="B370" s="2">
-        <v>100.85</v>
+        <v>99.76000000000001</v>
       </c>
       <c r="C370" s="2">
-        <v>59749799411</v>
+        <v>60394804733</v>
       </c>
       <c r="D370" s="3">
-        <v>0</v>
+        <v>0.9924809642151063</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7104,13 +7104,13 @@
         <v>373</v>
       </c>
       <c r="B371" s="2">
-        <v>271.35</v>
+        <v>273.98</v>
       </c>
       <c r="C371" s="2">
-        <v>35270813517</v>
+        <v>34915881918</v>
       </c>
       <c r="D371" s="3">
-        <v>0</v>
+        <v>0.3613763814515622</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7118,13 +7118,13 @@
         <v>374</v>
       </c>
       <c r="B372" s="2">
-        <v>47.2</v>
+        <v>46.6</v>
       </c>
       <c r="C372" s="2">
-        <v>12678704631</v>
+        <v>12351163539</v>
       </c>
       <c r="D372" s="3">
-        <v>2</v>
+        <v>2.124675986911996</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7132,13 +7132,13 @@
         <v>375</v>
       </c>
       <c r="B373" s="2">
-        <v>137.5</v>
+        <v>139.9</v>
       </c>
       <c r="C373" s="2">
-        <v>13224654154</v>
+        <v>12978490788</v>
       </c>
       <c r="D373" s="3">
-        <v>0</v>
+        <v>0.7077190921379486</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7146,13 +7146,13 @@
         <v>376</v>
       </c>
       <c r="B374" s="2">
-        <v>140</v>
+        <v>143.29</v>
       </c>
       <c r="C374" s="2">
-        <v>15788302547</v>
+        <v>16350566462</v>
       </c>
       <c r="D374" s="3">
-        <v>0</v>
+        <v>0.6909756507090448</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7160,13 +7160,13 @@
         <v>377</v>
       </c>
       <c r="B375" s="2">
-        <v>97.47</v>
+        <v>98.29000000000001</v>
       </c>
       <c r="C375" s="2">
-        <v>73708154777</v>
+        <v>73044791368</v>
       </c>
       <c r="D375" s="3">
-        <v>1</v>
+        <v>1.007324254655601</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7174,13 +7174,13 @@
         <v>378</v>
       </c>
       <c r="B376" s="2">
-        <v>84.83</v>
+        <v>83.08</v>
       </c>
       <c r="C376" s="2">
-        <v>131494906451</v>
+        <v>130444398558</v>
       </c>
       <c r="D376" s="3">
-        <v>1</v>
+        <v>1.191741706669463</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7188,13 +7188,13 @@
         <v>379</v>
       </c>
       <c r="B377" s="2">
-        <v>150.83</v>
+        <v>149.04</v>
       </c>
       <c r="C377" s="2">
-        <v>62833852398</v>
+        <v>62039954209</v>
       </c>
       <c r="D377" s="3">
-        <v>0</v>
+        <v>0.664317639493418</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7202,13 +7202,13 @@
         <v>380</v>
       </c>
       <c r="B378" s="2">
-        <v>52.97</v>
+        <v>53.41</v>
       </c>
       <c r="C378" s="2">
-        <v>9037936721</v>
+        <v>9163641604</v>
       </c>
       <c r="D378" s="3">
-        <v>1</v>
+        <v>1.853770847970399</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7216,13 +7216,13 @@
         <v>381</v>
       </c>
       <c r="B379" s="2">
-        <v>80.98</v>
+        <v>80.97</v>
       </c>
       <c r="C379" s="2">
-        <v>8841635960</v>
+        <v>9169763274</v>
       </c>
       <c r="D379" s="3">
-        <v>1</v>
+        <v>1.222797344573286</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7230,13 +7230,13 @@
         <v>382</v>
       </c>
       <c r="B380" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C380" s="2">
-        <v>35643785563</v>
+        <v>35050614048</v>
       </c>
       <c r="D380" s="3">
-        <v>0</v>
+        <v>0.673536741429245</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7244,13 +7244,13 @@
         <v>383</v>
       </c>
       <c r="B381" s="2">
-        <v>27.5</v>
+        <v>27.04</v>
       </c>
       <c r="C381" s="2">
-        <v>20794153167</v>
+        <v>20910196656</v>
       </c>
       <c r="D381" s="3">
-        <v>3</v>
+        <v>3.661608764426739</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7258,13 +7258,13 @@
         <v>384</v>
       </c>
       <c r="B382" s="2">
-        <v>45.65</v>
+        <v>44.88</v>
       </c>
       <c r="C382" s="2">
-        <v>6112727383</v>
+        <v>6140236132</v>
       </c>
       <c r="D382" s="3">
-        <v>2</v>
+        <v>2.2061029632375</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7272,13 +7272,13 @@
         <v>385</v>
       </c>
       <c r="B383" s="2">
-        <v>78.08</v>
+        <v>78.27</v>
       </c>
       <c r="C383" s="2">
-        <v>31788234853</v>
+        <v>31201946820</v>
       </c>
       <c r="D383" s="3">
-        <v>1</v>
+        <v>1.264978931775891</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7286,13 +7286,13 @@
         <v>386</v>
       </c>
       <c r="B384" s="2">
-        <v>231.01</v>
+        <v>237.47</v>
       </c>
       <c r="C384" s="2">
-        <v>40321805800</v>
+        <v>40216880494</v>
       </c>
       <c r="D384" s="3">
-        <v>0</v>
+        <v>0.4169364593005391</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7300,13 +7300,13 @@
         <v>387</v>
       </c>
       <c r="B385" s="2">
-        <v>70.45999999999999</v>
+        <v>68.94</v>
       </c>
       <c r="C385" s="2">
-        <v>31453186542</v>
+        <v>30984557900</v>
       </c>
       <c r="D385" s="3">
-        <v>1</v>
+        <v>1.436174949087598</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7314,13 +7314,13 @@
         <v>388</v>
       </c>
       <c r="B386" s="2">
-        <v>94.16</v>
+        <v>97.48</v>
       </c>
       <c r="C386" s="2">
-        <v>7001025386</v>
+        <v>6814750982</v>
       </c>
       <c r="D386" s="3">
-        <v>1</v>
+        <v>1.015694511593137</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7328,13 +7328,13 @@
         <v>389</v>
       </c>
       <c r="B387" s="2">
-        <v>71.7</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="C387" s="2">
-        <v>10028371082</v>
+        <v>10156647460</v>
       </c>
       <c r="D387" s="3">
-        <v>1</v>
+        <v>1.372278600001372</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7342,13 +7342,13 @@
         <v>390</v>
       </c>
       <c r="B388" s="2">
-        <v>117.26</v>
+        <v>117.54</v>
       </c>
       <c r="C388" s="2">
-        <v>18847820827</v>
+        <v>19155990381</v>
       </c>
       <c r="D388" s="3">
-        <v>0</v>
+        <v>0.8423506975506126</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7356,13 +7356,13 @@
         <v>391</v>
       </c>
       <c r="B389" s="2">
-        <v>244.89</v>
+        <v>246.61</v>
       </c>
       <c r="C389" s="2">
-        <v>280201816343</v>
+        <v>280133427868</v>
       </c>
       <c r="D389" s="3">
-        <v>0</v>
+        <v>0.4014837232476339</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7370,13 +7370,13 @@
         <v>392</v>
       </c>
       <c r="B390" s="2">
-        <v>149.66</v>
+        <v>150.22</v>
       </c>
       <c r="C390" s="2">
-        <v>171657613762</v>
+        <v>175725740901</v>
       </c>
       <c r="D390" s="3">
-        <v>0</v>
+        <v>0.6590993275868661</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7384,13 +7384,13 @@
         <v>393</v>
       </c>
       <c r="B391" s="2">
-        <v>172.45</v>
+        <v>171.93</v>
       </c>
       <c r="C391" s="2">
-        <v>19261542080</v>
+        <v>19226572733</v>
       </c>
       <c r="D391" s="3">
-        <v>0</v>
+        <v>0.5758733262961613</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7398,13 +7398,13 @@
         <v>394</v>
       </c>
       <c r="B392" s="2">
-        <v>73.38</v>
+        <v>74</v>
       </c>
       <c r="C392" s="2">
-        <v>16055994392</v>
+        <v>15931446356</v>
       </c>
       <c r="D392" s="3">
-        <v>1</v>
+        <v>1.337971635001338</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7412,13 +7412,13 @@
         <v>395</v>
       </c>
       <c r="B393" s="2">
-        <v>237.17</v>
+        <v>235.4</v>
       </c>
       <c r="C393" s="2">
-        <v>9356407861</v>
+        <v>9610956227</v>
       </c>
       <c r="D393" s="3">
-        <v>0</v>
+        <v>0.4206028079443458</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7426,13 +7426,13 @@
         <v>396</v>
       </c>
       <c r="B394" s="2">
-        <v>46.39</v>
+        <v>46.33</v>
       </c>
       <c r="C394" s="2">
-        <v>8084165412</v>
+        <v>7770605310</v>
       </c>
       <c r="D394" s="3">
-        <v>2</v>
+        <v>2.137058083101641</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7440,13 +7440,13 @@
         <v>397</v>
       </c>
       <c r="B395" s="2">
-        <v>502.44</v>
+        <v>507.71</v>
       </c>
       <c r="C395" s="2">
-        <v>51492501719</v>
+        <v>53074524526</v>
       </c>
       <c r="D395" s="3">
-        <v>0</v>
+        <v>0.1950127060528629</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7454,13 +7454,13 @@
         <v>398</v>
       </c>
       <c r="B396" s="2">
-        <v>16.2</v>
+        <v>16.29</v>
       </c>
       <c r="C396" s="2">
-        <v>15864090650</v>
+        <v>15805386490</v>
       </c>
       <c r="D396" s="3">
-        <v>6</v>
+        <v>6.077955861884531</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7468,13 +7468,13 @@
         <v>399</v>
       </c>
       <c r="B397" s="2">
-        <v>63.16</v>
+        <v>62.57</v>
       </c>
       <c r="C397" s="2">
-        <v>7171873949</v>
+        <v>7152811024</v>
       </c>
       <c r="D397" s="3">
-        <v>1</v>
+        <v>1.58238614336102</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7482,13 +7482,13 @@
         <v>400</v>
       </c>
       <c r="B398" s="2">
-        <v>95.75</v>
+        <v>97.22</v>
       </c>
       <c r="C398" s="2">
-        <v>13252780981</v>
+        <v>13253649411</v>
       </c>
       <c r="D398" s="3">
-        <v>1</v>
+        <v>1.01841083100287</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7496,13 +7496,13 @@
         <v>401</v>
       </c>
       <c r="B399" s="2">
-        <v>104.58</v>
+        <v>101.65</v>
       </c>
       <c r="C399" s="2">
-        <v>7465636888</v>
+        <v>7694931960</v>
       </c>
       <c r="D399" s="3">
-        <v>0</v>
+        <v>0.9740275552395377</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7510,13 +7510,13 @@
         <v>402</v>
       </c>
       <c r="B400" s="2">
-        <v>212.94</v>
+        <v>218.11</v>
       </c>
       <c r="C400" s="2">
-        <v>31681242640</v>
+        <v>31685870443</v>
       </c>
       <c r="D400" s="3">
-        <v>0</v>
+        <v>0.4539448030356197</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7524,13 +7524,13 @@
         <v>403</v>
       </c>
       <c r="B401" s="2">
-        <v>252.54</v>
+        <v>250.8</v>
       </c>
       <c r="C401" s="2">
-        <v>29365135568</v>
+        <v>29408983879</v>
       </c>
       <c r="D401" s="3">
-        <v>0</v>
+        <v>0.3947763197372369</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7538,13 +7538,13 @@
         <v>404</v>
       </c>
       <c r="B402" s="2">
-        <v>40.98</v>
+        <v>40.11</v>
       </c>
       <c r="C402" s="2">
-        <v>20022577178</v>
+        <v>20076430372</v>
       </c>
       <c r="D402" s="3">
-        <v>2</v>
+        <v>2.468459261782573</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7552,13 +7552,13 @@
         <v>405</v>
       </c>
       <c r="B403" s="2">
-        <v>435.36</v>
+        <v>436.73</v>
       </c>
       <c r="C403" s="2">
-        <v>45765576386</v>
+        <v>44149778185</v>
       </c>
       <c r="D403" s="3">
-        <v>0</v>
+        <v>0.2267073500563254</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7566,13 +7566,13 @@
         <v>406</v>
       </c>
       <c r="B404" s="2">
-        <v>119.73</v>
+        <v>118.43</v>
       </c>
       <c r="C404" s="2">
-        <v>42213511671</v>
+        <v>42732143890</v>
       </c>
       <c r="D404" s="3">
-        <v>0</v>
+        <v>0.8360204423718568</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7580,13 +7580,13 @@
         <v>407</v>
       </c>
       <c r="B405" s="2">
-        <v>96.98999999999999</v>
+        <v>95.86</v>
       </c>
       <c r="C405" s="2">
-        <v>31960201454</v>
+        <v>30565028865</v>
       </c>
       <c r="D405" s="3">
-        <v>1</v>
+        <v>1.032859388588556</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7594,13 +7594,13 @@
         <v>408</v>
       </c>
       <c r="B406" s="2">
-        <v>71.98999999999999</v>
+        <v>72.34999999999999</v>
       </c>
       <c r="C406" s="2">
-        <v>111731310702</v>
+        <v>107124085098</v>
       </c>
       <c r="D406" s="3">
-        <v>1</v>
+        <v>1.368485155357277</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7608,13 +7608,13 @@
         <v>409</v>
       </c>
       <c r="B407" s="2">
-        <v>285.24</v>
+        <v>283.78</v>
       </c>
       <c r="C407" s="2">
-        <v>31683273198</v>
+        <v>30613709026</v>
       </c>
       <c r="D407" s="3">
-        <v>0</v>
+        <v>0.3488966840161358</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7622,13 +7622,13 @@
         <v>410</v>
       </c>
       <c r="B408" s="2">
-        <v>104.81</v>
+        <v>105.24</v>
       </c>
       <c r="C408" s="2">
-        <v>123403937054</v>
+        <v>120253433354</v>
       </c>
       <c r="D408" s="3">
-        <v>0</v>
+        <v>0.9408010356337801</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7636,13 +7636,13 @@
         <v>411</v>
       </c>
       <c r="B409" s="2">
-        <v>53.73</v>
+        <v>52.49</v>
       </c>
       <c r="C409" s="2">
-        <v>102713797195</v>
+        <v>101300006290</v>
       </c>
       <c r="D409" s="3">
-        <v>1</v>
+        <v>1.88626216403313</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7650,13 +7650,13 @@
         <v>412</v>
       </c>
       <c r="B410" s="2">
-        <v>47.5</v>
+        <v>47.6</v>
       </c>
       <c r="C410" s="2">
-        <v>7397800651</v>
+        <v>7332357623</v>
       </c>
       <c r="D410" s="3">
-        <v>2</v>
+        <v>2.080039936766786</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7664,13 +7664,13 @@
         <v>413</v>
       </c>
       <c r="B411" s="2">
-        <v>755</v>
+        <v>764.4</v>
       </c>
       <c r="C411" s="2">
-        <v>69157700601</v>
+        <v>69331623112</v>
       </c>
       <c r="D411" s="3">
-        <v>0</v>
+        <v>0.1295262964287009</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7678,13 +7678,13 @@
         <v>414</v>
       </c>
       <c r="B412" s="2">
-        <v>381.97</v>
+        <v>387.78</v>
       </c>
       <c r="C412" s="2">
-        <v>20181768759</v>
+        <v>19898672665</v>
       </c>
       <c r="D412" s="3">
-        <v>0</v>
+        <v>0.2553249290579685</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7692,13 +7692,13 @@
         <v>415</v>
       </c>
       <c r="B413" s="2">
-        <v>117.22</v>
+        <v>120.57</v>
       </c>
       <c r="C413" s="2">
-        <v>13742827353</v>
+        <v>13411733356</v>
       </c>
       <c r="D413" s="3">
-        <v>0</v>
+        <v>0.8211818942531228</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7706,13 +7706,13 @@
         <v>416</v>
       </c>
       <c r="B414" s="2">
-        <v>22.52</v>
+        <v>21.72</v>
       </c>
       <c r="C414" s="2">
-        <v>30170911811</v>
+        <v>30256648929</v>
       </c>
       <c r="D414" s="3">
-        <v>4</v>
+        <v>4.558466896413399</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7720,13 +7720,13 @@
         <v>417</v>
       </c>
       <c r="B415" s="2">
-        <v>56.89</v>
+        <v>58.68</v>
       </c>
       <c r="C415" s="2">
-        <v>4146677915</v>
+        <v>4123629431</v>
       </c>
       <c r="D415" s="3">
-        <v>1</v>
+        <v>1.687285292946473</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7734,13 +7734,13 @@
         <v>418</v>
       </c>
       <c r="B416" s="2">
-        <v>173.48</v>
+        <v>172.98</v>
       </c>
       <c r="C416" s="2">
-        <v>9548202111</v>
+        <v>9364173537</v>
       </c>
       <c r="D416" s="3">
-        <v>0</v>
+        <v>0.572377737253434</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7748,13 +7748,13 @@
         <v>419</v>
       </c>
       <c r="B417" s="2">
-        <v>264.36</v>
+        <v>267.03</v>
       </c>
       <c r="C417" s="2">
-        <v>39298532676</v>
+        <v>40167564689</v>
       </c>
       <c r="D417" s="3">
-        <v>0</v>
+        <v>0.3707819383219078</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7762,13 +7762,13 @@
         <v>420</v>
       </c>
       <c r="B418" s="2">
-        <v>60.8</v>
+        <v>61.4</v>
       </c>
       <c r="C418" s="2">
-        <v>65527209861</v>
+        <v>63916730642</v>
       </c>
       <c r="D418" s="3">
-        <v>1</v>
+        <v>1.612539104073274</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7776,13 +7776,13 @@
         <v>421</v>
       </c>
       <c r="B419" s="2">
-        <v>84.8</v>
+        <v>84.97</v>
       </c>
       <c r="C419" s="2">
-        <v>28228990661</v>
+        <v>28809214793</v>
       </c>
       <c r="D419" s="3">
-        <v>1</v>
+        <v>1.165233623515347</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7790,13 +7790,13 @@
         <v>422</v>
       </c>
       <c r="B420" s="2">
-        <v>329.24</v>
+        <v>324.41</v>
       </c>
       <c r="C420" s="2">
-        <v>78256222858</v>
+        <v>77702901198</v>
       </c>
       <c r="D420" s="3">
-        <v>0</v>
+        <v>0.3051999044113899</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7804,13 +7804,13 @@
         <v>423</v>
       </c>
       <c r="B421" s="2">
-        <v>129</v>
+        <v>130.9</v>
       </c>
       <c r="C421" s="2">
-        <v>37569258382</v>
+        <v>38120365309</v>
       </c>
       <c r="D421" s="3">
-        <v>0</v>
+        <v>0.7563781588242858</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7818,13 +7818,13 @@
         <v>424</v>
       </c>
       <c r="B422" s="2">
-        <v>193.09</v>
+        <v>190.55</v>
       </c>
       <c r="C422" s="2">
-        <v>15927161449</v>
+        <v>16625486367</v>
       </c>
       <c r="D422" s="3">
-        <v>0</v>
+        <v>0.5196006349519759</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7832,13 +7832,13 @@
         <v>425</v>
       </c>
       <c r="B423" s="2">
-        <v>72.16</v>
+        <v>72.53</v>
       </c>
       <c r="C423" s="2">
-        <v>25338303636</v>
+        <v>26128707239</v>
       </c>
       <c r="D423" s="3">
-        <v>1</v>
+        <v>1.36508894237004</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7846,13 +7846,13 @@
         <v>426</v>
       </c>
       <c r="B424" s="2">
-        <v>64.92</v>
+        <v>63.14</v>
       </c>
       <c r="C424" s="2">
-        <v>16824477629</v>
+        <v>16981523036</v>
       </c>
       <c r="D424" s="3">
-        <v>1</v>
+        <v>1.568101060977178</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7860,13 +7860,13 @@
         <v>427</v>
       </c>
       <c r="B425" s="2">
-        <v>220.51</v>
+        <v>221.63</v>
       </c>
       <c r="C425" s="2">
-        <v>42520453973</v>
+        <v>42835282152</v>
       </c>
       <c r="D425" s="3">
-        <v>0</v>
+        <v>0.4467351035062898</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7874,13 +7874,13 @@
         <v>428</v>
       </c>
       <c r="B426" s="2">
-        <v>188.09</v>
+        <v>187.74</v>
       </c>
       <c r="C426" s="2">
-        <v>29179141685</v>
+        <v>29989421768</v>
       </c>
       <c r="D426" s="3">
-        <v>0</v>
+        <v>0.5273777617454938</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7888,13 +7888,13 @@
         <v>429</v>
       </c>
       <c r="B427" s="2">
-        <v>155.09</v>
+        <v>153.39</v>
       </c>
       <c r="C427" s="2">
-        <v>25370369454</v>
+        <v>25503060380</v>
       </c>
       <c r="D427" s="3">
-        <v>0</v>
+        <v>0.6454781992965579</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7902,13 +7902,13 @@
         <v>430</v>
       </c>
       <c r="B428" s="2">
-        <v>35.13</v>
+        <v>35.15</v>
       </c>
       <c r="C428" s="2">
-        <v>20305285354</v>
+        <v>20540049969</v>
       </c>
       <c r="D428" s="3">
-        <v>2</v>
+        <v>2.816782389476501</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7916,13 +7916,13 @@
         <v>431</v>
       </c>
       <c r="B429" s="2">
-        <v>238.26</v>
+        <v>240.01</v>
       </c>
       <c r="C429" s="2">
-        <v>93534614229</v>
+        <v>93432288224</v>
       </c>
       <c r="D429" s="3">
-        <v>0</v>
+        <v>0.4125240656226783</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7930,13 +7930,13 @@
         <v>432</v>
       </c>
       <c r="B430" s="2">
-        <v>73.22</v>
+        <v>75.02</v>
       </c>
       <c r="C430" s="2">
-        <v>38026543606</v>
+        <v>38150370719</v>
       </c>
       <c r="D430" s="3">
-        <v>1</v>
+        <v>1.319780071848827</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7944,13 +7944,13 @@
         <v>433</v>
       </c>
       <c r="B431" s="2">
-        <v>29.8</v>
+        <v>28.73</v>
       </c>
       <c r="C431" s="2">
-        <v>213600039023</v>
+        <v>210540769575</v>
       </c>
       <c r="D431" s="3">
-        <v>3</v>
+        <v>3.446220013578107</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7958,13 +7958,13 @@
         <v>434</v>
       </c>
       <c r="B432" s="2">
-        <v>47.59</v>
+        <v>45.75</v>
       </c>
       <c r="C432" s="2">
-        <v>9415886270</v>
+        <v>9685043728</v>
       </c>
       <c r="D432" s="3">
-        <v>2</v>
+        <v>2.164150841313639</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7972,13 +7972,13 @@
         <v>435</v>
       </c>
       <c r="B433" s="2">
-        <v>623.9299999999999</v>
+        <v>621.76</v>
       </c>
       <c r="C433" s="2">
-        <v>34345074833</v>
+        <v>33465393952</v>
       </c>
       <c r="D433" s="3">
-        <v>0</v>
+        <v>0.1592413487360059</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7986,13 +7986,13 @@
         <v>436</v>
       </c>
       <c r="B434" s="2">
-        <v>384.44</v>
+        <v>398.85</v>
       </c>
       <c r="C434" s="2">
-        <v>14673486428</v>
+        <v>14388820530</v>
       </c>
       <c r="D434" s="3">
-        <v>0</v>
+        <v>0.2482384379844528</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -8000,13 +8000,13 @@
         <v>437</v>
       </c>
       <c r="B435" s="2">
-        <v>119.85</v>
+        <v>121.04</v>
       </c>
       <c r="C435" s="2">
-        <v>41567766811</v>
+        <v>40837905089</v>
       </c>
       <c r="D435" s="3">
-        <v>0</v>
+        <v>0.817993233559972</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -8014,13 +8014,13 @@
         <v>438</v>
       </c>
       <c r="B436" s="2">
-        <v>48.19</v>
+        <v>48.96</v>
       </c>
       <c r="C436" s="2">
-        <v>65386578727</v>
+        <v>65823244672</v>
       </c>
       <c r="D436" s="3">
-        <v>2</v>
+        <v>2.022261049634375</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8028,13 +8028,13 @@
         <v>439</v>
       </c>
       <c r="B437" s="2">
-        <v>411.19</v>
+        <v>406.15</v>
       </c>
       <c r="C437" s="2">
-        <v>19622098774</v>
+        <v>19185104755</v>
       </c>
       <c r="D437" s="3">
-        <v>0</v>
+        <v>0.2437766859290878</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -8042,13 +8042,13 @@
         <v>440</v>
       </c>
       <c r="B438" s="2">
-        <v>177.58</v>
+        <v>177.14</v>
       </c>
       <c r="C438" s="2">
-        <v>88253169026</v>
+        <v>90415132392</v>
       </c>
       <c r="D438" s="3">
-        <v>0</v>
+        <v>0.5589358755227448</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8056,13 +8056,13 @@
         <v>441</v>
       </c>
       <c r="B439" s="2">
-        <v>132.89</v>
+        <v>135.43</v>
       </c>
       <c r="C439" s="2">
-        <v>16502700751</v>
+        <v>16058158785</v>
       </c>
       <c r="D439" s="3">
-        <v>0</v>
+        <v>0.7310780550106993</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8070,13 +8070,13 @@
         <v>442</v>
       </c>
       <c r="B440" s="2">
-        <v>70.26000000000001</v>
+        <v>67.44</v>
       </c>
       <c r="C440" s="2">
-        <v>82444945194</v>
+        <v>83717794763</v>
       </c>
       <c r="D440" s="3">
-        <v>1</v>
+        <v>1.468118342083319</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8084,13 +8084,13 @@
         <v>443</v>
       </c>
       <c r="B441" s="2">
-        <v>479.34</v>
+        <v>468.85</v>
       </c>
       <c r="C441" s="2">
-        <v>187049613304</v>
+        <v>186319806346</v>
       </c>
       <c r="D441" s="3">
-        <v>0</v>
+        <v>0.2111760712170183</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8098,13 +8098,13 @@
         <v>444</v>
       </c>
       <c r="B442" s="2">
-        <v>134.89</v>
+        <v>136.05</v>
       </c>
       <c r="C442" s="2">
-        <v>165303593328</v>
+        <v>168206714639</v>
       </c>
       <c r="D442" s="3">
-        <v>0</v>
+        <v>0.7277464240360089</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8112,13 +8112,13 @@
         <v>445</v>
       </c>
       <c r="B443" s="2">
-        <v>32.24</v>
+        <v>30.86</v>
       </c>
       <c r="C443" s="2">
-        <v>8985811656</v>
+        <v>8854728246</v>
       </c>
       <c r="D443" s="3">
-        <v>3</v>
+        <v>3.208357128648704</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8126,13 +8126,13 @@
         <v>446</v>
       </c>
       <c r="B444" s="2">
-        <v>155.6</v>
+        <v>154.03</v>
       </c>
       <c r="C444" s="2">
-        <v>34661406533</v>
+        <v>35145307251</v>
       </c>
       <c r="D444" s="3">
-        <v>0</v>
+        <v>0.6427962149587678</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8140,13 +8140,13 @@
         <v>447</v>
       </c>
       <c r="B445" s="2">
-        <v>141.82</v>
+        <v>144.84</v>
       </c>
       <c r="C445" s="2">
-        <v>36060694180</v>
+        <v>35831666713</v>
       </c>
       <c r="D445" s="3">
-        <v>0</v>
+        <v>0.6835811998764085</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8154,13 +8154,13 @@
         <v>448</v>
       </c>
       <c r="B446" s="2">
-        <v>154.12</v>
+        <v>152.43</v>
       </c>
       <c r="C446" s="2">
-        <v>17634098282</v>
+        <v>17566746246</v>
       </c>
       <c r="D446" s="3">
-        <v>0</v>
+        <v>0.6495434034645345</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8168,13 +8168,13 @@
         <v>449</v>
       </c>
       <c r="B447" s="2">
-        <v>67.93000000000001</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="C447" s="2">
-        <v>24590196440</v>
+        <v>24195311604</v>
       </c>
       <c r="D447" s="3">
-        <v>1</v>
+        <v>1.487975668621867</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8182,13 +8182,13 @@
         <v>450</v>
       </c>
       <c r="B448" s="2">
-        <v>148.65</v>
+        <v>148.43</v>
       </c>
       <c r="C448" s="2">
-        <v>35211089549</v>
+        <v>35416272929</v>
       </c>
       <c r="D448" s="3">
-        <v>0</v>
+        <v>0.6670477732944755</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8196,13 +8196,13 @@
         <v>451</v>
       </c>
       <c r="B449" s="2">
-        <v>204</v>
+        <v>205.6</v>
       </c>
       <c r="C449" s="2">
-        <v>23396772120</v>
+        <v>23320914830</v>
       </c>
       <c r="D449" s="3">
-        <v>0</v>
+        <v>0.4815656662942559</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8210,13 +8210,13 @@
         <v>452</v>
       </c>
       <c r="B450" s="2">
-        <v>54.5</v>
+        <v>55.77</v>
       </c>
       <c r="C450" s="2">
-        <v>43244213676</v>
+        <v>43521744969</v>
       </c>
       <c r="D450" s="3">
-        <v>1</v>
+        <v>1.775325461540237</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8224,13 +8224,13 @@
         <v>453</v>
       </c>
       <c r="B451" s="2">
-        <v>168.52</v>
+        <v>162.34</v>
       </c>
       <c r="C451" s="2">
-        <v>151637912772</v>
+        <v>151568579109</v>
       </c>
       <c r="D451" s="3">
-        <v>0</v>
+        <v>0.6098922076512198</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8238,13 +8238,13 @@
         <v>454</v>
       </c>
       <c r="B452" s="2">
-        <v>49.11</v>
+        <v>49.56</v>
       </c>
       <c r="C452" s="2">
-        <v>11278197340</v>
+        <v>11091562040</v>
       </c>
       <c r="D452" s="3">
-        <v>2</v>
+        <v>1.997778470340981</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8252,13 +8252,13 @@
         <v>455</v>
       </c>
       <c r="B453" s="2">
-        <v>438.74</v>
+        <v>449.01</v>
       </c>
       <c r="C453" s="2">
-        <v>18285273053</v>
+        <v>18290053704</v>
       </c>
       <c r="D453" s="3">
-        <v>0</v>
+        <v>0.220507117859511</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8266,13 +8266,13 @@
         <v>456</v>
       </c>
       <c r="B454" s="2">
-        <v>15.25</v>
+        <v>15.34</v>
       </c>
       <c r="C454" s="2">
-        <v>7343660271</v>
+        <v>7306868742</v>
       </c>
       <c r="D454" s="3">
-        <v>6</v>
+        <v>6.454361211870862</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8280,13 +8280,13 @@
         <v>457</v>
       </c>
       <c r="B455" s="2">
-        <v>18.18</v>
+        <v>17.52</v>
       </c>
       <c r="C455" s="2">
-        <v>7643373423</v>
+        <v>7418264481</v>
       </c>
       <c r="D455" s="3">
-        <v>5</v>
+        <v>5.651250056512501</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8294,13 +8294,13 @@
         <v>458</v>
       </c>
       <c r="B456" s="2">
-        <v>43.87</v>
+        <v>43.43</v>
       </c>
       <c r="C456" s="2">
-        <v>13059806295</v>
+        <v>12781020660</v>
       </c>
       <c r="D456" s="3">
-        <v>2</v>
+        <v>2.2797582544347</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8308,13 +8308,13 @@
         <v>459</v>
       </c>
       <c r="B457" s="2">
-        <v>38.97</v>
+        <v>39.09</v>
       </c>
       <c r="C457" s="2">
-        <v>11076003759</v>
+        <v>11153333743</v>
       </c>
       <c r="D457" s="3">
-        <v>2</v>
+        <v>2.532870324637989</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8322,13 +8322,13 @@
         <v>460</v>
       </c>
       <c r="B458" s="2">
-        <v>138.22</v>
+        <v>139.27</v>
       </c>
       <c r="C458" s="2">
-        <v>11833606337</v>
+        <v>12142875079</v>
       </c>
       <c r="D458" s="3">
-        <v>0</v>
+        <v>0.7109205212184893</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8336,13 +8336,13 @@
         <v>461</v>
       </c>
       <c r="B459" s="2">
-        <v>275.46</v>
+        <v>273.4</v>
       </c>
       <c r="C459" s="2">
-        <v>15323308945</v>
+        <v>15152086317</v>
       </c>
       <c r="D459" s="3">
-        <v>0</v>
+        <v>0.3621430175204792</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8350,13 +8350,13 @@
         <v>462</v>
       </c>
       <c r="B460" s="2">
-        <v>345.2</v>
+        <v>356.21</v>
       </c>
       <c r="C460" s="2">
-        <v>324355933095</v>
+        <v>328113285521</v>
       </c>
       <c r="D460" s="3">
-        <v>0</v>
+        <v>0.2779537379357654</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8364,13 +8364,13 @@
         <v>463</v>
       </c>
       <c r="B461" s="2">
-        <v>22.23</v>
+        <v>22.97</v>
       </c>
       <c r="C461" s="2">
-        <v>4589895505</v>
+        <v>4577208067</v>
       </c>
       <c r="D461" s="3">
-        <v>4</v>
+        <v>4.310400565524555</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8378,13 +8378,13 @@
         <v>464</v>
       </c>
       <c r="B462" s="2">
-        <v>207.08</v>
+        <v>209.66</v>
       </c>
       <c r="C462" s="2">
-        <v>141500290652</v>
+        <v>139338009174</v>
       </c>
       <c r="D462" s="3">
-        <v>0</v>
+        <v>0.4722402985314271</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8392,13 +8392,13 @@
         <v>465</v>
       </c>
       <c r="B463" s="2">
-        <v>175.54</v>
+        <v>179.83</v>
       </c>
       <c r="C463" s="2">
-        <v>153759833391</v>
+        <v>156035933950</v>
       </c>
       <c r="D463" s="3">
-        <v>0</v>
+        <v>0.5505749929939332</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8406,13 +8406,13 @@
         <v>466</v>
       </c>
       <c r="B464" s="2">
-        <v>240.75</v>
+        <v>235.92</v>
       </c>
       <c r="C464" s="2">
-        <v>17360124915</v>
+        <v>17324830066</v>
       </c>
       <c r="D464" s="3">
-        <v>0</v>
+        <v>0.419675741734906</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8420,13 +8420,13 @@
         <v>467</v>
       </c>
       <c r="B465" s="2">
-        <v>48.47</v>
+        <v>48.62</v>
       </c>
       <c r="C465" s="2">
-        <v>72899257465</v>
+        <v>72828116008</v>
       </c>
       <c r="D465" s="3">
-        <v>2</v>
+        <v>2.036402735296154</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8434,13 +8434,13 @@
         <v>468</v>
       </c>
       <c r="B466" s="2">
-        <v>213.7</v>
+        <v>216.5</v>
       </c>
       <c r="C466" s="2">
-        <v>467144100856</v>
+        <v>479549829321</v>
       </c>
       <c r="D466" s="3">
-        <v>0</v>
+        <v>0.4573205588457229</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8448,13 +8448,13 @@
         <v>469</v>
       </c>
       <c r="B467" s="2">
-        <v>181.62</v>
+        <v>181.41</v>
       </c>
       <c r="C467" s="2">
-        <v>16372196068</v>
+        <v>16330737633</v>
       </c>
       <c r="D467" s="3">
-        <v>0</v>
+        <v>0.5457797309415082</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8462,13 +8462,13 @@
         <v>470</v>
       </c>
       <c r="B468" s="2">
-        <v>86.09999999999999</v>
+        <v>85.2</v>
       </c>
       <c r="C468" s="2">
-        <v>34304597063</v>
+        <v>33138304640</v>
       </c>
       <c r="D468" s="3">
-        <v>1</v>
+        <v>1.162088039789895</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8476,13 +8476,13 @@
         <v>471</v>
       </c>
       <c r="B469" s="2">
-        <v>36.91</v>
+        <v>36.92</v>
       </c>
       <c r="C469" s="2">
-        <v>22467877827</v>
+        <v>23199963947</v>
       </c>
       <c r="D469" s="3">
-        <v>2</v>
+        <v>2.681741630284372</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8490,13 +8490,13 @@
         <v>472</v>
       </c>
       <c r="B470" s="2">
-        <v>56.92</v>
+        <v>57.84</v>
       </c>
       <c r="C470" s="2">
-        <v>23419693837</v>
+        <v>23348383617</v>
       </c>
       <c r="D470" s="3">
-        <v>1</v>
+        <v>1.711789436205031</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8504,13 +8504,13 @@
         <v>473</v>
       </c>
       <c r="B471" s="2">
-        <v>144.4</v>
+        <v>144.1</v>
       </c>
       <c r="C471" s="2">
-        <v>19282621349</v>
+        <v>19908413028</v>
       </c>
       <c r="D471" s="3">
-        <v>0</v>
+        <v>0.6870916099243513</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8518,13 +8518,13 @@
         <v>474</v>
       </c>
       <c r="B472" s="2">
-        <v>36.24</v>
+        <v>37.18</v>
       </c>
       <c r="C472" s="2">
-        <v>6988160692</v>
+        <v>7001867881</v>
       </c>
       <c r="D472" s="3">
-        <v>2</v>
+        <v>2.662988192310356</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8532,13 +8532,13 @@
         <v>475</v>
       </c>
       <c r="B473" s="2">
-        <v>205.51</v>
+        <v>202.84</v>
       </c>
       <c r="C473" s="2">
-        <v>33294824833</v>
+        <v>32729137432</v>
       </c>
       <c r="D473" s="3">
-        <v>0</v>
+        <v>0.4881182261393168</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8546,13 +8546,13 @@
         <v>476</v>
       </c>
       <c r="B474" s="2">
-        <v>218.69</v>
+        <v>219.07</v>
       </c>
       <c r="C474" s="2">
-        <v>25491322984</v>
+        <v>24701180140</v>
       </c>
       <c r="D474" s="3">
-        <v>0</v>
+        <v>0.4519555438448853</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8560,13 +8560,13 @@
         <v>477</v>
       </c>
       <c r="B475" s="2">
-        <v>241.84</v>
+        <v>234.47</v>
       </c>
       <c r="C475" s="2">
-        <v>61792089115</v>
+        <v>63307668246</v>
       </c>
       <c r="D475" s="3">
-        <v>0</v>
+        <v>0.4222710836785047</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8574,13 +8574,13 @@
         <v>478</v>
       </c>
       <c r="B476" s="2">
-        <v>50.09</v>
+        <v>51.02</v>
       </c>
       <c r="C476" s="2">
-        <v>18445743246</v>
+        <v>19284400089</v>
       </c>
       <c r="D476" s="3">
-        <v>1</v>
+        <v>1.940609584282615</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8588,13 +8588,13 @@
         <v>479</v>
       </c>
       <c r="B477" s="2">
-        <v>60.6</v>
+        <v>60.73</v>
       </c>
       <c r="C477" s="2">
-        <v>255569673264</v>
+        <v>246220872671</v>
       </c>
       <c r="D477" s="3">
-        <v>1</v>
+        <v>1.630329342830545</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8602,13 +8602,13 @@
         <v>480</v>
       </c>
       <c r="B478" s="2">
-        <v>75.8</v>
+        <v>76.23999999999999</v>
       </c>
       <c r="C478" s="2">
-        <v>14449494367</v>
+        <v>13962427709</v>
       </c>
       <c r="D478" s="3">
-        <v>1</v>
+        <v>1.298660820961425</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8616,13 +8616,13 @@
         <v>481</v>
       </c>
       <c r="B479" s="2">
-        <v>247.52</v>
+        <v>259.01</v>
       </c>
       <c r="C479" s="2">
-        <v>15509798627</v>
+        <v>15655339978</v>
       </c>
       <c r="D479" s="3">
-        <v>0</v>
+        <v>0.382262850816953</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8630,13 +8630,13 @@
         <v>482</v>
       </c>
       <c r="B480" s="2">
-        <v>39.75</v>
+        <v>41.47</v>
       </c>
       <c r="C480" s="2">
-        <v>35516997637</v>
+        <v>34279110339</v>
       </c>
       <c r="D480" s="3">
-        <v>2</v>
+        <v>2.387506655174802</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8644,13 +8644,13 @@
         <v>483</v>
       </c>
       <c r="B481" s="2">
-        <v>51.02</v>
+        <v>52.22</v>
       </c>
       <c r="C481" s="2">
-        <v>15209633633</v>
+        <v>15691070492</v>
       </c>
       <c r="D481" s="3">
-        <v>1</v>
+        <v>1.896014955765971</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8658,13 +8658,13 @@
         <v>484</v>
       </c>
       <c r="B482" s="2">
-        <v>92.8</v>
+        <v>93.23</v>
       </c>
       <c r="C482" s="2">
-        <v>29338254577</v>
+        <v>28889665151</v>
       </c>
       <c r="D482" s="3">
-        <v>1</v>
+        <v>1.061996149201963</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8672,13 +8672,13 @@
         <v>485</v>
       </c>
       <c r="B483" s="2">
-        <v>64.13</v>
+        <v>64.34</v>
       </c>
       <c r="C483" s="2">
-        <v>27754951142</v>
+        <v>27366307346</v>
       </c>
       <c r="D483" s="3">
-        <v>1</v>
+        <v>1.538854538235919</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8686,13 +8686,13 @@
         <v>486</v>
       </c>
       <c r="B484" s="2">
-        <v>31.27</v>
+        <v>31.32</v>
       </c>
       <c r="C484" s="2">
-        <v>123959230259</v>
+        <v>127226535763</v>
       </c>
       <c r="D484" s="3">
-        <v>3</v>
+        <v>3.161235663796265</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8700,13 +8700,13 @@
         <v>487</v>
       </c>
       <c r="B485" s="2">
-        <v>196.8</v>
+        <v>202.3</v>
       </c>
       <c r="C485" s="2">
-        <v>12567966388</v>
+        <v>12224109460</v>
       </c>
       <c r="D485" s="3">
-        <v>0</v>
+        <v>0.4894211615921849</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8714,13 +8714,13 @@
         <v>488</v>
       </c>
       <c r="B486" s="2">
-        <v>215.52</v>
+        <v>216.85</v>
       </c>
       <c r="C486" s="2">
-        <v>27326591008</v>
+        <v>27669407613</v>
       </c>
       <c r="D486" s="3">
-        <v>0</v>
+        <v>0.4565824348171502</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -8728,13 +8728,13 @@
         <v>489</v>
       </c>
       <c r="B487" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C487" s="2">
-        <v>49702512756</v>
+        <v>49750481779</v>
       </c>
       <c r="D487" s="3">
-        <v>0</v>
+        <v>0.8115565654926149</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8742,13 +8742,13 @@
         <v>490</v>
       </c>
       <c r="B488" s="2">
-        <v>21.36</v>
+        <v>21.49</v>
       </c>
       <c r="C488" s="2">
-        <v>26025978751</v>
+        <v>25442036091</v>
       </c>
       <c r="D488" s="3">
-        <v>4</v>
+        <v>4.607254583066497</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8756,13 +8756,13 @@
         <v>491</v>
       </c>
       <c r="B489" s="2">
-        <v>145</v>
+        <v>143.7</v>
       </c>
       <c r="C489" s="2">
-        <v>421705161491</v>
+        <v>420447982317</v>
       </c>
       <c r="D489" s="3">
-        <v>0</v>
+        <v>0.6890041822553864</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8770,13 +8770,13 @@
         <v>492</v>
       </c>
       <c r="B490" s="2">
-        <v>67.90000000000001</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C490" s="2">
-        <v>12283533775</v>
+        <v>11966698933</v>
       </c>
       <c r="D490" s="3">
-        <v>1</v>
+        <v>1.464643505770696</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -8784,13 +8784,13 @@
         <v>493</v>
       </c>
       <c r="B491" s="2">
-        <v>44.51</v>
+        <v>45.35</v>
       </c>
       <c r="C491" s="2">
-        <v>11844195915</v>
+        <v>11867720795</v>
       </c>
       <c r="D491" s="3">
-        <v>2</v>
+        <v>2.183239272108027</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -8798,13 +8798,13 @@
         <v>494</v>
       </c>
       <c r="B492" s="2">
-        <v>294.45</v>
+        <v>289.15</v>
       </c>
       <c r="C492" s="2">
-        <v>20998740410</v>
+        <v>21362098616</v>
       </c>
       <c r="D492" s="3">
-        <v>0</v>
+        <v>0.3424170879823587</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -8812,13 +8812,13 @@
         <v>495</v>
       </c>
       <c r="B493" s="2">
-        <v>22.63</v>
+        <v>22.9</v>
       </c>
       <c r="C493" s="2">
-        <v>9313372687</v>
+        <v>9126936690</v>
       </c>
       <c r="D493" s="3">
-        <v>4</v>
+        <v>4.323576462449739</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -8826,13 +8826,13 @@
         <v>496</v>
       </c>
       <c r="B494" s="2">
-        <v>34.15</v>
+        <v>34.63</v>
       </c>
       <c r="C494" s="2">
-        <v>25544669455</v>
+        <v>25773446147</v>
       </c>
       <c r="D494" s="3">
-        <v>2</v>
+        <v>2.85907886197225</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -8840,13 +8840,13 @@
         <v>497</v>
       </c>
       <c r="B495" s="2">
-        <v>114.49</v>
+        <v>118.46</v>
       </c>
       <c r="C495" s="2">
-        <v>12479453490</v>
+        <v>12880748731</v>
       </c>
       <c r="D495" s="3">
-        <v>0</v>
+        <v>0.8358087201595392</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8854,13 +8854,13 @@
         <v>498</v>
       </c>
       <c r="B496" s="2">
-        <v>64.81</v>
+        <v>65.2</v>
       </c>
       <c r="C496" s="2">
-        <v>35202284115</v>
+        <v>34190488016</v>
       </c>
       <c r="D496" s="3">
-        <v>1</v>
+        <v>1.518556763651825</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -8868,13 +8868,13 @@
         <v>499</v>
       </c>
       <c r="B497" s="2">
-        <v>144.95</v>
+        <v>142.56</v>
       </c>
       <c r="C497" s="2">
-        <v>36074146238</v>
+        <v>34997638773</v>
       </c>
       <c r="D497" s="3">
-        <v>0</v>
+        <v>0.6945138958340279</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -8882,13 +8882,13 @@
         <v>500</v>
       </c>
       <c r="B498" s="2">
-        <v>42.8</v>
+        <v>43.3</v>
       </c>
       <c r="C498" s="2">
-        <v>180998739850</v>
+        <v>179842805082</v>
       </c>
       <c r="D498" s="3">
-        <v>2</v>
+        <v>2.286602794228615</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -8896,13 +8896,13 @@
         <v>501</v>
       </c>
       <c r="B499" s="2">
-        <v>52.95</v>
+        <v>52.6</v>
       </c>
       <c r="C499" s="2">
-        <v>11386461557</v>
+        <v>11607567472</v>
       </c>
       <c r="D499" s="3">
-        <v>1</v>
+        <v>1.882317509317472</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -8910,13 +8910,13 @@
         <v>502</v>
       </c>
       <c r="B500" s="2">
-        <v>22.91</v>
+        <v>23.55</v>
       </c>
       <c r="C500" s="2">
-        <v>4489967059</v>
+        <v>4655835134</v>
       </c>
       <c r="D500" s="3">
-        <v>4</v>
+        <v>4.204242080258981</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8924,13 +8924,13 @@
         <v>503</v>
       </c>
       <c r="B501" s="2">
-        <v>103.47</v>
+        <v>105.12</v>
       </c>
       <c r="C501" s="2">
-        <v>18445483842</v>
+        <v>18756549479</v>
       </c>
       <c r="D501" s="3">
-        <v>0</v>
+        <v>0.9418750094187501</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -8938,13 +8938,13 @@
         <v>504</v>
       </c>
       <c r="B502" s="2">
-        <v>109.97</v>
+        <v>112.54</v>
       </c>
       <c r="C502" s="2">
-        <v>33328718036</v>
+        <v>32499983253</v>
       </c>
       <c r="D502" s="3">
-        <v>0</v>
+        <v>0.8797751998409367</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -8952,13 +8952,13 @@
         <v>505</v>
       </c>
       <c r="B503" s="2">
-        <v>151.1</v>
+        <v>151.67</v>
       </c>
       <c r="C503" s="2">
-        <v>31165600069</v>
+        <v>32325429308</v>
       </c>
       <c r="D503" s="3">
-        <v>0</v>
+        <v>0.6527981867877565</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -8966,13 +8966,13 @@
         <v>506</v>
       </c>
       <c r="B504" s="2">
-        <v>385.72</v>
+        <v>378.12</v>
       </c>
       <c r="C504" s="2">
-        <v>20825139290</v>
+        <v>20927297199</v>
       </c>
       <c r="D504" s="3">
-        <v>0</v>
+        <v>0.2618478287054348</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -8980,13 +8980,13 @@
         <v>507</v>
       </c>
       <c r="B505" s="2">
-        <v>43.6</v>
+        <v>44.69</v>
       </c>
       <c r="C505" s="2">
-        <v>7156892640</v>
+        <v>7348669314</v>
       </c>
       <c r="D505" s="3">
-        <v>2</v>
+        <v>2.215482232940233</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -8994,13 +8994,13 @@
         <v>508</v>
       </c>
       <c r="B506" s="2">
-        <v>162.78</v>
+        <v>165.29</v>
       </c>
       <c r="C506" s="2">
-        <v>77030531203</v>
+        <v>77079421434</v>
       </c>
       <c r="D506" s="3">
-        <v>0</v>
+        <v>0.5990072054576745</v>
       </c>
     </row>
   </sheetData>
